--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$476</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$490</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="323">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -1103,9 +1103,689 @@
     <t>Apple などのサードパーティーを通じてサインインできます。</t>
   </si>
   <si>
-    <t>問題23から</t>
+    <t>Amazon S3 Transfer Acceleration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon S3 Transfer Acceleration を使用すると、クライアントと S3 バケットの間で、長距離に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わたるファイル転送を高速、簡単、安全に行えるようになります。</t>
+  </si>
+  <si>
+    <t>マルチパートアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチパートアップロード API を使用すると、大容量オブジェクトをいくつかに分けてアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できるようになります。この API では、新しい大容量オブジェクトをアップロードしたり、既存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトのコピーを作成したりできます</t>
+  </si>
+  <si>
+    <t>S3のマルチアップロードAPIは100 Mbpsのインターネット回線を使用してデータセンターからAWSに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを転送するため、帯域幅が限られています。</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
     <rPh sb="0" eb="2">
-      <t>モンダイ</t>
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Storage Gateway は、オンプレミスから実質無制限のクラウドストレージへのアクセスを提供する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイブリッドクラウドストレージサービスです。お客様は Storage Gateway を使用して、ストレージ管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を簡素化し、主要なハイブリットクラウドストレージのユースケースでコストを削減できます。</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway のファイルインターフェイスまたはファイルゲートウェイを使用すると、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シームレスな方法でクラウドに接続でき、アプリケーションのデータファイルやバックアップイメージを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久性の高いオブジェクトとして Amazon S3 クラウドストレージに保存できます。</t>
+  </si>
+  <si>
+    <t>Amazon Storage Gateway-File Gatewayのセットアップには時間がかかり、データを送信にも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間がかかるため、大量のデータを送信する場合は代わりにAWS Snowballを使用する方が適切です。</t>
+    <rPh sb="9" eb="11">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct Connect接続を設定するには、十分な時間を割り当ててネットワークプロバイダーと協力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要があり時間がかかる上、大規模データ移行には利用されません。</t>
+  </si>
+  <si>
+    <t>Direct Connect接続</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Direct Connect はプレミスから AWS への専用ネットワーク接続の構築をシンプルにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドサービスソリューションです。AWS Direct Connect を使用すると、AWS とデータセンター、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフィス、またはコロケーション環境との間にプライベート接続を確立することができます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Server Migration Service </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Server Migration Service は、オンプレミスの VMware vSphere、Microsoft Hyper-V/SCVMM、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>または Azure 仮想マシンの AWS クラウドへの移行を自動化します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowball </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snowball はセキュリティに考慮して設計されたデバイスを使用するペタバイト規模のデータ転送</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソリューションで、AWS クラウド内外に大容量データを転送できます。</t>
+  </si>
+  <si>
+    <t>Snowballを使用すると、高いネットワークコスト、長い転送時間、セキュリティ上の懸念など、大規模な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データ転送で発生する可能性のある課題を排除できます。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各SnowballはAWS KMSによってデータ保護されており、また物理的にも頑丈になっています。</t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager はその他の AWS サービスと統合されているため、SSL/TLS 証明書を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プロビジョニングし、Elastic Load Balancer、Amazon CloudFront ディストリビューションや Amazon </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API Gateway の API でデプロイできます。</t>
+  </si>
+  <si>
+    <t>AWS Certificate Manager はまた AWS Elastic Beanstalk および (E メールでの検証を使うパブリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>証明書のみを対象として) AWS CloudFormation とともに使用でき、パブリック証明書の管理を容易に、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またそれらを AWS クラウドでお使いのアプリケーションとともに使用できるようにします。</t>
+  </si>
+  <si>
+    <t>AMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用するOSなどのライセンス認証情報はAMIに含まれるが、PEM（秘密キーファイル）の内容は</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>含まれない。</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがって、AMIを利用してリージョン間でEC2を移動する際には、移動後にEC2コンソールを</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用してPEMキーをインポートする必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCエンドポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライベートサブネットからアクセスするために、VPC内に特別なエンドポイントを作成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートテーブルでS3へアクセスするIPアドレスをVPCエンドポイントへ向けるようにしてアクセスを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能とさせます。</t>
+  </si>
+  <si>
+    <t>Amazon S3のVPCエンドポイントは、設定が簡単で信頼性が高く、ゲートウェイやNATインスタンスを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要としないS3への安全な接続を提供します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedShift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DWHのマネージドサービス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計・分析クエリに最適化されているためデータの格納方式が列指向である。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超並列処理（MPP：Massively Parallel Processing）を行う。</t>
+    <rPh sb="0" eb="3">
+      <t>チョウヘイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedShiftはS3上のデータをCopyコマンドで簡単にロードできる。またローカルストレージではなく</t>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3にデータを保持し、分析クエリを発行するRedShift Spectrumという機能もある。</t>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedShiftはクライアントの窓口となる単一のリーダーノードと、集計・分析などの処理を行う</t>
+    <rPh sb="16" eb="18">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のコンピューターノードで構成される。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のコンピューターノードは並列で処理を行い、その結果を結合してクライアントに返す。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この処理のことをMPPという</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Glue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Glue は抽出、変換、ロード (ETL) を行う完全マネージド型のサービスで、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様の分析用データの準備とロードを簡単にします。</t>
+  </si>
+  <si>
+    <t>RedShift Spectrumを利用するには、S3とRedShift Spectrumの間に、Amazon Athenaによって</t>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成されたAWS Glueデータカタログが必要になる。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可用性</t>
+    <rPh sb="0" eb="3">
+      <t>カヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗長化</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタ内のノード障害は自動検知・復旧されるためノードの冗長化はノード数を</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増やすだけで行える。</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、2つ以上のノードでクラスタを構成することが推奨される。</t>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedShiftは、RDSと異なりマルチAZ構成をとることができない。 そのため、S3に</t>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データをアップロードし、複数のAZに展開したRedShiftにデータをロードする</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことで可用性を高めることができるし、RedShift Sectrumを利用し、S3に直接</t>
+    <rPh sb="3" eb="6">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリを発行することでも可用性を高めることができる。</t>
+    <rPh sb="4" eb="6">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、S3上のデータを更新できないため注意が必要である。</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードされたデータは常時S3に自動的にバックアップされます。保存期間はデフォルト</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で11日、最大で35日に設定できるが、バックアップデータ量により費用が異なるため</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適切な日程を設定する必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また手動でスナップショットを作成することもできる。</t>
+    <rPh sb="2" eb="4">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Elastic Container Service (ECS) Cluster Auto Scaling が利用可能になりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECS Cluster Auto Scaling を使用すると、EC2 で実行されている ECS クラスターは、クラスター内の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">すべてのタスクとサービスのリソース需要を満たすために必要に応じて自動的にスケーリング </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ゼロとの間のスケーリングも含む) できます。</t>
+  </si>
+  <si>
+    <t>AWS Fargate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Fargate は、Amazon Elastic Container Service (ECS) と Amazon Elastic Kubernetes Service </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(EKS) の両方で動作する、コンテナ向けサーバーレスコンピューティングエンジンです。</t>
+  </si>
+  <si>
+    <t>問３１</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1180,10 +1860,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W359"/>
+  <dimension ref="A1:W483"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A342" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A360" sqref="A360"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A474" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1898,186 +2581,186 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
     </row>
     <row r="69" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5" t="s">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
     </row>
     <row r="70" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5" t="s">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4" t="s">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
     </row>
     <row r="73" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A75">
@@ -2981,70 +3664,574 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A342">
-        <v>29</v>
-      </c>
-      <c r="B342" t="s">
-        <v>219</v>
+      <c r="C342" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C343" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A344" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C344" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C345" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C346" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C347" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C348" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>29</v>
+      </c>
+      <c r="B350" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C352" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C355" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C349" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A351">
-        <v>30</v>
-      </c>
-      <c r="B351" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A353" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C353" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C354" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C356" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C357" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <v>30</v>
+      </c>
+      <c r="B359" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C361" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C362" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C364" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C365" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A359" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <v>31</v>
+      </c>
+      <c r="B367" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C370" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>32</v>
+      </c>
+      <c r="B372" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C375" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C376" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C378" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C379" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>33</v>
+      </c>
+      <c r="B381" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C383" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C384" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C385" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C387" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C388" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C389" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C391" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C392" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>34</v>
+      </c>
+      <c r="B394" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C396" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C397" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C398" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C400" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C401" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>35</v>
+      </c>
+      <c r="B403" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C405" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C406" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>36</v>
+      </c>
+      <c r="B408" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C410" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C411" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C413" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C414" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C415" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>37</v>
+      </c>
+      <c r="B417" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A419" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C419" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C420" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C421" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C422" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>38</v>
+      </c>
+      <c r="B424" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C426" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D426" s="3"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C427" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C428" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C430" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C431" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <v>39</v>
+      </c>
+      <c r="B433" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C435" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B437" t="s">
+        <v>283</v>
+      </c>
+      <c r="D437" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D438" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C440" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C441" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C442" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C443" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C444" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B446" t="s">
+        <v>288</v>
+      </c>
+      <c r="D446" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D447" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D448" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D449" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C451" t="s">
+        <v>293</v>
+      </c>
+      <c r="F451" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F452" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B454" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C456" t="s">
+        <v>299</v>
+      </c>
+      <c r="F456" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F457" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F458" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F459" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F461" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F462" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F463" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C465" t="s">
+        <v>300</v>
+      </c>
+      <c r="F465" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F466" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F467" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F469" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <v>40</v>
+      </c>
+      <c r="B471" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C473" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C474" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C475" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C476" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <v>41</v>
+      </c>
+      <c r="B478" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C480" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C481" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A483" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$490</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$725</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="525">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -1783,10 +1783,1113 @@
     <t>(EKS) の両方で動作する、コンテナ向けサーバーレスコンピューティングエンジンです。</t>
   </si>
   <si>
-    <t>問３１</t>
+    <t>Trusted Accessを使用して、指定したAWSサービスを有効することで組織とそのアカウントでタスクを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動で実行する設定を行うことができます。 これには、信頼できるサービスへのアクセス許可の付与</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が含まれますが、IAMユーザーまたはロールのアクセス許可には影響しません。</t>
+  </si>
+  <si>
+    <t>AW​​S RAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Resource Access Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Resource Access Manager（AW​​S RAM）を使用すると、所有する特定のAWSリソースを他のAWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントと共有できます。 AWS OrganizationsでTrusted Accessを有効にするにはAWS RAM CLI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>から、enable-sharing-with-aws-organizationsコマンドを使用します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fargate起動タイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fargate 起動タイプにより、バックエンドインフラストラクチャをプロビジョニングおよび管理することなく、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ化されたアプリケーションを実行できます。タスク定義を登録するだけで、Fargate により</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナが起動されます。</t>
+  </si>
+  <si>
+    <t>AWS Secret Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Secrets Manager は、アプリケーション、サービス、IT リソースへのアクセスに必要なシークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の保護を支援します。このサービスは、データベースの認証情報、API キー、その他のシークレットを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのライフサイクルを通して容易にローテーション、管理、取得できるようにします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーとアプリケーションは、Secrets Manager API を呼び出してシークレットを取得しますので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密情報をプレーンテキストでコードに書き込む必要がなくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Secrets Manager は、Amazon RDS、Amazon Redshift、Amazon DocumentDB への統合を組み込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことでシークレットのローテーションを提供します。また、このサービスは API キーや OAuth トークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など他のタイプのシークレットにも使えます。さらに、Secrets Manager は、AWS クラウド、サード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティーサービス、オンプレミスのリソースに対して中央でのきめ細かいアクセス許可と、シークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローテーションの監査を用いて、シークレットへのアクセスをお客様がコントロールできるようにします。</t>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Client VPN は、AWS リソースや、オンプレミスネットワーク内のリソースに安全にアクセスできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようにする、クライアントベースのマネージド VPN サービスです。クライアント VPN を使用すると、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenVPN ベースの VPN クライアントを使用して、どこからでもリソースにアクセスできます。</t>
+  </si>
+  <si>
+    <t>AWS Client VPN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC-1　⇔　VPCピアリング（pcx-11112222）⇔　VPC-２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC-1　⇔　VPCピアリング（pcx-11113333）⇔　VPC- 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.0.0.0/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.0.0.0/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>168.29..0.123 / 32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Directory Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Managed Microsoft AD とも呼ばれる AWS Directory Service for Microsoft Active Directory は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ対応型ワークロードと AWS リソースがAWS クラウド内のマネージド型 Active Directory を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用することを可能にします。AWS Managed Microsoft AD は実際の Microsoft Active Directory 上に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築されており、既存の Active Directory からクラウドにデータを同期またはレプリケートする必要は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありません。標準の Active Directory 管理ツールを使用することができ、グループポリシーやシングル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインオン (SSO) などの組み込みの Active Directory 機能を活用することもできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Managed Microsoft AD では、Amazon EC2 インスタンスと Amazon RDS for SQL Server </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">インスタンスをドメインに簡単に参加させることができ、Amazon WorkSpaces などの AWS Enterprise </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT アプリケーションを Active Directory のユーザーとグループで使用できるようになります。</t>
+  </si>
+  <si>
+    <t>AWS VPN CloudHub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">複数のブランチオフィスなど、複数のリモートネットワークについては、VPC 経由でマルチ AWS </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェア VPN 接続を作成し、これらのネットワーク間の通信を可能にします</t>
+  </si>
+  <si>
+    <t>STSを利用できるAPI</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssumeRole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetFederationToken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VGWはAWS側のGatewayで、ルート伝播（Route Propagation）を有効化する必要がある。</t>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常はアクセスできない可能性があるAWSリソースへのアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">に使用できる一時的なセキュリティ認証情報のセットを返します。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらの一時的な資格情報は、アクセスキーID、シークレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスキー、およびセキュリティトークンで構成されます</t>
+  </si>
+  <si>
+    <t>通常、AssumeRoleはアカウント内またはクロスアカウントアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に使用します。</t>
+  </si>
+  <si>
+    <t>フェデレーションユーザーの一連の一時的なセキュリティ資格情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（アクセスキーID、シークレットアクセスキー、およびセキュリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークンで構成される）を返します。</t>
+  </si>
+  <si>
+    <t>IAMユーザーの長期的なセキュリティ認証情報を使用して</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetFederationTokenオペレーションを呼び出す必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、この呼び出しは、通常はサーバーベースのアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーションでこれらの資格情報を安全に保存できるコンテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>となります。</t>
+  </si>
+  <si>
+    <t>オンプレミス環境へのルートバックを追加することで、EC2インスタンスが設置されているVPCの</t>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブネットにあるルートテーブルを更新する。</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spot Fleet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spot Fleet(スポットフリート)は、スポットインスタンスの買い方の一種で、条件を指定（メモリ・価格上限</t>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イッシュ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など）しておくと、AWSがEC2のスポットインスタンスの価格を監視し、条件にあったEC2を見つけ出して</t>
+    <rPh sb="28" eb="30">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動する。 逆に、価格上限を超えたEC2のスポットインスタンスは自動的に廃棄するといった</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローテーションを自動で行ってくれる機能である。</t>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで予算枠をはみ出さずに、必要なインスタンスを必要なだけ用意して使用できるようになる。</t>
+    <rPh sb="3" eb="5">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットフリートを利用した割り当て戦略を実施して、Auto Scalingを設定することで、オンデマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスの代わりに各AZにおけるピークロードを処理できるように設定して、平常時には</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の構成を維持することができます。</t>
+  </si>
+  <si>
+    <t>DaynamoDB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル、項目、および属性が、操作するコアコンポーネントです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルは項目のコレクションになる。</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目は属性のコレクションになる。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドやカラムのようなもの。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DynamoDBは２つの異なるタイプのプライマリーキーを保持できる。</t>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティションキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティションキー・ソートキー（複合キー）</t>
+    <rPh sb="16" eb="18">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DynamoDBはセカンダリーインデックスを保持でき、プリマリーキー以外での検索を可能にする。</t>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グローバルセカンダリーインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルセカンダリーインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> テーブルと異なるパーティションキーとソートキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を持つインデックス。</t>
+  </si>
+  <si>
+    <t>を持つインデックス。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> テーブルと同じパーティションキーと、異なるソートキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EMR(Elastic MapReduce)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大量のデータを、迅速、容易に、かつコスト効率よく処理するために用意された、分散コンピューティング</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のサービスのこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理するためのEC2のコレクションのことをクラスターという。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス数は手動またはAutoScalingを使用して増減できる。</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタ内のEC2のことをノードと呼び、ノードにはノードタイプがある。</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタ内には、１つのマスタノードと複数のスレーブノード（コアノード、および</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクのノード）がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットインスタンスを利用するとコストが抑えられる。</t>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3 Intelligent-Tiering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コアノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常、オンデマンドインスタンスやリザーブドインスタンスを利用する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCP（Service Control Policy)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCPは組織に含まれる複数のAWSアカウントに対してざっくりとして権限制御を行うための仕組みです。</t>
+    <rPh sb="4" eb="6">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Amplify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amplify は、バージョンコントロール、コードのテスト、実稼働環境へのデプロイといったモバイルアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーションの開発ワークフロー全体をカバーしています。</t>
+  </si>
+  <si>
+    <t>Amplify フレームワークの一部である Amplify のライブラリと CLIはオープンソースであり、プラグインが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能なインターフェイスがあるので、カスタマイズや自分自身のプラグインの作成を行えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Mobile Hub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3 Intelligent-Tiering は Amazon S3 の新しいストレージクラスで、データのアクセスパターンが変化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したときに、パフォーマンスへの影響や運用上の負担を発生させることなく、ストレージコストを自動的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に最適化したいお客様向けに設計されました。S3 Intelligent-Tiering は、アクセスパターンが変化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するときに 2 つのアクセス階層間 (高頻度アクセスと低頻度アクセス) でデータを移動することで自動的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にコスト削減を行う、初めてのクラウドオブジェクトストレージクラスです。このクラスはアクセスパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が未知または変化するデータに最適です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Amplify は、セキュアでスケーラブルなモバイルアプリケーションとウェブアプリケーションを構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>するための開発プラットフォームです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの認証、データとユーザーのメタデータのセキュアな保存、データへの選択的なアクセスの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>許可、機械学習の統合、アプリケーションのメトリクスの分析、サーバー側コードの実行するといった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業を容易にします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、ビジネスの拡大に伴い、数千名のユーザーから数千万名のユーザーまで容易にスケーリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Mobile Hub を使用すると、さまざまな強力な AWS のサービスを使用して、初心者でも簡単に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モバイルアプリのバックエンド機能をデプロイして設定できます。</t>
+  </si>
+  <si>
+    <t>無料のプロジェクトを作成し、ポイントを選択してクリックするだけのコンソールを使用して、モバイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ機能を選択して設定します。Mobile Hub はバックグラウンドの複雑な部分を担当し、ステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイステップの統合手順を提供します。</t>
+  </si>
+  <si>
+    <t>AWS Config には、マルチアカウント、マルチリージョンのデータ集計が含まれるようになり、集中的な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監査とガバナンスが可能になります。この機能により、企業全体のコンプライアンス状況を把握する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のに必要な時間とオーバーヘッドが削減されます。</t>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CloudTrail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS CloudTrail は、AWS アカウントのガバナンス、コンプライアンス、運用監査、リスク監査を行うため</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のサービスです。CloudTrail を使用すると、AWS インフラストラクチャ全体でアカウントアクティビティを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログに記録し、継続的に監視し、保持できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CloudTrail では、AWS マネジメントコンソール、AWS の SDK やコマンドラインツール、その他の AWS </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のサービスを使用して実行されるアクションなど、AWS アカウントアクティビティのイベント履歴を把握</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このイベント履歴により、セキュリティ分析、リソース変更の追跡、トラブルシューティングをより簡単に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行できるようになります。 さらに、CloudTrail を使用して、AWS アカウントの異常なアクティビティを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検出することができます。こうした機能は、運用分析とトラブルシューティングを簡素化するのに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役立ちます。</t>
+  </si>
+  <si>
+    <t>一般に、Amazon S3 のバケットのストレージおよびデータ転送にかかるコストはすべて、そのバケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有者が負担します。ただしバケット所有者は、バケットをリクエスタ支払いバケットとして設定すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ができます。リクエスタ支払いバケットの場合、リクエストおよびバケットからのデータのダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にかかるコストは、所有者でなくリクエストを実行したリクエスタが支払います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの保管にかかるコストは常にバケット所有者が支払います。</t>
+  </si>
+  <si>
+    <t>リクエスタ支払いバケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCとサブネットのCIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブネットのCIDRブロックは、VPCのCIDRブロック（VPCの単一サブネットの場合）、またはVPCのCIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックのサブセット（複数のサブネットの場合）と同じにすることができます。</t>
+  </si>
+  <si>
+    <t>VPCで複数のサブネットを作成する場合、サブネットのCIDRブロックは重複できません。 重複した</t>
+    <rPh sb="44" eb="46">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合は重複エラーが発生します。</t>
+    <rPh sb="0" eb="2">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題49</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーアクセスログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的Webサイトホスティング</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトレベルのログの記録</t>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト暗号化</t>
+    <rPh sb="5" eb="8">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ詳細設定</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトのロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transfer acceleration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスタ支払い</t>
+    <rPh sb="5" eb="7">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックパブリックアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスコントロールリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パケットポリシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CORSの設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブリックアクセスを全てブロック</t>
+    <rPh sb="10" eb="11">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいACLを介して許可されたバケットとオブジェクトへのパブリックアクセスをブロックする</t>
     <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のACL を介して許可されたバケットとオブジェクトへのパブリックアクセスをブロックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規のパブリックバケットポリシーまたはアクセスポイントポリシーを介して付与された</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バケットとオブジェクトへのパブリックアクセスをブロックする</t>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のパブリックバケットポリシーまたはアクセスポイントポリシーを介したバケットと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトへのパブリックアクセスとクロスアカウントアクセスをブロックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バケット所有者のアクセス権</t>
+    <rPh sb="4" eb="7">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のAWSアカウントのアクセス</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブリックアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3ログ配信グループ</t>
+    <rPh sb="4" eb="6">
+      <t>ハイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフサイクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メトリクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスポイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1860,21 +2963,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,14 +3005,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>256442</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>95882</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1954,13 +3060,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>256442</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>120894</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>4397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2295,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W483"/>
+  <dimension ref="A1:W718"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A474" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A484" sqref="A484"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A703" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C716" sqref="C716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2568,698 +3674,695 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>6</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D67" s="4" t="s">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4" t="s">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D68" s="5" t="s">
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D75" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="6" t="s">
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70" s="6" t="s">
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D71" s="5" t="s">
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D78" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5" t="s">
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="6" t="s">
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-    </row>
-    <row r="73" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="6" t="s">
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A75">
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>7</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B124" s="1" t="s">
-        <v>79</v>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B131" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B131" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B132" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141">
         <v>8</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B141" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B138">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B145">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C145" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B140">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B147">
         <v>2</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C147" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C142" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C143" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C145" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C146" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C150" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C152" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C153" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B157">
-        <v>5</v>
-      </c>
       <c r="C157" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B159">
-        <v>6</v>
-      </c>
       <c r="C159" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C160" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C161" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163">
-        <v>9</v>
-      </c>
-      <c r="B163" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C165" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B166">
+        <v>6</v>
+      </c>
       <c r="C166" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C167" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C168" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C172" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C169" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C170" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172">
-        <v>10</v>
-      </c>
-      <c r="B172" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C174" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C175" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C176" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A178">
-        <v>11</v>
-      </c>
-      <c r="B178" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C180" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C181" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C182" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C184" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C185" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C186" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A188">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A190" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C190" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C191" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C192" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C193" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C194" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A196">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C197" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A198" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>131</v>
+      <c r="C198" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C199" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C200" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C201" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C221" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C222">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C229">
         <v>1</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D229" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C223">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C230">
         <v>2</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D230" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A225">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232">
         <v>15</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B232" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="1" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C228" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C235" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C229" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C236" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C231" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C238" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C232" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C239" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A234">
-        <v>16</v>
-      </c>
-      <c r="B234" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A236" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C237" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C238" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C239" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -3269,987 +4372,2134 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C244" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C245" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C246" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C247" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A249">
-        <v>18</v>
-      </c>
-      <c r="B249" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A251" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C251" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C252" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C253" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A255">
-        <v>19</v>
-      </c>
-      <c r="B255" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A257" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C257" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C254" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C258" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C259" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C260" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C261" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C262" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C263" t="s">
-        <v>163</v>
+        <v>462</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C264" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C265" t="s">
-        <v>165</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C266" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C267" t="s">
-        <v>167</v>
+      <c r="A266">
+        <v>19</v>
+      </c>
+      <c r="B266" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C268" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A269">
-        <v>20</v>
-      </c>
-      <c r="B269" t="s">
-        <v>168</v>
+      <c r="C269" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A271" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C271" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C272" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C274" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C275" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C276" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C277" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C278" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B280" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="C282" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C284" t="s">
-        <v>191</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C283" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C285" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C287" t="s">
-        <v>193</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C286" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C288" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C289" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>21</v>
+      </c>
+      <c r="B291" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C296" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C298" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C299" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A290">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C301" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C302" t="s">
+        <v>371</v>
+      </c>
+      <c r="D302" t="s">
+        <v>372</v>
+      </c>
+      <c r="J302" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J303" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J304" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J305" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J306" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J307" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C309" t="s">
+        <v>373</v>
+      </c>
+      <c r="D309" t="s">
+        <v>374</v>
+      </c>
+      <c r="J309" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J310" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J311" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J312" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J313" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J314" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J315" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J316" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A318">
         <v>22</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B318" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A292" s="1" t="s">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C320" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C293" t="s">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C321" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A295">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A323">
         <v>23</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B323" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A297" s="1" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A325" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C325" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C298" t="s">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C326" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A300">
-        <v>24</v>
-      </c>
-      <c r="B300" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A302" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C302" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C304" t="s">
-        <v>185</v>
-      </c>
-      <c r="F304" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C305" t="s">
-        <v>187</v>
-      </c>
-      <c r="F305" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F306" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A308">
-        <v>25</v>
-      </c>
-      <c r="B308" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C310" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C311" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C313" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C314" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C315" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A317">
-        <v>26</v>
-      </c>
-      <c r="B317" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A319" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C319" t="s">
-        <v>202</v>
-      </c>
-      <c r="F319" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F320" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C322" t="s">
-        <v>203</v>
-      </c>
-      <c r="F322" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F323" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C325" t="s">
-        <v>204</v>
-      </c>
-      <c r="F325" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F326" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B328" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C332" t="s">
-        <v>213</v>
+        <v>185</v>
+      </c>
+      <c r="F332" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C333" t="s">
+        <v>187</v>
+      </c>
+      <c r="F333" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F334" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>25</v>
+      </c>
+      <c r="B336" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C339" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C341" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C342" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C343" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>26</v>
+      </c>
+      <c r="B345" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C347" t="s">
+        <v>202</v>
+      </c>
+      <c r="F347" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F348" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C350" t="s">
+        <v>203</v>
+      </c>
+      <c r="F350" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F351" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>204</v>
+      </c>
+      <c r="F353" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F354" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>27</v>
+      </c>
+      <c r="B356" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C358" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C335" t="s">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C363" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A337">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A365">
         <v>28</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B365" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A339" s="1" t="s">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C367" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C340" t="s">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C368" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C342" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C343" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C344" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C346" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C347" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C348" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A350">
-        <v>29</v>
-      </c>
-      <c r="B350" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A352" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C352" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C353" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C355" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C357" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A359">
-        <v>30</v>
-      </c>
-      <c r="B359" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A361" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C361" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C362" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C364" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C365" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A367">
-        <v>31</v>
-      </c>
-      <c r="B367" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A369" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C369" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C370" t="s">
-        <v>231</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C371" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A372">
-        <v>32</v>
-      </c>
-      <c r="B372" t="s">
-        <v>232</v>
+      <c r="C372" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A374" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C374" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C375" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C376" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C378" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C379" t="s">
-        <v>237</v>
+      <c r="A378">
+        <v>29</v>
+      </c>
+      <c r="B378" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C380" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A381">
-        <v>33</v>
-      </c>
-      <c r="B381" t="s">
-        <v>238</v>
+      <c r="C381" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A383" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C383" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C384" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C385" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C387" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C388" t="s">
-        <v>244</v>
+      <c r="A387">
+        <v>30</v>
+      </c>
+      <c r="B387" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C389" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C391" t="s">
-        <v>246</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C390" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C392" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A394">
-        <v>34</v>
-      </c>
-      <c r="B394" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A396" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C396" t="s">
-        <v>251</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C393" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>31</v>
+      </c>
+      <c r="B395" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C397" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C398" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C400" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C401" t="s">
-        <v>249</v>
+      <c r="A400">
+        <v>32</v>
+      </c>
+      <c r="B400" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A403">
-        <v>35</v>
-      </c>
-      <c r="B403" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A405" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C405" t="s">
-        <v>255</v>
+      <c r="C403" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C404" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C406" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A408">
-        <v>36</v>
-      </c>
-      <c r="B408" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A410" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C407" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>33</v>
+      </c>
+      <c r="B409" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C410" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C411" t="s">
-        <v>259</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C412" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C413" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C414" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C415" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C416" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C417" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C419" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C420" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>34</v>
+      </c>
+      <c r="B422" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C424" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C425" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C426" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C428" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C429" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C431" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C433" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C434" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <v>35</v>
+      </c>
+      <c r="B436" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C438" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C439" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <v>36</v>
+      </c>
+      <c r="B441" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C443" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C444" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C446" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C447" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C448" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A417">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A450">
         <v>37</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B450" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A419" s="1" t="s">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A452" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C452" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C420" t="s">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C453" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C421" t="s">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C454" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C422" t="s">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C455" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A424">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A457">
         <v>38</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B457" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C426" s="2" t="s">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C459" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D426" s="3"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C427" t="s">
+      <c r="D459" s="3"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C460" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C428" t="s">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C461" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C430" t="s">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C463" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C431" t="s">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C464" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A433">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A466">
         <v>39</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B466" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A435" s="1" t="s">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C468" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B437" t="s">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B470" t="s">
         <v>283</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D470" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D438" t="s">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D471" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C440" t="s">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C473" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C441" t="s">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C474" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C442" t="s">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C475" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C443" t="s">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C476" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C444" t="s">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C477" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B446" t="s">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B479" t="s">
         <v>288</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D479" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D447" t="s">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D480" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D448" t="s">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D481" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D449" t="s">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D482" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C451" t="s">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C484" t="s">
         <v>293</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F484" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F452" t="s">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F485" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B454" t="s">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B487" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C456" t="s">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C489" t="s">
         <v>299</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F489" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F457" t="s">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F490" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F458" t="s">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F491" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F459" t="s">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F492" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F461" t="s">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F494" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F462" t="s">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F495" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F463" t="s">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F496" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C465" t="s">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C498" t="s">
         <v>300</v>
       </c>
-      <c r="F465" t="s">
+      <c r="F498" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F466" t="s">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F499" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F467" t="s">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F500" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F469" t="s">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F502" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A471">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A504">
         <v>40</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B504" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A473" s="1" t="s">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A506" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C506" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C474" t="s">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C507" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C475" t="s">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C508" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C476" t="s">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C509" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A478">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A511">
         <v>41</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B511" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A480" s="1" t="s">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A513" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C513" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C481" t="s">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C514" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A483" t="s">
-        <v>322</v>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C516" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C518" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C519" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C520" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A522">
+        <v>42</v>
+      </c>
+      <c r="B522" t="s">
+        <v>325</v>
+      </c>
+      <c r="E522" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A524" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C524" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C525" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C526" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A528">
+        <v>43</v>
+      </c>
+      <c r="B528" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A530" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C530" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C531" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C532" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C533" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C534" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C535" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C536" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C537" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C538" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C539" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A541">
+        <v>44</v>
+      </c>
+      <c r="B541" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A543" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C543" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C544" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="545" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C545" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="547" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C547" t="s">
+        <v>352</v>
+      </c>
+      <c r="P547" t="s">
+        <v>354</v>
+      </c>
+      <c r="T547" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="548" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C548" t="s">
+        <v>353</v>
+      </c>
+      <c r="P548" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="550" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A550">
+        <v>45</v>
+      </c>
+      <c r="B550" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="552" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C552" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="553" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C553" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="554" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C554" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="555" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C555" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="556" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C556" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="557" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C557" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C558" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C559" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C560" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A562">
+        <v>46</v>
+      </c>
+      <c r="B562" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A564" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C564" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C565" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A567">
+        <v>47</v>
+      </c>
+      <c r="B567" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A569" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C569" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C570" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C571" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C572" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C573" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C575" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C576" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C577" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A579">
+        <v>48</v>
+      </c>
+      <c r="B579" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A581" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C581" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>404</v>
+      </c>
+      <c r="G583" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C584">
+        <v>2</v>
+      </c>
+      <c r="D584" t="s">
+        <v>406</v>
+      </c>
+      <c r="G584" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C585">
+        <v>3</v>
+      </c>
+      <c r="D585" t="s">
+        <v>408</v>
+      </c>
+      <c r="G585" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C587" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C590">
+        <v>2</v>
+      </c>
+      <c r="D590" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C592" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
+        <v>414</v>
+      </c>
+      <c r="M594" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M595" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C596">
+        <v>2</v>
+      </c>
+      <c r="D596" t="s">
+        <v>415</v>
+      </c>
+      <c r="M596" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M597" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A598">
+        <v>49</v>
+      </c>
+      <c r="B598" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A600" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C600" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C601" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603" t="s">
+        <v>424</v>
+      </c>
+      <c r="G603" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G604" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G606" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G608" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G609" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C611">
+        <v>2</v>
+      </c>
+      <c r="D611" t="s">
+        <v>430</v>
+      </c>
+      <c r="G611" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C612">
+        <v>3</v>
+      </c>
+      <c r="D612" t="s">
+        <v>434</v>
+      </c>
+      <c r="G612" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C613">
+        <v>3</v>
+      </c>
+      <c r="D613" t="s">
+        <v>431</v>
+      </c>
+      <c r="G613" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A615">
+        <v>50</v>
+      </c>
+      <c r="B615" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A617" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C618" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C619" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C620" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C621" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C622" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A624">
+        <v>51</v>
+      </c>
+      <c r="B624" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A626" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C626" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C627" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C628" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C629" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C630" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C632" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C633" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C634" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C635" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C637" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C638" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A640">
+        <v>52</v>
+      </c>
+      <c r="B640" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A642" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C642" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C643" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C645" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C646" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C647" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A649">
+        <v>53</v>
+      </c>
+      <c r="C649" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A651" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C651" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C652" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C653" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C654" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C655" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C656" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C657" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C658" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C659" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C660" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A662">
+        <v>54</v>
+      </c>
+      <c r="C662" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A664" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C664" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C665" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C666" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C667" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C668" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A670">
+        <v>55</v>
+      </c>
+      <c r="C670" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A672" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C672" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C673" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C675" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C676" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A678">
+        <v>56</v>
+      </c>
+      <c r="B678" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A680" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C680" t="s">
+        <v>489</v>
+      </c>
+      <c r="L680" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C682">
+        <v>1</v>
+      </c>
+      <c r="D682" t="s">
+        <v>490</v>
+      </c>
+      <c r="L682">
+        <v>1</v>
+      </c>
+      <c r="M682" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C683">
+        <v>2</v>
+      </c>
+      <c r="D683" t="s">
+        <v>491</v>
+      </c>
+      <c r="L683">
+        <v>2</v>
+      </c>
+      <c r="M683" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C684">
+        <v>3</v>
+      </c>
+      <c r="D684" t="s">
+        <v>492</v>
+      </c>
+      <c r="L684">
+        <v>3</v>
+      </c>
+      <c r="M684" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C685">
+        <v>4</v>
+      </c>
+      <c r="D685" t="s">
+        <v>493</v>
+      </c>
+      <c r="L685">
+        <v>4</v>
+      </c>
+      <c r="M685" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C686">
+        <v>5</v>
+      </c>
+      <c r="D686" t="s">
+        <v>494</v>
+      </c>
+      <c r="L686">
+        <v>5</v>
+      </c>
+      <c r="M686" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C688" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="690" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="691" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="692" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D692" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E692" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="693" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D693" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E693" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="694" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D694" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E694" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E695" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="696" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D696" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E696" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="697" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D697" s="7"/>
+      <c r="E697" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="698" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="699" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D699" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E699" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D700" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E700" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="701" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D701" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E701" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="702" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D702" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E702" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="703" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C703">
+        <v>3</v>
+      </c>
+      <c r="D703" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="704" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C704">
+        <v>4</v>
+      </c>
+      <c r="D704" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C706" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="D708" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C709">
+        <v>2</v>
+      </c>
+      <c r="D709" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C710">
+        <v>3</v>
+      </c>
+      <c r="D710" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C711">
+        <v>4</v>
+      </c>
+      <c r="D711" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C712">
+        <v>5</v>
+      </c>
+      <c r="D712" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C714" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A718" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="N73:W73"/>
-    <mergeCell ref="D70:M70"/>
-    <mergeCell ref="N70:W70"/>
-    <mergeCell ref="D71:M71"/>
-    <mergeCell ref="N71:W71"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="N72:W72"/>
-    <mergeCell ref="D67:M67"/>
-    <mergeCell ref="N67:W67"/>
-    <mergeCell ref="D68:M68"/>
-    <mergeCell ref="N68:W68"/>
-    <mergeCell ref="D69:M69"/>
-    <mergeCell ref="N69:W69"/>
+    <mergeCell ref="D74:M74"/>
+    <mergeCell ref="N74:W74"/>
+    <mergeCell ref="D75:M75"/>
+    <mergeCell ref="N75:W75"/>
+    <mergeCell ref="D76:M76"/>
+    <mergeCell ref="N76:W76"/>
+    <mergeCell ref="D80:M80"/>
+    <mergeCell ref="N80:W80"/>
+    <mergeCell ref="D77:M77"/>
+    <mergeCell ref="N77:W77"/>
+    <mergeCell ref="D78:M78"/>
+    <mergeCell ref="N78:W78"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="N79:W79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$725</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$989</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="670">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -2685,13 +2685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題49</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2890,6 +2883,868 @@
   </si>
   <si>
     <t>アクセスポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BYOIP: Bring Your Own IP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">すべての公開 IPv4 アドレスの範囲の一部またはすべてをオンプレミスのネットワークから AWS </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントに導入できます。引き続きアドレス範囲を所有できますが、AWS はこれをインターネット上で</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドバタイズします。アドレス範囲を AWS に設定すると、そのアドレス範囲はアドレスプールとして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントに表示されます。アドレスプールから Elastic IP アドレスを作成し、EC2 インスタンス、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAT ゲートウェイ、Network Load Balancer などの AWS リソースで使用することができます。</t>
+  </si>
+  <si>
+    <t>IAM ロール – ID プロバイダとフェデレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のプロバイダーを使用して、AWS アカウント内に作成することなく、AWS リソースへの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部ユーザー ID のアクセス許可を付与できます。</t>
+  </si>
+  <si>
+    <t>外部ユーザー ID は、組織の認証システムを通じて、または Amazon、Google などのログインなどの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく知られた ID プロバイダを介して認証することができます。</t>
+  </si>
+  <si>
+    <t>ID プロバイダーは、アプリケーションに長期間配布または埋め込む必要がなくても、AWS アカウントを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全に保つことができます。</t>
+  </si>
+  <si>
+    <t>IdP を使用するには、IAM ID プロバイダエンティティを作成して、AWS アカウントと IdP 間の信頼関係を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確立します。</t>
+  </si>
+  <si>
+    <t>IAM は、OpenID Connect（OIDC）または SAML 2.0（Security Assertion Markup Language 2.0）と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>互換性のある IdP をサポートしています。</t>
+  </si>
+  <si>
+    <t>Web ID フェデレーションのプロセスフロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS - IAM - プロバイダ で、OpenID Connect(OIDC)かSAML2.0互換のIDP（IDプロバイダー）の</t>
+    <rPh sb="48" eb="50">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDプロバイダエンティティを作成する。</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS - IAM - ロールで、WebIDかSAML2.0 用のロールを作成する。</t>
+    <rPh sb="31" eb="32">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリからIdPにアクセスする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IdPはユーザー認証し、ユーザー認証情報を認証トークン（OAuthトークンまたはOpenIDトークン）を</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返す。</t>
+    <rPh sb="0" eb="1">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリは、AssumeRoleWithWebIdentity を使用して、AWS Security Token Service (AWS STS：一時</t>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的な認証情報）を要求する。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その際アプリは、IdP の認証トークンを、その IdP 用に作成された IAM ロールの Amazon リソース名</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ARN) と共に渡します。</t>
+  </si>
+  <si>
+    <t>AWS は、トークンが信頼され、有効であることを確認する。 さらに、要求に付随されたIAMロールも</t>
+    <rPh sb="37" eb="39">
+      <t>フズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認し、そのロールと同様のアクセス権がある一時的なセキュリティ資格情報 (アクセスキー、</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シークレットアクセスキー、セッショントークン、有効期限) を返します。</t>
+  </si>
+  <si>
+    <t>STS 応答には、IdP がユーザーに関連付ける一意のユーザー ID など、IdP からのユーザーに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関するメタデータも含まれます。</t>
+  </si>
+  <si>
+    <t>一時的な資格情報を使用して、アプリケーションは AWSのリソースにアクセスできるようになる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合CloudWatchエージェント</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合CloudWatchエージェントを使用すると、OS全体でEC2インスタンスからより多くのシステムレベル</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のメトリクスを取得できるようになる。</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメトリクスには、EC2のメトリクスに加えて、ゲスト内メトリクスを含めることができる。</t>
+    <rPh sb="20" eb="21">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudWatch Insight（インサイト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドスケールで動作するマネージドサービスで、CloudWatch Logのデータを検索できる。</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題53</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAT（Network Address Translation）ゲートウェイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークアドレス変換（NAT)ゲートウェイを使用して、プライベートサブネットのインスタンスから</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットや他のAWSサービスにできるようにすることができる。　また当然、逆のインターネット</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からはプライベートサブネットのインスタンスには接続できない。</t>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NATゲートウェイ作成時には、NATゲートウェイを配置するパブリックサブネットとNATゲートウェイに</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連付けるEIPを指定する必要がある。</t>
+    <rPh sb="0" eb="3">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NATゲートウェイを作成したら、プライベートサブネットのルートテーブルを更新して、インターネット</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向けのトラフィックをNATゲートウェイに向ける必要がある。</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2やAmazon RDSなど、VPC内にあるリソースとLambdaで内部通信する場合はVPC内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>への配置が必要となります。</t>
+  </si>
+  <si>
+    <t>VPC内に配置する際の注意点（主に５つある）</t>
+    <rPh sb="15" eb="16">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LambdaをVPC内に配置すると、Lambda実行時にENI（仮想インターネットインタフェース）が付与され</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ます。　そのために考慮すべき点があります。</t>
+    <rPh sb="9" eb="11">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC内にあるLambda（ENI）にはパブリックIPが付与されないので、外部ネットワークと通信することが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できません。そのため、VPC内のパブリックサブネットにNATゲートウェイもしくはNATインスタンスを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定します。結果、Lambdaの送信元IP（グローバルIPアドレス）は固定されることになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSサービスやインターネットと通信する際は、NATゲートウェイ等の設定が必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、Lambdaに対してセキュリティグループが設定できるようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2/RDS等のVPC内リソースのセキュリティグループにて、Lambdaからのアクセスを許可する必要が</t>
+    <rPh sb="49" eb="51">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある。　設定内容はLambdaのセキュリティグループや、Lambda専用サブネットを作成していたら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのサブネットなど、環境により適切な方法で設定します。</t>
+  </si>
+  <si>
+    <t>Lambda@Edgeとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda@Edgeとは、CloudFrontの一つで、CloudFrontのエッジサーバーでコードを実行するLambda</t>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数のことである。</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーにより近いエッジで実行されるため、アプリケーションのパフォーマンスが向上する。</t>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud FrontのイベントをトリガーとしてLambdaが実行される。</t>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontのベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューワーリクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューワーレスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジンリクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジンレスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lambda@EdgeのログはLambda同様CloudWatchLogsに保存されるが、Lambda関数が起動したエッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバがあるリージョンのCloudWatchLogsに保存される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda＠EdgeにアタッチするIAMロールは、サービスプリンシパル lambda.amazonaws.com と </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edgelambda.amazonaws.com が引き受けることができるロールである必要がある</t>
+  </si>
+  <si>
+    <t>CloudFrontのフェイルオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来は Route 53 の DNS フェイルオーバーと組み合わせるなどの必要があったが、</t>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CloudFront のみでフェイルオーバーが実装できるようになった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontの設定方法</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライマリとセカンダリーの２つのOriginを作成する。</t>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Originグループを作成する。</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Originグループにプライマリーとセカンダリーの２つのOriginを追加する。</t>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Origingを切り替える条件（プライマリーOriginのHttpステータスコード）を指定する。</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Origin Behaviorを設定する。</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFront オリジンアクセスアイデンティティでクロスアカウントなS3オリジンへのアクセスを制限する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontを利用したS3コンテンツの配信では、CloudFrontとS3を異なるアカウントで構成できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このとき、S3オリジンへの直接アクセスを許可せず、必ずCloudFrontを経由させてアクセスさせたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、ということもあるかと思います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場合、CloudFrontとS3が同じアカウントにあるケースに加えて一手間がありましたので紹介します。</t>
+  </si>
+  <si>
+    <t>CloudFrontからS3へのアクセス許可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3バケットへのアクセスを制限する場合、CloudFrontからはOrigin Access Identity（OAI）という認証</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報を使ってS3へアクセスします。S3バケットはそのOAIに対しアクセス許可を与えることでバケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内のオブジェクトが参照できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontとS3が同じアカウントにある場合には、CloudFrontのマネジメントコンソールからディス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリビューションを作成する際にOAI作成/ポリシー適用を自動で設定することも可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、クロスアカウントの場合には各アカウントで設定が必要です。</t>
+  </si>
+  <si>
+    <t>CloudFrontでOAIを作成する。</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFrontでディストリビューションを作成する際に、作成したOAIを指定する。</t>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、S３の場合などはポリシーに作成したOAIを設定する。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Version": "2012-10-17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Id": "PolicyForCloudFrontPrivateContent",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Statement": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Sid": " Grant a CloudFront Origin Identity access to support private content",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Effect": "Allow",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Principal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Action": "s3:GetObject",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Resource": "arn:aws:s3:::www.example.com/*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "CanonicalUser": "xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスのプレイスメントグループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス間の通信速度を高速化させる機能です。（ネットワーク遅延を減らす機能と覚えて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おけばOK。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一AZ内の複数のEC2インスタンスをグループ化し、物理的になるべく近いインスタンスとして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動します。</t>
+  </si>
+  <si>
+    <t>なお、複数のAZを跨ぐグルーピングやネットワーク帯域が小さいインスタンスタイプはできない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスタープレイスメントグループ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">パーティションプレイスメントグループ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スプレッドプレイスメントグループ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単一AZ内のインスタンスを論理的にグループ化したもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理的なパーティションに分散されているインスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のグループ</t>
+  </si>
+  <si>
+    <t>それぞれ異なるハードウェアに配置されるインスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスグループへのインスタンスの追加した場合や、クラスタープレイスメントグループ内に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異なるインスタンスタイプを使用すると、「容量エラー」が発生する可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため追加するインスタンスタイプを統一し、インスタンス総数を再設定して追加した上で、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイスメントグループを再起動することが必要です。</t>
+  </si>
+  <si>
+    <t>VPCのDHCPオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC作成時には、DHCPオプションは自動で設定される。</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC内で起動するホスト用のDHCPの設定を変更するには、DHCPオプションを作成して、VPCに</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐づける必要がある。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCPオプションの設定項目</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメインネームサーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTPサーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NetBIOSネームサーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NetBIOS ノードタイプ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2970,6 +3825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2978,9 +3836,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3093,6 +3948,171 @@
         <a:xfrm>
           <a:off x="534865" y="35476962"/>
           <a:ext cx="5989760" cy="2136531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122137</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>52553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="&#10;          パブリックおよびプライベートサブネットの VPC と NAT ゲートウェイ&#10;        "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="59121" y="133731001"/>
+          <a:ext cx="6408637" cy="4841328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>868</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>880</xdr:row>
+      <xdr:rowOff>92670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-002-640x249.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="278423" y="146978078"/>
+          <a:ext cx="5568462" cy="2114900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>146540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>909</xdr:row>
+      <xdr:rowOff>23383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-000-640x249.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="578827" y="151169078"/>
+          <a:ext cx="5443904" cy="2067593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3401,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W718"/>
+  <dimension ref="A1:W989"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A703" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C716" sqref="C716"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A957" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="M971" sqref="M971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3712,186 +4732,186 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6" t="s">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5" t="s">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
     </row>
     <row r="76" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4" t="s">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
     </row>
     <row r="77" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4" t="s">
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5" t="s">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
     </row>
     <row r="79" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4" t="s">
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
     </row>
     <row r="80" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82">
@@ -6225,7 +7245,7 @@
         <v>56</v>
       </c>
       <c r="B678" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.15">
@@ -6233,10 +7253,10 @@
         <v>464</v>
       </c>
       <c r="C680" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L680" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.15">
@@ -6244,13 +7264,13 @@
         <v>1</v>
       </c>
       <c r="D682" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L682">
         <v>1</v>
       </c>
       <c r="M682" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.15">
@@ -6258,13 +7278,13 @@
         <v>2</v>
       </c>
       <c r="D683" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L683">
         <v>2</v>
       </c>
       <c r="M683" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.15">
@@ -6272,13 +7292,13 @@
         <v>3</v>
       </c>
       <c r="D684" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L684">
         <v>3</v>
       </c>
       <c r="M684" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.15">
@@ -6286,13 +7306,13 @@
         <v>4</v>
       </c>
       <c r="D685" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L685">
         <v>4</v>
       </c>
       <c r="M685" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.15">
@@ -6300,18 +7320,18 @@
         <v>5</v>
       </c>
       <c r="D686" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L686">
         <v>5</v>
       </c>
       <c r="M686" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C688" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="690" spans="3:5" x14ac:dyDescent="0.15">
@@ -6319,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.15">
@@ -6327,50 +7347,50 @@
         <v>1</v>
       </c>
       <c r="E691" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="692" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D692" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E692" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="692" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D692" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E692" t="s">
+    <row r="693" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D693" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E693" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="693" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D693" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E693" t="s">
+    <row r="694" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D694" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E694" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="694" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D694" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E694" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="695" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E695" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="696" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D696" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="696" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D696" s="7" t="s">
+      <c r="E696" t="s">
         <v>511</v>
       </c>
-      <c r="E696" t="s">
+    </row>
+    <row r="697" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D697" s="4"/>
+      <c r="E697" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="697" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D697" s="7"/>
-      <c r="E697" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.15">
@@ -6378,39 +7398,39 @@
         <v>2</v>
       </c>
       <c r="D698" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="699" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D699" s="7" t="s">
-        <v>511</v>
+      <c r="D699" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="E699" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D700" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E700" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="700" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D700" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E700" t="s">
+    <row r="701" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D701" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E701" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="701" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D701" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E701" t="s">
+    <row r="702" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D702" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E702" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="702" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D702" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E702" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.15">
@@ -6418,7 +7438,7 @@
         <v>3</v>
       </c>
       <c r="D703" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="704" spans="3:5" x14ac:dyDescent="0.15">
@@ -6426,12 +7446,12 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C706" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.15">
@@ -6439,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="D708" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.15">
@@ -6447,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="D709" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.15">
@@ -6455,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="D710" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.15">
@@ -6463,7 +7483,7 @@
         <v>4</v>
       </c>
       <c r="D711" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.15">
@@ -6471,17 +7491,879 @@
         <v>5</v>
       </c>
       <c r="D712" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C714" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A716">
+        <v>57</v>
+      </c>
+      <c r="B716" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A718" t="s">
-        <v>487</v>
+      <c r="A718" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C718" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C719" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C720" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C721" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C722" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A724">
+        <v>58</v>
+      </c>
+      <c r="B724" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C727" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B728">
+        <v>2</v>
+      </c>
+      <c r="C728" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C729" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B730">
+        <v>3</v>
+      </c>
+      <c r="C730" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C731" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B732">
+        <v>4</v>
+      </c>
+      <c r="C732" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C733" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B734">
+        <v>5</v>
+      </c>
+      <c r="C734" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C735" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="737" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B737" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="739" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B739">
+        <v>1</v>
+      </c>
+      <c r="C739" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="740" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C740" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="741" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B741">
+        <v>2</v>
+      </c>
+      <c r="C741" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="742" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B742">
+        <v>3</v>
+      </c>
+      <c r="C742" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="743" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B743">
+        <v>4</v>
+      </c>
+      <c r="C743" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="744" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C744" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="745" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B745">
+        <v>5</v>
+      </c>
+      <c r="C745" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="746" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C746" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="747" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C747" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="748" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C748" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="749" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B749">
+        <v>6</v>
+      </c>
+      <c r="C749" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="750" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C750" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="751" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C751" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="752" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C752" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C753" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B754">
+        <v>7</v>
+      </c>
+      <c r="C754" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A756">
+        <v>59</v>
+      </c>
+      <c r="B756" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A758" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C760" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C761" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C762" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C764">
+        <v>2</v>
+      </c>
+      <c r="D764" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C766" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A768">
+        <v>60</v>
+      </c>
+      <c r="B768" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A770" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C770" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C771" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C772" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C774" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C775" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C777" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C778" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A810">
+        <v>61</v>
+      </c>
+      <c r="B810" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A812" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C812" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C813" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C815" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C817" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C818" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C820" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C821" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C822" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C823" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C825" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C827" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C828" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C829" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A831">
+        <v>62</v>
+      </c>
+      <c r="B831" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A833" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C833" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C834" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C836" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C838" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C840" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C841">
+        <v>1</v>
+      </c>
+      <c r="D841" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C842">
+        <v>2</v>
+      </c>
+      <c r="D842" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C843">
+        <v>3</v>
+      </c>
+      <c r="D843" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C844">
+        <v>4</v>
+      </c>
+      <c r="D844" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C846" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C847" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C849" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C850" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A852">
+        <v>63</v>
+      </c>
+      <c r="B852" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A854" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C854" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C855" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C857" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C859">
+        <v>1</v>
+      </c>
+      <c r="D859" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C860">
+        <v>2</v>
+      </c>
+      <c r="D860" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C861">
+        <v>3</v>
+      </c>
+      <c r="D861" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C862">
+        <v>4</v>
+      </c>
+      <c r="D862" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C863">
+        <v>5</v>
+      </c>
+      <c r="D863" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A865">
+        <v>64</v>
+      </c>
+      <c r="B865" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A867" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C867" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="884" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B884" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="885" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B885" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="886" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B886" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="888" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B888">
+        <v>1</v>
+      </c>
+      <c r="C888" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="890" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B890">
+        <v>2</v>
+      </c>
+      <c r="C890" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="892" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B892">
+        <v>3</v>
+      </c>
+      <c r="C892" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="894" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C894" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="895" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C895" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="896" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C896" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C911" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C912" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C913" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C915" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C917" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C918" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C919" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C920" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C921" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C922" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C923" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C924" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C925" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C926" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C927" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C928" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C929" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C930" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C931" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A933">
+        <v>65</v>
+      </c>
+      <c r="B933" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A935" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A936" s="1"/>
+      <c r="C936" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C937" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C938" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C940" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C942">
+        <v>1</v>
+      </c>
+      <c r="D942" t="s">
+        <v>649</v>
+      </c>
+      <c r="L942" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C944">
+        <v>2</v>
+      </c>
+      <c r="D944" t="s">
+        <v>650</v>
+      </c>
+      <c r="L944" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L945" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C947">
+        <v>3</v>
+      </c>
+      <c r="D947" t="s">
+        <v>651</v>
+      </c>
+      <c r="L947" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L948" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C949" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C950" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C951" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C952" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A954">
+        <v>66</v>
+      </c>
+      <c r="B954" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A956" t="s">
+        <v>568</v>
+      </c>
+      <c r="C956" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C957" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C958" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C960" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="961" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C961">
+        <v>1</v>
+      </c>
+      <c r="D961" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="962" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D962" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="963" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D963" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="964" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D964" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="965" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D965" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A989" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2316</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2326</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1382">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -9299,6 +9299,47 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELBのサポートプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションがカスタムアプリケーションであり、標準のHTTPアプリケーションでは</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない場合はTCPで接続すること。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9447,17 +9488,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9465,19 +9507,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9831,13 +9872,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1342</xdr:row>
+      <xdr:row>1352</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>1360</xdr:row>
+      <xdr:row>1370</xdr:row>
       <xdr:rowOff>124384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9886,13 +9927,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1397</xdr:row>
+      <xdr:row>1407</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>1418</xdr:row>
+      <xdr:row>1428</xdr:row>
       <xdr:rowOff>29190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9941,13 +9982,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1430</xdr:row>
+      <xdr:row>1440</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1450</xdr:row>
+      <xdr:row>1460</xdr:row>
       <xdr:rowOff>95966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9996,14 +10037,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>1464</xdr:row>
+      <xdr:row>1474</xdr:row>
       <xdr:rowOff>124557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>1482</xdr:row>
-      <xdr:rowOff>70337</xdr:rowOff>
+      <xdr:row>1492</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10051,14 +10092,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1488</xdr:row>
+      <xdr:row>1498</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1502</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>1512</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10106,13 +10147,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1508</xdr:row>
+      <xdr:row>1518</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1521</xdr:row>
+      <xdr:row>1531</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10161,13 +10202,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1612</xdr:row>
+      <xdr:row>1622</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1620</xdr:row>
+      <xdr:row>1630</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10216,14 +10257,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1624</xdr:row>
+      <xdr:row>1634</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1629</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>1639</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10271,13 +10312,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1641</xdr:row>
+      <xdr:row>1651</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1649</xdr:row>
+      <xdr:row>1659</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10326,14 +10367,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1661</xdr:row>
+      <xdr:row>1671</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1671</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>1681</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10381,14 +10422,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1678</xdr:row>
+      <xdr:row>1688</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>1688</xdr:row>
-      <xdr:rowOff>18740</xdr:rowOff>
+      <xdr:row>1698</xdr:row>
+      <xdr:rowOff>18741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10436,14 +10477,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1691</xdr:row>
+      <xdr:row>1701</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>43961</xdr:colOff>
-      <xdr:row>1706</xdr:row>
-      <xdr:rowOff>65598</xdr:rowOff>
+      <xdr:row>1716</xdr:row>
+      <xdr:rowOff>65599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10491,14 +10532,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1710</xdr:row>
+      <xdr:row>1720</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>243086</xdr:colOff>
-      <xdr:row>1729</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:row>1739</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10546,14 +10587,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1736</xdr:row>
+      <xdr:row>1746</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>1747</xdr:row>
-      <xdr:rowOff>65489</xdr:rowOff>
+      <xdr:row>1757</xdr:row>
+      <xdr:rowOff>65488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10601,13 +10642,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1768</xdr:row>
+      <xdr:row>1778</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1777</xdr:row>
+      <xdr:row>1787</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10656,13 +10697,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1783</xdr:row>
+      <xdr:row>1793</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>271096</xdr:colOff>
-      <xdr:row>1804</xdr:row>
+      <xdr:row>1814</xdr:row>
       <xdr:rowOff>24251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10711,13 +10752,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1807</xdr:row>
+      <xdr:row>1817</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>197827</xdr:colOff>
-      <xdr:row>1824</xdr:row>
+      <xdr:row>1834</xdr:row>
       <xdr:rowOff>105533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10766,13 +10807,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88886</xdr:colOff>
-      <xdr:row>1935</xdr:row>
+      <xdr:row>1945</xdr:row>
       <xdr:rowOff>109903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>1944</xdr:row>
+      <xdr:row>1954</xdr:row>
       <xdr:rowOff>86649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10821,13 +10862,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1949</xdr:row>
+      <xdr:row>1959</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>1961</xdr:row>
+      <xdr:row>1971</xdr:row>
       <xdr:rowOff>145386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10876,14 +10917,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14653</xdr:colOff>
-      <xdr:row>1966</xdr:row>
+      <xdr:row>1976</xdr:row>
       <xdr:rowOff>152105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218341</xdr:colOff>
-      <xdr:row>1977</xdr:row>
-      <xdr:rowOff>57147</xdr:rowOff>
+      <xdr:row>1987</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10931,13 +10972,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>260322</xdr:colOff>
-      <xdr:row>1980</xdr:row>
+      <xdr:row>1990</xdr:row>
       <xdr:rowOff>113827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70603</xdr:colOff>
-      <xdr:row>1994</xdr:row>
+      <xdr:row>2004</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10986,13 +11027,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38757</xdr:colOff>
-      <xdr:row>2008</xdr:row>
+      <xdr:row>2018</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>89146</xdr:colOff>
-      <xdr:row>2016</xdr:row>
+      <xdr:row>2026</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11041,13 +11082,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257546</xdr:colOff>
-      <xdr:row>2035</xdr:row>
+      <xdr:row>2045</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>271096</xdr:colOff>
-      <xdr:row>2044</xdr:row>
+      <xdr:row>2054</xdr:row>
       <xdr:rowOff>6016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11096,13 +11137,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21980</xdr:colOff>
-      <xdr:row>2052</xdr:row>
+      <xdr:row>2062</xdr:row>
       <xdr:rowOff>99448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248387</xdr:colOff>
-      <xdr:row>2061</xdr:row>
+      <xdr:row>2071</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11151,14 +11192,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2068</xdr:row>
+      <xdr:row>2078</xdr:row>
       <xdr:rowOff>145539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>2077</xdr:row>
-      <xdr:rowOff>138224</xdr:rowOff>
+      <xdr:row>2087</xdr:row>
+      <xdr:rowOff>138225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11206,13 +11247,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>2156</xdr:row>
+      <xdr:row>2166</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>150159</xdr:colOff>
-      <xdr:row>2170</xdr:row>
+      <xdr:row>2180</xdr:row>
       <xdr:rowOff>132790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11547,10 +11588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2314"/>
+  <dimension ref="A1:X2324"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2287" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F2308" sqref="F2308"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1294" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D1310" sqref="D1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11891,186 +11932,186 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9" t="s">
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10" t="s">
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
     </row>
     <row r="87" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11" t="s">
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
     </row>
     <row r="88" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11" t="s">
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10" t="s">
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="18"/>
     </row>
     <row r="90" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11" t="s">
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
     </row>
     <row r="91" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11" t="s">
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93">
@@ -15806,127 +15847,127 @@
       </c>
     </row>
     <row r="1044" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1044" s="12" t="s">
+      <c r="D1044" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E1044" s="12"/>
-      <c r="F1044" s="12"/>
-      <c r="G1044" s="12" t="s">
+      <c r="E1044" s="10"/>
+      <c r="F1044" s="10"/>
+      <c r="G1044" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="H1044" s="12"/>
-      <c r="I1044" s="12"/>
-      <c r="J1044" s="12"/>
-      <c r="K1044" s="12"/>
-      <c r="L1044" s="12"/>
-      <c r="M1044" s="12"/>
-      <c r="N1044" s="12"/>
-      <c r="O1044" s="12"/>
-      <c r="P1044" s="12" t="s">
+      <c r="H1044" s="10"/>
+      <c r="I1044" s="10"/>
+      <c r="J1044" s="10"/>
+      <c r="K1044" s="10"/>
+      <c r="L1044" s="10"/>
+      <c r="M1044" s="10"/>
+      <c r="N1044" s="10"/>
+      <c r="O1044" s="10"/>
+      <c r="P1044" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="Q1044" s="12"/>
-      <c r="R1044" s="12"/>
-      <c r="S1044" s="12"/>
-      <c r="T1044" s="12"/>
-      <c r="U1044" s="12"/>
-      <c r="V1044" s="12"/>
-      <c r="W1044" s="12"/>
-      <c r="X1044" s="12"/>
+      <c r="Q1044" s="10"/>
+      <c r="R1044" s="10"/>
+      <c r="S1044" s="10"/>
+      <c r="T1044" s="10"/>
+      <c r="U1044" s="10"/>
+      <c r="V1044" s="10"/>
+      <c r="W1044" s="10"/>
+      <c r="X1044" s="10"/>
     </row>
     <row r="1045" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1045" s="13" t="s">
+      <c r="D1045" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="E1045" s="13"/>
-      <c r="F1045" s="13"/>
-      <c r="G1045" s="13" t="s">
+      <c r="E1045" s="14"/>
+      <c r="F1045" s="14"/>
+      <c r="G1045" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="H1045" s="13"/>
-      <c r="I1045" s="13"/>
-      <c r="J1045" s="13"/>
-      <c r="K1045" s="13"/>
-      <c r="L1045" s="13"/>
-      <c r="M1045" s="13"/>
-      <c r="N1045" s="13"/>
-      <c r="O1045" s="13"/>
-      <c r="P1045" s="17" t="s">
+      <c r="H1045" s="14"/>
+      <c r="I1045" s="14"/>
+      <c r="J1045" s="14"/>
+      <c r="K1045" s="14"/>
+      <c r="L1045" s="14"/>
+      <c r="M1045" s="14"/>
+      <c r="N1045" s="14"/>
+      <c r="O1045" s="14"/>
+      <c r="P1045" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="Q1045" s="17"/>
-      <c r="R1045" s="17"/>
-      <c r="S1045" s="17"/>
-      <c r="T1045" s="17"/>
-      <c r="U1045" s="17"/>
-      <c r="V1045" s="17"/>
-      <c r="W1045" s="17"/>
-      <c r="X1045" s="17"/>
+      <c r="Q1045" s="11"/>
+      <c r="R1045" s="11"/>
+      <c r="S1045" s="11"/>
+      <c r="T1045" s="11"/>
+      <c r="U1045" s="11"/>
+      <c r="V1045" s="11"/>
+      <c r="W1045" s="11"/>
+      <c r="X1045" s="11"/>
     </row>
     <row r="1046" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1046" s="14" t="s">
+      <c r="D1046" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="E1046" s="14"/>
-      <c r="F1046" s="14"/>
-      <c r="G1046" s="14" t="s">
+      <c r="E1046" s="15"/>
+      <c r="F1046" s="15"/>
+      <c r="G1046" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="H1046" s="14"/>
-      <c r="I1046" s="14"/>
-      <c r="J1046" s="14"/>
-      <c r="K1046" s="14"/>
-      <c r="L1046" s="14"/>
-      <c r="M1046" s="14"/>
-      <c r="N1046" s="14"/>
-      <c r="O1046" s="14"/>
-      <c r="P1046" s="15" t="s">
+      <c r="H1046" s="15"/>
+      <c r="I1046" s="15"/>
+      <c r="J1046" s="15"/>
+      <c r="K1046" s="15"/>
+      <c r="L1046" s="15"/>
+      <c r="M1046" s="15"/>
+      <c r="N1046" s="15"/>
+      <c r="O1046" s="15"/>
+      <c r="P1046" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="Q1046" s="15"/>
-      <c r="R1046" s="15"/>
-      <c r="S1046" s="15"/>
-      <c r="T1046" s="15"/>
-      <c r="U1046" s="15"/>
-      <c r="V1046" s="15"/>
-      <c r="W1046" s="15"/>
-      <c r="X1046" s="15"/>
+      <c r="Q1046" s="12"/>
+      <c r="R1046" s="12"/>
+      <c r="S1046" s="12"/>
+      <c r="T1046" s="12"/>
+      <c r="U1046" s="12"/>
+      <c r="V1046" s="12"/>
+      <c r="W1046" s="12"/>
+      <c r="X1046" s="12"/>
     </row>
     <row r="1047" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1047" s="13" t="s">
+      <c r="D1047" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="E1047" s="13"/>
-      <c r="F1047" s="13"/>
-      <c r="G1047" s="13" t="s">
+      <c r="E1047" s="14"/>
+      <c r="F1047" s="14"/>
+      <c r="G1047" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="H1047" s="13"/>
-      <c r="I1047" s="13"/>
-      <c r="J1047" s="13"/>
-      <c r="K1047" s="13"/>
-      <c r="L1047" s="13"/>
-      <c r="M1047" s="13"/>
-      <c r="N1047" s="13"/>
-      <c r="O1047" s="13"/>
-      <c r="P1047" s="17" t="s">
+      <c r="H1047" s="14"/>
+      <c r="I1047" s="14"/>
+      <c r="J1047" s="14"/>
+      <c r="K1047" s="14"/>
+      <c r="L1047" s="14"/>
+      <c r="M1047" s="14"/>
+      <c r="N1047" s="14"/>
+      <c r="O1047" s="14"/>
+      <c r="P1047" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="Q1047" s="17"/>
-      <c r="R1047" s="17"/>
-      <c r="S1047" s="17"/>
-      <c r="T1047" s="17"/>
-      <c r="U1047" s="17"/>
-      <c r="V1047" s="17"/>
-      <c r="W1047" s="17"/>
-      <c r="X1047" s="17"/>
+      <c r="Q1047" s="11"/>
+      <c r="R1047" s="11"/>
+      <c r="S1047" s="11"/>
+      <c r="T1047" s="11"/>
+      <c r="U1047" s="11"/>
+      <c r="V1047" s="11"/>
+      <c r="W1047" s="11"/>
+      <c r="X1047" s="11"/>
     </row>
     <row r="1048" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1048" s="15" t="s">
+      <c r="D1048" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="E1048" s="15"/>
-      <c r="F1048" s="15"/>
+      <c r="E1048" s="12"/>
+      <c r="F1048" s="12"/>
       <c r="G1048" s="16" t="s">
         <v>694</v>
       </c>
@@ -15938,22 +15979,22 @@
       <c r="M1048" s="16"/>
       <c r="N1048" s="16"/>
       <c r="O1048" s="16"/>
-      <c r="P1048" s="18" t="s">
+      <c r="P1048" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="Q1048" s="18"/>
-      <c r="R1048" s="18"/>
-      <c r="S1048" s="18"/>
-      <c r="T1048" s="18"/>
-      <c r="U1048" s="18"/>
-      <c r="V1048" s="18"/>
-      <c r="W1048" s="18"/>
-      <c r="X1048" s="18"/>
+      <c r="Q1048" s="13"/>
+      <c r="R1048" s="13"/>
+      <c r="S1048" s="13"/>
+      <c r="T1048" s="13"/>
+      <c r="U1048" s="13"/>
+      <c r="V1048" s="13"/>
+      <c r="W1048" s="13"/>
+      <c r="X1048" s="13"/>
     </row>
     <row r="1049" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1049" s="15"/>
-      <c r="E1049" s="15"/>
-      <c r="F1049" s="15"/>
+      <c r="D1049" s="12"/>
+      <c r="E1049" s="12"/>
+      <c r="F1049" s="12"/>
       <c r="G1049" s="16"/>
       <c r="H1049" s="16"/>
       <c r="I1049" s="16"/>
@@ -15963,15 +16004,15 @@
       <c r="M1049" s="16"/>
       <c r="N1049" s="16"/>
       <c r="O1049" s="16"/>
-      <c r="P1049" s="18"/>
-      <c r="Q1049" s="18"/>
-      <c r="R1049" s="18"/>
-      <c r="S1049" s="18"/>
-      <c r="T1049" s="18"/>
-      <c r="U1049" s="18"/>
-      <c r="V1049" s="18"/>
-      <c r="W1049" s="18"/>
-      <c r="X1049" s="18"/>
+      <c r="P1049" s="13"/>
+      <c r="Q1049" s="13"/>
+      <c r="R1049" s="13"/>
+      <c r="S1049" s="13"/>
+      <c r="T1049" s="13"/>
+      <c r="U1049" s="13"/>
+      <c r="V1049" s="13"/>
+      <c r="W1049" s="13"/>
+      <c r="X1049" s="13"/>
     </row>
     <row r="1050" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D1050" t="s">
@@ -16860,2562 +16901,2555 @@
         <v>858</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D1297" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="1298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D1298" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="1299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D1299" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="1301" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1301">
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C1301" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D1303">
+        <v>1</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D1304">
+        <v>2</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D1305">
+        <v>3</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D1306">
+        <v>4</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D1308" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1309" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1311">
         <v>70</v>
       </c>
-      <c r="B1301" t="s">
+      <c r="B1311" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1303" s="1" t="s">
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1313" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1303" t="s">
+      <c r="C1313" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="1304" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1304" t="s">
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1314" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="1306" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1306" t="s">
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1316" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="1308" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1308" t="s">
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1318" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="1309" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1309" t="s">
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1319" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="1310" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1310" t="s">
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1320" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1311" t="s">
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1321" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="1313" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1313" t="s">
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1323" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="1314" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1314" t="s">
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1324" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="1315" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1315" t="s">
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1325" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="1317" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1317" t="s">
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1327" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="1318" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1318" t="s">
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1328" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="1320" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1320" t="s">
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1330" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="1321" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1321" t="s">
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1331" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="1322" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1322" t="s">
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1332" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="1323" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1323" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="1324" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1324" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="1325" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1325" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1326" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1326" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="1328" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1328" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1330">
-        <v>71</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1332" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C1332" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1333" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1334" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C1335" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1336" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1338" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1340">
+        <v>71</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1342" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1343" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1344" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1345" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1345" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="1337" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1337" t="s">
+    <row r="1347" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1347" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="1338" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1338" t="s">
+    <row r="1348" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1348" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="1340" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1340" t="s">
+    <row r="1350" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1350" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="1341" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1341" t="s">
+    <row r="1351" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1351" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="1363" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1363" t="s">
+    <row r="1373" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1373" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="1365" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1365" t="s">
+    <row r="1375" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1375" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="1366" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1366" s="2" t="s">
+    <row r="1376" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1376" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="1367" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1367" s="2" t="s">
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1377" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="1368" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1368" s="2" t="s">
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1378" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="1369" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1369" s="2" t="s">
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1379" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="1370" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1370" s="2" t="s">
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1380" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="1371" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1371" s="2" t="s">
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1381" s="2" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="1372" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1372" s="2" t="s">
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1382" s="2" t="s">
         <v>901</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1373" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1374" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1376">
-        <v>72</v>
-      </c>
-      <c r="B1376" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1378" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C1378" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1380">
-        <v>1</v>
-      </c>
-      <c r="D1380" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1381">
-        <v>2</v>
-      </c>
-      <c r="D1381" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1382">
-        <v>3</v>
-      </c>
-      <c r="D1382" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C1383" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1384" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1386">
+        <v>72</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1388" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1390">
+        <v>1</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1391">
+        <v>2</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1392">
+        <v>3</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1393" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="1385" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1385">
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1395">
         <v>73</v>
       </c>
-      <c r="B1385" t="s">
+      <c r="B1395" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="1387" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1387" s="1" t="s">
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1397" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1387" t="s">
+      <c r="C1397" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1388" t="s">
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1398" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1390" t="s">
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1400" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1392" t="s">
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1402" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="1393" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1393" t="s">
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1403" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="1395" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1395" t="s">
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1405" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="1396" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1396" t="s">
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1406" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="1420" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1420" t="s">
+    <row r="1430" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1430" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="1421" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1421" t="s">
+    <row r="1431" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1431" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="1423" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1423" t="s">
+    <row r="1433" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1433" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="1425" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1425" t="s">
+    <row r="1435" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1435" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="1426" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1426" t="s">
+    <row r="1436" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1436" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="1427" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1427" t="s">
+    <row r="1437" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1437" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="1428" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1428" t="s">
+    <row r="1438" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1438" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="1429" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1429" t="s">
+    <row r="1439" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1439" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="1453" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1453" t="s">
+    <row r="1463" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1463" t="s">
         <v>939</v>
-      </c>
-    </row>
-    <row r="1454" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1454" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="1455" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1455" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="1456" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1456" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="1458" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1458" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1460" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1460" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1462" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1462" t="s">
-        <v>943</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="1464" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C1464" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1465" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1465" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1466" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1466" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1468" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1468" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1470" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1470" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1472" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1472" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1474" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1474" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="1484" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1484" t="s">
+    <row r="1494" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1494" t="s">
         <v>946</v>
       </c>
-      <c r="D1484" t="s">
+      <c r="D1494" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="1486" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1486" t="s">
+    <row r="1496" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1496" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="1487" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1487" t="s">
+    <row r="1497" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1497" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="1504" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1504" t="s">
+    <row r="1514" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1514" t="s">
         <v>950</v>
       </c>
-      <c r="D1504" t="s">
+      <c r="D1514" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="1506" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1506" t="s">
+    <row r="1516" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1516" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="1507" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1507" s="2" t="s">
+    <row r="1517" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1517" s="2" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="1524" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C1524" t="s">
+    <row r="1534" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1534" t="s">
         <v>954</v>
       </c>
-      <c r="D1524" t="s">
+      <c r="D1534" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="1526" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1526" t="s">
+    <row r="1536" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1536" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="1527" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1527" t="s">
+    <row r="1537" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1537" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="1528" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1528" t="s">
+    <row r="1538" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1538" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="1530" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1530" s="6" t="s">
+    <row r="1540" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1540" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="K1530" s="6" t="s">
+      <c r="K1540" s="6" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="1531" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1531" s="7" t="s">
+    <row r="1541" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1541" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="K1531" s="7" t="s">
+      <c r="K1541" s="7" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1532" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1532" s="6" t="s">
+    <row r="1542" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1542" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="K1532" s="6" t="s">
+      <c r="K1542" s="6" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1534" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C1534" t="s">
+    <row r="1544" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C1544" t="s">
         <v>965</v>
       </c>
-      <c r="D1534" t="s">
+      <c r="D1544" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="1536" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1536" t="s">
+    <row r="1546" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1546" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1537" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1537" t="s">
+    <row r="1547" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1547" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1538" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1538" t="s">
+    <row r="1548" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1548" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="1540" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1540" s="6" t="s">
+    <row r="1550" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1550" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="K1540" s="6" t="s">
+      <c r="K1550" s="6" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="1541" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1541" s="7" t="s">
+    <row r="1551" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1551" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="K1541" s="7" t="s">
+      <c r="K1551" s="7" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1542" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1542" s="6" t="s">
+    <row r="1552" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1552" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="K1542" s="6" t="s">
+      <c r="K1552" s="6" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1543" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1543" s="7" t="s">
+    <row r="1553" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1553" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="K1543" s="7" t="s">
+      <c r="K1553" s="7" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1544" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1544" s="6" t="s">
+    <row r="1554" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1554" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="K1544" s="6" t="s">
+      <c r="K1554" s="6" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="1546" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1546" t="s">
+    <row r="1556" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1556" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1547" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1547" t="s">
+    <row r="1557" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1557" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1549" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1549" s="6" t="s">
+    <row r="1559" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1559" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="K1549" s="6" t="s">
+      <c r="K1559" s="6" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1550" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1550" s="7" t="s">
+    <row r="1560" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1560" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="K1550" s="7" t="s">
+      <c r="K1560" s="7" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1551" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1551" s="6" t="s">
+    <row r="1561" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1561" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="K1551" s="6" t="s">
+      <c r="K1561" s="6" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1553" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1553" s="2" t="s">
+    <row r="1563" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1563" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="1555" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1555" t="s">
+    <row r="1565" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1565" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="1557" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1557" s="6" t="s">
+    <row r="1567" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1567" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="K1557" s="6" t="s">
+      <c r="K1567" s="6" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="1558" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1558" s="7" t="s">
+    <row r="1568" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1568" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="K1558" s="7" t="s">
+      <c r="K1568" s="7" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1559" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1559" s="6" t="s">
+    <row r="1569" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1569" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="K1559" s="6" t="s">
+      <c r="K1569" s="6" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="1561" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C1561" t="s">
+    <row r="1571" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C1571" t="s">
         <v>989</v>
       </c>
-      <c r="D1561" t="s">
+      <c r="D1571" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="1563" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1563" t="s">
+    <row r="1573" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1573" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1565" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1565" t="s">
+    <row r="1575" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1575" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="1567" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1567" t="s">
+    <row r="1577" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1577" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="1569" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1569" t="s">
+    <row r="1579" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1579" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="1570" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1570" t="s">
+    <row r="1580" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1580" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="1571" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1571" t="s">
+    <row r="1581" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1581" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="1572" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1572" t="s">
+    <row r="1582" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1582" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1573" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1573" t="s">
+    <row r="1583" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1583" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1574" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1574" t="s">
+    <row r="1584" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1584" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1575" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1575" t="s">
+    <row r="1585" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1585" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1576" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1576" t="s">
+    <row r="1586" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1586" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1578" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1578" t="s">
+    <row r="1588" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1588" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1580" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1580" t="s">
+    <row r="1590" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1590" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1581" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1581" s="2" t="s">
+    <row r="1591" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1591" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1583" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1583" t="s">
+    <row r="1593" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1593" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="1584" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1584" t="s">
+    <row r="1594" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1594" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1585" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1585" t="s">
+    <row r="1595" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1595" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1586" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1586" t="s">
+    <row r="1596" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1596" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1587" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1587" t="s">
+    <row r="1597" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1597" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="1588" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1588" t="s">
+    <row r="1598" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1598" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1589" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1589" t="s">
+    <row r="1599" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1599" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1590" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1590" t="s">
+    <row r="1600" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1600" t="s">
         <v>1008</v>
-      </c>
-    </row>
-    <row r="1591" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1591" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1592" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1592" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1593" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1593" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1594" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1594" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1595" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1595" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1596" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1596" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1597" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1597" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1598" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1598" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1599" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1599" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1600" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1600" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="1601" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E1601" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1602" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E1602" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1603" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E1603" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1604" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E1604" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1605" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1605" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1606" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1606" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1607" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1607" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1608" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1608" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1609" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1609" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1610" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1610" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1611" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1611" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1612" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1612" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1613" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1613" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1614" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1614" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1606" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C1606" t="s">
+    <row r="1616" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C1616" t="s">
         <v>1019</v>
       </c>
-      <c r="D1606" t="s">
+      <c r="D1616" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1608" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D1608" s="2" t="s">
+    <row r="1618" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1618" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1609" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D1609" t="s">
+    <row r="1619" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1619" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1611" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D1611" s="2" t="s">
+    <row r="1621" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1621" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1622" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1622" t="s">
+    <row r="1632" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1632" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1623" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1623" t="s">
+    <row r="1633" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1633" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1631" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1631" s="2" t="s">
+    <row r="1641" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1641" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1633" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1633" t="s">
+    <row r="1643" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1643" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1635" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1635" t="s">
+    <row r="1645" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1645" t="s">
         <v>1030</v>
       </c>
-      <c r="D1635" t="s">
+      <c r="D1645" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1637" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1637" t="s">
+    <row r="1647" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1647" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1638" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1638" t="s">
+    <row r="1648" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1648" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1640" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1640" t="s">
+    <row r="1650" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1650" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1651" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1651" t="s">
+    <row r="1661" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1661" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1653" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1653" t="s">
+    <row r="1663" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1663" t="s">
         <v>1036</v>
       </c>
-      <c r="D1653" t="s">
+      <c r="D1663" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="1655" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1655" t="s">
+    <row r="1665" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1665" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1657" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1657" t="s">
+    <row r="1667" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1667" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="1659" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1659" t="s">
+    <row r="1669" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1669" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1660" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1660" t="s">
+    <row r="1670" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1670" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="1674" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1674" t="s">
+    <row r="1684" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1684" t="s">
         <v>1042</v>
       </c>
-      <c r="D1674" t="s">
+      <c r="D1684" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1676" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1676" t="s">
+    <row r="1686" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1686" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="1677" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1677" t="s">
+    <row r="1687" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1687" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1690" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1690" t="s">
+    <row r="1700" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1700" t="s">
         <v>954</v>
       </c>
-      <c r="D1690" t="s">
+      <c r="D1700" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1708" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1708" t="s">
+    <row r="1718" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1718" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1709" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1709" t="s">
+    <row r="1719" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1719" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1732" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D1732" t="s">
+    <row r="1742" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D1742" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1734" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D1734" s="2" t="s">
+    <row r="1744" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D1744" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="S1734" s="3"/>
-    </row>
-    <row r="1735" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D1735" t="s">
+      <c r="S1744" s="3"/>
+    </row>
+    <row r="1745" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1745" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1749" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1749" t="s">
+    <row r="1759" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1759" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1751" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1751" t="s">
+    <row r="1761" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1761" t="s">
         <v>1053</v>
       </c>
-      <c r="D1751" t="s">
+      <c r="D1761" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1753" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1753" t="s">
+    <row r="1763" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1763" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1755" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1755" t="s">
+    <row r="1765" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1765" t="s">
         <v>1056</v>
-      </c>
-    </row>
-    <row r="1757" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1757" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1760" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1760" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1762" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1762" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1764" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1764" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D1764" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1766" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1766" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="1767" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D1767" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1770" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1770" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1772" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1772" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1774" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1774" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1776" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1776" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1777" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1777" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1780" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1780" t="s">
+    <row r="1790" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1790" t="s">
         <v>1064</v>
       </c>
-      <c r="D1780" t="s">
+      <c r="D1790" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1782" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1782" t="s">
+    <row r="1792" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1792" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1806" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1806" t="s">
+    <row r="1816" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1816" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1827" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1827">
+    <row r="1837" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1837">
         <v>74</v>
       </c>
-      <c r="B1827" t="s">
+      <c r="B1837" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1829" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1829" s="1" t="s">
+    <row r="1839" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1839" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C1829" t="s">
+      <c r="C1839" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1830" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C1830" t="s">
+    <row r="1840" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1840" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1832" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C1832" t="s">
+    <row r="1842" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1842" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1834" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C1834" t="s">
+    <row r="1844" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1844" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1836" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C1836" t="s">
+    <row r="1846" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1846" t="s">
         <v>1073</v>
       </c>
-      <c r="D1836" t="s">
+      <c r="D1846" t="s">
         <v>1074</v>
       </c>
-      <c r="G1836" t="s">
+      <c r="G1846" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1838" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D1838" t="s">
+    <row r="1848" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1848" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1839" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D1839" t="s">
+    <row r="1849" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1849" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1840" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D1840" t="s">
+    <row r="1850" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1850" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1841" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1841" t="s">
+    <row r="1851" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1851" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1843" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1843" t="s">
+    <row r="1853" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1853" t="s">
         <v>1075</v>
       </c>
-      <c r="D1843" t="s">
+      <c r="D1853" t="s">
         <v>1076</v>
       </c>
-      <c r="G1843" t="s">
+      <c r="G1853" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1845" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1845" t="s">
+    <row r="1855" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1855" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1846" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1846" t="s">
+    <row r="1856" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1856" t="s">
         <v>1096</v>
-      </c>
-    </row>
-    <row r="1847" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1847" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1849" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1849" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D1849" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G1849" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1851" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1851" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1852" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1852" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1854" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1854" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1854" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J1854" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1856" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1856" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="1857" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1857" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1858" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1858" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1859" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1859" t="s">
+        <v>1077</v>
+      </c>
       <c r="D1859" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1860" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1860" t="s">
-        <v>1108</v>
+        <v>1078</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="1861" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1861" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1863" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1863" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D1863" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J1863" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1865" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1865" t="s">
-        <v>1111</v>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1862" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1862" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1864" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1864" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="1866" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1866" t="s">
-        <v>1112</v>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1867" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1867" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1868" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1868" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1869" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1869" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1870" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1870" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1871" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1871" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1873" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1873" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1875" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1875" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1876" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1876" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1878" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1878" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1879" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1879" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1880" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1880" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1881" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1881" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1872" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1872" t="s">
+    <row r="1882" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1882" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1873" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1873" t="s">
+    <row r="1883" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1883" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1874" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1874" t="s">
+    <row r="1884" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1884" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1875" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1875" t="s">
+    <row r="1885" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1885" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1876" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1876" t="s">
+    <row r="1886" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1886" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1878" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1878" t="s">
+    <row r="1888" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1888" t="s">
         <v>1083</v>
       </c>
-      <c r="D1878" t="s">
+      <c r="D1888" t="s">
         <v>1084</v>
       </c>
-      <c r="I1878" t="s">
+      <c r="I1888" t="s">
         <v>1122</v>
-      </c>
-    </row>
-    <row r="1880" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1880" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1882" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1882" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1883" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1883" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1884" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1884" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1885" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1885" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1887" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1887" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D1887" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I1887" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1889" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1889" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="1890" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1890" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1891" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1891" t="s">
-        <v>1132</v>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1892" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1892" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="1893" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1893" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1894" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1894" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1896" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1896" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1896" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I1896" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1898" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1898" t="s">
-        <v>1137</v>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1895" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1895" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1897" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1897" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I1897" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="1899" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1899" t="s">
-        <v>1138</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1900" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1900" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1901" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1901" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1903" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1903" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1904" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1904" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1906" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1906" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I1906" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1908" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1908" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1909" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1909" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1911" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1911" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1903" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1903" t="s">
+    <row r="1913" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1913" t="s">
         <v>1089</v>
       </c>
-      <c r="D1903" t="s">
+      <c r="D1913" t="s">
         <v>1087</v>
       </c>
-      <c r="I1903" t="s">
+      <c r="I1913" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1905" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1905" t="s">
+    <row r="1915" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1915" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1907" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C1907" t="s">
+    <row r="1917" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1917" t="s">
         <v>1128</v>
       </c>
-      <c r="D1907" t="s">
+      <c r="D1917" t="s">
         <v>1090</v>
       </c>
-      <c r="I1907" t="s">
+      <c r="I1917" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1909" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1909" t="s">
+    <row r="1919" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1919" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1910" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1910" t="s">
+    <row r="1920" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1920" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1911" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1911" t="s">
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1921" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1912" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1912" t="s">
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1922" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1914" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1914" t="s">
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1924" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1915" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D1915" t="s">
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1925" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1917" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1917">
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1927">
         <v>75</v>
       </c>
-      <c r="B1917" t="s">
+      <c r="B1927" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1919" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1919" s="1" t="s">
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1929" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1919" s="2" t="s">
+      <c r="C1929" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1920" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C1920" t="s">
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1930" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1921" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1921" t="s">
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1931" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1923" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1923">
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1933">
         <v>76</v>
       </c>
-      <c r="B1923" t="s">
+      <c r="B1933" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1925" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1925" s="1" t="s">
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1935" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1925" t="s">
+      <c r="C1935" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1926" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1926" t="s">
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1936" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1927" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1927" t="s">
+    <row r="1937" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1937" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1929" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1929">
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1939">
         <v>77</v>
       </c>
-      <c r="B1929" t="s">
+      <c r="B1939" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1931" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1931" s="1" t="s">
+    <row r="1941" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1941" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1931" t="s">
+      <c r="C1941" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1932" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1932" t="s">
+    <row r="1942" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1942" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1933" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1933" t="s">
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1943" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1934" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1934" t="s">
+    <row r="1944" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1944" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1946" spans="3:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C1946" s="8" t="s">
+    <row r="1956" spans="3:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C1956" s="8" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1948" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1948">
+    <row r="1958" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1958">
         <v>1</v>
       </c>
-      <c r="D1948" t="s">
+      <c r="D1958" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1964" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C1964">
+    <row r="1974" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C1974">
         <v>2</v>
       </c>
-      <c r="D1964" t="s">
+      <c r="D1974" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1966" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D1966">
+    <row r="1976" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D1976">
         <v>1</v>
       </c>
-      <c r="E1966" t="s">
+      <c r="E1976" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1979" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1979">
+    <row r="1989" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1989">
         <v>2</v>
       </c>
-      <c r="E1979" t="s">
+      <c r="E1989" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1997" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E1997" t="s">
+    <row r="2007" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2007" t="s">
         <v>1171</v>
       </c>
-      <c r="M1997" t="s">
+      <c r="M2007" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1998" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E1998" t="s">
+    <row r="2008" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2008" t="s">
         <v>1172</v>
       </c>
-      <c r="M1998" t="s">
+      <c r="M2008" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1999" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E1999" t="s">
+    <row r="2009" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2009" t="s">
         <v>1176</v>
       </c>
-      <c r="M1999" t="s">
+      <c r="M2009" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="2001" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E2001" t="s">
+    <row r="2011" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2011" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="2003" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E2003" t="s">
+    <row r="2013" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2013" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="2005" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D2005">
+    <row r="2015" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D2015">
         <v>3</v>
       </c>
-      <c r="E2005" t="s">
+      <c r="E2015" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="2007" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D2007">
+    <row r="2017" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2017">
         <v>4</v>
       </c>
-      <c r="E2007" t="s">
+      <c r="E2017" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="2019" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2019">
+    <row r="2029" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C2029">
         <v>3</v>
       </c>
-      <c r="D2019" t="s">
+      <c r="D2029" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="2021" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2021" t="s">
+    <row r="2031" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2031" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2022" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2022" t="s">
+    <row r="2032" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2032" t="s">
         <v>1184</v>
-      </c>
-    </row>
-    <row r="2024" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2024" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="2025" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2025" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="2027" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2027" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="2029" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2029" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="2031" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2031">
-        <v>4</v>
-      </c>
-      <c r="D2031" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="2033" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2033" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="2034" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2034" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="2035" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2035" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="2037" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2037" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2039" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2039" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="2041" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2041">
+        <v>4</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="2043" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2043" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="2044" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2044" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="2046" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2046" t="s">
+    <row r="2056" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2056" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="2048" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2048">
+    <row r="2058" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2058">
         <v>5</v>
       </c>
-      <c r="D2048" t="s">
+      <c r="D2058" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="2050" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2050" s="2" t="s">
+    <row r="2060" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2060" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="2051" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2051" s="2" t="s">
+    <row r="2061" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2061" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="2064" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2064">
+    <row r="2074" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2074">
         <v>6</v>
       </c>
-      <c r="D2064" t="s">
+      <c r="D2074" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="2066" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2066" t="s">
+    <row r="2076" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2076" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="2067" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2067" t="s">
+    <row r="2077" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2077" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="2068" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2068" t="s">
+    <row r="2078" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2078" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="2080" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2080">
+    <row r="2090" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2090">
         <v>7</v>
       </c>
-      <c r="D2080" t="s">
+      <c r="D2090" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="2082" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2082" t="s">
+    <row r="2092" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2092" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="2084" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2084">
+    <row r="2094" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2094">
         <v>8</v>
       </c>
-      <c r="D2084" t="s">
+      <c r="D2094" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="2086" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2086" t="s">
+    <row r="2096" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2096" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="2088" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2088">
+    <row r="2098" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2098">
         <v>78</v>
       </c>
-      <c r="B2088" t="s">
+      <c r="B2098" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="2090" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2090" s="1" t="s">
+    <row r="2100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2100" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2090" t="s">
+      <c r="C2100" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="2092" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2092" t="s">
+    <row r="2102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2102" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="2093" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2093" t="s">
+    <row r="2103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2103" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="2095" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2095" t="s">
+    <row r="2105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2105" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="2096" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2096" t="s">
+    <row r="2106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2106" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="2098" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2098" t="s">
+    <row r="2108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2108" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="2099" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2099" t="s">
+    <row r="2109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2109" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="2101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2101" t="s">
+    <row r="2111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2111" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="2102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2102" t="s">
+    <row r="2112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2112" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="2103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2103" t="s">
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2113" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="2105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2105">
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2115">
         <v>79</v>
       </c>
-      <c r="B2105" t="s">
+      <c r="B2115" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="2107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2107" s="1" t="s">
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2117" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2107" t="s">
+      <c r="C2117" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="2108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2108" t="s">
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2118" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="2110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2110" t="s">
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2120" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="2112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2112">
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2122">
         <v>1</v>
       </c>
-      <c r="D2112" t="s">
+      <c r="D2122" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="2114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2114" t="s">
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2124" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="2115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2115" t="s">
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2125" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="2117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2117">
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2127">
         <v>2</v>
       </c>
-      <c r="D2117" t="s">
+      <c r="D2127" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="2119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2119" t="s">
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2129" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="2120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2120" t="s">
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2130" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="2122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2122">
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2132">
         <v>80</v>
       </c>
-      <c r="B2122" t="s">
+      <c r="B2132" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="2124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2124" s="1" t="s">
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2134" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2124" t="s">
+      <c r="C2134" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="2125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2125" t="s">
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2135" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="2126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2126" t="s">
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2136" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="2127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2127" t="s">
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2137" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="2128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2128" t="s">
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2138" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="2130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2130" t="s">
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2140" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="2131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2131" t="s">
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2141" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="2132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2132" t="s">
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2142" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="2134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2134">
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2144">
         <v>81</v>
       </c>
-      <c r="B2134" t="s">
+      <c r="B2144" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="2136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2136" s="1" t="s">
+    <row r="2146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2146" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2136" s="2" t="s">
+      <c r="C2146" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="2137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2137" t="s">
+    <row r="2147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2147" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="2138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2138" t="s">
+    <row r="2148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2148" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="2139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2139" t="s">
+    <row r="2149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2149" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="2140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2140" t="s">
+    <row r="2150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2150" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="2143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2143" t="s">
+    <row r="2153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2153" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="2145" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C2145">
+    <row r="2155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2155">
         <v>1</v>
       </c>
-      <c r="D2145" t="s">
+      <c r="D2155" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="2146" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2146">
+    <row r="2156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2156">
         <v>1</v>
       </c>
-      <c r="E2146" t="s">
+      <c r="E2156" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="2147" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2147">
+    <row r="2157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2157">
         <v>2</v>
       </c>
-      <c r="E2147" t="s">
+      <c r="E2157" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="2148" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C2148">
+    <row r="2158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2158">
         <v>2</v>
       </c>
-      <c r="D2148" t="s">
+      <c r="D2158" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="2149" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C2149">
+    <row r="2159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2159">
         <v>3</v>
       </c>
-      <c r="D2149" t="s">
+      <c r="D2159" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="2150" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2150">
+    <row r="2160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2160">
         <v>1</v>
       </c>
-      <c r="E2150" t="s">
+      <c r="E2160" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="2151" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2151">
+    <row r="2161" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2161">
         <v>2</v>
       </c>
-      <c r="E2151" t="s">
+      <c r="E2161" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="2152" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C2152">
+    <row r="2162" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C2162">
         <v>3</v>
       </c>
-      <c r="D2152" t="s">
+      <c r="D2162" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="2153" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2153">
+    <row r="2163" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2163">
         <v>1</v>
       </c>
-      <c r="E2153" t="s">
+      <c r="E2163" t="s">
         <v>1257</v>
       </c>
-      <c r="Q2153" t="s">
+      <c r="Q2163" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="2154" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2154">
+    <row r="2164" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2164">
         <v>2</v>
       </c>
-      <c r="E2154" t="s">
+      <c r="E2164" t="s">
         <v>1258</v>
       </c>
-      <c r="Q2154" t="s">
+      <c r="Q2164" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="2155" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2155">
+    <row r="2165" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2165">
         <v>3</v>
       </c>
-      <c r="E2155" t="s">
+      <c r="E2165" t="s">
         <v>1259</v>
       </c>
-      <c r="Q2155" t="s">
+      <c r="Q2165" t="s">
         <v>1262</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2173">
-        <v>82</v>
-      </c>
-      <c r="B2173" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2175" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C2175" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2176" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2177" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2178" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2179" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2180" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2181" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="2183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2183">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2183" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="2185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2185" s="1" t="s">
-        <v>1272</v>
+        <v>1210</v>
       </c>
       <c r="C2185" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2186" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="2187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2187" t="s">
-        <v>1275</v>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2188" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="2189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2189" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2190" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2191" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2193">
+        <v>83</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2195" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2196" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2197" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2199" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2200" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="2192" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2192" t="s">
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2202" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="2193" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2193" t="s">
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2203" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="2195" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2195" t="s">
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2205" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="2197" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2197">
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2207">
         <v>1</v>
       </c>
-      <c r="D2197" t="s">
+      <c r="D2207" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="2198" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2198" t="s">
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2208" t="s">
         <v>1300</v>
-      </c>
-    </row>
-    <row r="2199" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2199" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="2201" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2201">
-        <v>2</v>
-      </c>
-      <c r="D2201" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="2202" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2202" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="2203" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2203" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="2204" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2204" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="2206" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2206">
-        <v>3</v>
-      </c>
-      <c r="D2206" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="2207" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2207" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2208" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2208" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="2209" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2209" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2211" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2211" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="2212" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2212" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2213" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2213" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2214" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2214" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="2215" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2215" t="s">
-        <v>1314</v>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2216" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2216">
+        <v>3</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="2217" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2217">
-        <v>5</v>
-      </c>
       <c r="D2217" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2218" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2218" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="2219" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2219" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2221" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2221">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2221" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="2222" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2222" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2223" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2223" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="2224" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2224" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2225" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2227">
+        <v>5</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2228" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2229" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2231">
+        <v>6</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2232" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2233" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2234" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="2227" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2227">
+    <row r="2237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2237">
         <v>84</v>
       </c>
-      <c r="B2227" t="s">
+      <c r="B2237" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="2229" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2229" s="1" t="s">
+    <row r="2239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2239" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="2231" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2231" t="s">
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2241" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="2232" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2232" t="s">
+    <row r="2242" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2242" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="2234" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2234">
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2244">
         <v>65</v>
       </c>
-      <c r="B2234" t="s">
+      <c r="B2244" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="2236" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2236" s="1" t="s">
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2246" s="1" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="2238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2238" t="s">
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2248" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="2239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2239" t="s">
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2249" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="2240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2240" t="s">
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2250" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="2241" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2241" t="s">
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2251" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="2243" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2243" t="s">
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2253" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="2244" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2244" t="s">
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2254" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2245" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2245" t="s">
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2255" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="2247" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2247" t="s">
+    <row r="2257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2257" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="2248" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2248" t="s">
+    <row r="2258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2258" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="2250" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2250" t="s">
+    <row r="2260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2260" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="2251" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2251" t="s">
+    <row r="2261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2261" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="2253" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2253">
+    <row r="2263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2263">
         <v>66</v>
       </c>
-      <c r="B2253" t="s">
+      <c r="B2263" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="2255" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2255" s="1" t="s">
+    <row r="2265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2265" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="C2255" t="s">
+      <c r="C2265" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="2257" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2257" s="1" t="s">
+    <row r="2267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2267" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C2257" s="1" t="s">
+      <c r="C2267" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="2259" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2259" t="s">
+    <row r="2269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2269" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="2260" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2260" t="s">
+    <row r="2270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2270" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="2261" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2261" t="s">
+    <row r="2271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2271" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="2262" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2262" t="s">
+    <row r="2272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2272" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="2264" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2264" s="1" t="s">
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2274" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C2264" s="1" t="s">
+      <c r="C2274" s="1" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="2266" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2266" t="s">
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2276" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="2267" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2267" t="s">
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2277" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="2269" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2269">
+    <row r="2279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2279">
         <v>67</v>
       </c>
-      <c r="B2269" t="s">
+      <c r="B2279" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="2271" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2271" s="1" t="s">
+    <row r="2281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2281" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C2271" t="s">
+      <c r="C2281" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="2272" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2272" s="1"/>
-    </row>
-    <row r="2273" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2273" s="1"/>
-      <c r="C2273" t="s">
+    <row r="2282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2282" s="1"/>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2283" s="1"/>
+      <c r="C2283" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="2274" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2274" s="1"/>
-      <c r="C2274" t="s">
+    <row r="2284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2284" s="1"/>
+      <c r="C2284" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="2275" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2275" s="1"/>
-      <c r="C2275" t="s">
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2285" s="1"/>
+      <c r="C2285" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="2276" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2276" s="1"/>
-    </row>
-    <row r="2277" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2277" s="19">
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2286" s="1"/>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2287" s="9">
         <v>68</v>
       </c>
-      <c r="B2277" t="s">
+      <c r="B2287" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="2278" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2278" s="1"/>
-    </row>
-    <row r="2279" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2279" s="1" t="s">
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2288" s="1"/>
+    </row>
+    <row r="2289" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2289" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C2279" t="s">
+      <c r="C2289" t="s">
         <v>1354</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2280" s="1"/>
-    </row>
-    <row r="2281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2281" s="1"/>
-      <c r="C2281">
-        <v>1</v>
-      </c>
-      <c r="D2281" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2282" s="1"/>
-    </row>
-    <row r="2283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2283" s="1"/>
-      <c r="D2283" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2284" s="1"/>
-      <c r="D2284" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2285" s="1"/>
-      <c r="D2285" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="2286" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2286" s="1"/>
-    </row>
-    <row r="2287" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2287" s="1"/>
-      <c r="C2287">
-        <v>2</v>
-      </c>
-      <c r="D2287" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="2288" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2288" s="1"/>
-    </row>
-    <row r="2289" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2289" s="1"/>
-      <c r="D2289" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="2290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2290" s="1"/>
-      <c r="D2290" t="s">
-        <v>1361</v>
-      </c>
     </row>
     <row r="2291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2291" s="1"/>
+      <c r="C2291">
+        <v>1</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="2292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2292" s="1"/>
-      <c r="D2292" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F2292" t="s">
-        <v>1363</v>
-      </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2293" s="1"/>
-      <c r="F2293" t="s">
-        <v>1364</v>
+      <c r="D2293" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2294" s="1"/>
-      <c r="F2294" t="s">
-        <v>1365</v>
+      <c r="D2294" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2295" s="1"/>
+      <c r="D2295" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2296" s="1"/>
-      <c r="E2296">
-        <v>1</v>
-      </c>
-      <c r="F2296" t="s">
-        <v>1366</v>
-      </c>
     </row>
     <row r="2297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2297" s="1"/>
-      <c r="F2297" t="s">
-        <v>1367</v>
+      <c r="C2297">
+        <v>2</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="2298" spans="1:6" x14ac:dyDescent="0.15">
@@ -19423,96 +19457,144 @@
     </row>
     <row r="2299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2299" s="1"/>
-      <c r="E2299">
-        <v>2</v>
-      </c>
-      <c r="F2299" t="s">
-        <v>1368</v>
+      <c r="D2299" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="2300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2300" s="1"/>
+      <c r="D2300" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="2301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2301" s="1"/>
-      <c r="E2301">
-        <v>3</v>
-      </c>
-      <c r="F2301" t="s">
-        <v>1369</v>
-      </c>
     </row>
     <row r="2302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2302" s="1"/>
+      <c r="D2302" s="1" t="s">
+        <v>1362</v>
+      </c>
       <c r="F2302" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2303" s="1"/>
+      <c r="F2303" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="2304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2304" s="1"/>
-      <c r="E2304">
-        <v>4</v>
-      </c>
       <c r="F2304" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2305" s="1"/>
-      <c r="F2305" t="s">
-        <v>1372</v>
-      </c>
     </row>
     <row r="2306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2306" s="1"/>
+      <c r="E2306">
+        <v>1</v>
+      </c>
       <c r="F2306" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2307" s="1"/>
+      <c r="F2307" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="2308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2308" s="1"/>
     </row>
     <row r="2309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2309" s="1"/>
+      <c r="E2309">
+        <v>2</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row r="2310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2310" s="1"/>
     </row>
     <row r="2311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2311" s="1"/>
+      <c r="E2311">
+        <v>3</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="2312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2312" s="1"/>
+      <c r="F2312" t="s">
+        <v>1370</v>
+      </c>
     </row>
     <row r="2313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2313" s="1"/>
     </row>
     <row r="2314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2314" s="1"/>
+      <c r="E2314">
+        <v>4</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2315" s="1"/>
+      <c r="F2315" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2316" s="1"/>
+      <c r="F2316" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2317" s="1"/>
+    </row>
+    <row r="2318" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2318" s="1"/>
+    </row>
+    <row r="2319" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2319" s="1"/>
+    </row>
+    <row r="2320" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2320" s="1"/>
+    </row>
+    <row r="2321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2321" s="1"/>
+    </row>
+    <row r="2322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2322" s="1"/>
+    </row>
+    <row r="2323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2323" s="1"/>
+    </row>
+    <row r="2324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2324" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P1044:X1044"/>
-    <mergeCell ref="P1045:X1045"/>
-    <mergeCell ref="P1046:X1046"/>
-    <mergeCell ref="P1047:X1047"/>
-    <mergeCell ref="P1048:X1049"/>
-    <mergeCell ref="G1044:O1044"/>
-    <mergeCell ref="G1045:O1045"/>
-    <mergeCell ref="G1046:O1046"/>
-    <mergeCell ref="G1047:O1047"/>
-    <mergeCell ref="G1048:O1049"/>
-    <mergeCell ref="D1044:F1044"/>
-    <mergeCell ref="D1045:F1045"/>
-    <mergeCell ref="D1046:F1046"/>
-    <mergeCell ref="D1047:F1047"/>
-    <mergeCell ref="D1048:F1049"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="N85:W85"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="N86:W86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="N87:W87"/>
     <mergeCell ref="D91:M91"/>
     <mergeCell ref="N91:W91"/>
     <mergeCell ref="D88:M88"/>
@@ -19521,12 +19603,21 @@
     <mergeCell ref="N89:W89"/>
     <mergeCell ref="D90:M90"/>
     <mergeCell ref="N90:W90"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="N85:W85"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="N86:W86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="N87:W87"/>
+    <mergeCell ref="D1044:F1044"/>
+    <mergeCell ref="D1045:F1045"/>
+    <mergeCell ref="D1046:F1046"/>
+    <mergeCell ref="D1047:F1047"/>
+    <mergeCell ref="D1048:F1049"/>
+    <mergeCell ref="G1044:O1044"/>
+    <mergeCell ref="G1045:O1045"/>
+    <mergeCell ref="G1046:O1046"/>
+    <mergeCell ref="G1047:O1047"/>
+    <mergeCell ref="G1048:O1049"/>
+    <mergeCell ref="P1044:X1044"/>
+    <mergeCell ref="P1045:X1045"/>
+    <mergeCell ref="P1046:X1046"/>
+    <mergeCell ref="P1047:X1047"/>
+    <mergeCell ref="P1048:X1049"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2326</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2342</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1399">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -9340,6 +9340,188 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇プライベートホストゾーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon VPCサービスで作成する１つ以上のVPC内のドメインとそのサブドメインに対するDNS</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストへのAmazon Route 53の応答方法に関する情報を保持するコンテナです。</t>
+    <rPh sb="23" eb="25">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライベートホストゾーンの設定は以下の通りです。</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example.com などのプライベートホストゾーンを作成して、そのホストゾーンに関連付ける</t>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>カンレンヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCを指定する。</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC内およびVPC間でドメインとサブドメインのDNSクエリにRoute 53が応答する方法を</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定するホストゾーンにレコードを作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCにあるenableDnsHostNamesとenableDnsSupportをTrueに変更します。</t>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションがdb.example.comへのDNSクエリを送信すると、Route 53は対応する</t>
+    <rPh sb="32" eb="34">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレスを返します。 また、アプリケーションは、example.com プライベートホストゾーン</t>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に関連付けたいずれかの VPC で EC2 インスタンス上で実行している必要があります。</t>
+    <rPh sb="28" eb="29">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDS Proxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDS Proxyは、アプリケーションとRDSデータベースの間の仲介役として機能します。 RDS Proxyは、</t>
+    <rPh sb="30" eb="31">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要となるDBへのコネクションプールを確立および管理し、アプリケーションからDB接続を少なく</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抑える機能です。</t>
+    <rPh sb="0" eb="1">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9489,17 +9671,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9507,17 +9689,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9872,14 +10054,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1352</xdr:row>
+      <xdr:row>1368</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>1370</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:row>1386</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9927,14 +10109,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1407</xdr:row>
+      <xdr:row>1423</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>153865</xdr:colOff>
-      <xdr:row>1428</xdr:row>
-      <xdr:rowOff>29190</xdr:rowOff>
+      <xdr:row>1444</xdr:row>
+      <xdr:rowOff>29191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9982,14 +10164,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1440</xdr:row>
+      <xdr:row>1456</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1460</xdr:row>
-      <xdr:rowOff>95966</xdr:rowOff>
+      <xdr:row>1476</xdr:row>
+      <xdr:rowOff>95967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10037,14 +10219,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>1474</xdr:row>
+      <xdr:row>1490</xdr:row>
       <xdr:rowOff>124557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>1492</xdr:row>
-      <xdr:rowOff>70338</xdr:rowOff>
+      <xdr:row>1508</xdr:row>
+      <xdr:rowOff>70337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10092,13 +10274,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1498</xdr:row>
+      <xdr:row>1514</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1512</xdr:row>
+      <xdr:row>1528</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10147,14 +10329,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1518</xdr:row>
+      <xdr:row>1534</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1531</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>1547</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10202,14 +10384,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1622</xdr:row>
+      <xdr:row>1638</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1630</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>1646</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10257,13 +10439,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1634</xdr:row>
+      <xdr:row>1650</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1639</xdr:row>
+      <xdr:row>1655</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10312,14 +10494,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1651</xdr:row>
+      <xdr:row>1667</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1659</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>1675</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10367,14 +10549,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1671</xdr:row>
+      <xdr:row>1687</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1681</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>1697</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10422,13 +10604,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1688</xdr:row>
+      <xdr:row>1704</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>1698</xdr:row>
+      <xdr:row>1714</xdr:row>
       <xdr:rowOff>18741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10477,14 +10659,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1701</xdr:row>
+      <xdr:row>1717</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>43961</xdr:colOff>
-      <xdr:row>1716</xdr:row>
-      <xdr:rowOff>65599</xdr:rowOff>
+      <xdr:row>1732</xdr:row>
+      <xdr:rowOff>65600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10532,13 +10714,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1720</xdr:row>
+      <xdr:row>1736</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>243086</xdr:colOff>
-      <xdr:row>1739</xdr:row>
+      <xdr:row>1755</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10587,14 +10769,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1746</xdr:row>
+      <xdr:row>1762</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>1757</xdr:row>
-      <xdr:rowOff>65488</xdr:rowOff>
+      <xdr:row>1773</xdr:row>
+      <xdr:rowOff>65489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10642,13 +10824,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1778</xdr:row>
+      <xdr:row>1794</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1787</xdr:row>
+      <xdr:row>1803</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10697,14 +10879,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1793</xdr:row>
+      <xdr:row>1809</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>271096</xdr:colOff>
-      <xdr:row>1814</xdr:row>
-      <xdr:rowOff>24251</xdr:rowOff>
+      <xdr:row>1830</xdr:row>
+      <xdr:rowOff>24252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10752,14 +10934,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1817</xdr:row>
+      <xdr:row>1833</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>197827</xdr:colOff>
-      <xdr:row>1834</xdr:row>
-      <xdr:rowOff>105533</xdr:rowOff>
+      <xdr:row>1850</xdr:row>
+      <xdr:rowOff>105532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10807,13 +10989,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88886</xdr:colOff>
-      <xdr:row>1945</xdr:row>
+      <xdr:row>1961</xdr:row>
       <xdr:rowOff>109903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>1954</xdr:row>
+      <xdr:row>1970</xdr:row>
       <xdr:rowOff>86649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10862,14 +11044,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1959</xdr:row>
+      <xdr:row>1975</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>1971</xdr:row>
-      <xdr:rowOff>145386</xdr:rowOff>
+      <xdr:row>1987</xdr:row>
+      <xdr:rowOff>145387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10917,14 +11099,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14653</xdr:colOff>
-      <xdr:row>1976</xdr:row>
+      <xdr:row>1992</xdr:row>
       <xdr:rowOff>152105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>218341</xdr:colOff>
-      <xdr:row>1987</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:row>2003</xdr:row>
+      <xdr:rowOff>57147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10972,13 +11154,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>260322</xdr:colOff>
-      <xdr:row>1990</xdr:row>
+      <xdr:row>2006</xdr:row>
       <xdr:rowOff>113827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>70603</xdr:colOff>
-      <xdr:row>2004</xdr:row>
+      <xdr:row>2020</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11027,13 +11209,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38757</xdr:colOff>
-      <xdr:row>2018</xdr:row>
+      <xdr:row>2034</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>89146</xdr:colOff>
-      <xdr:row>2026</xdr:row>
+      <xdr:row>2042</xdr:row>
       <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11082,13 +11264,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257546</xdr:colOff>
-      <xdr:row>2045</xdr:row>
+      <xdr:row>2061</xdr:row>
       <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>271096</xdr:colOff>
-      <xdr:row>2054</xdr:row>
+      <xdr:row>2070</xdr:row>
       <xdr:rowOff>6016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11137,13 +11319,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21980</xdr:colOff>
-      <xdr:row>2062</xdr:row>
+      <xdr:row>2078</xdr:row>
       <xdr:rowOff>99448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>248387</xdr:colOff>
-      <xdr:row>2071</xdr:row>
+      <xdr:row>2087</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11192,13 +11374,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2078</xdr:row>
+      <xdr:row>2094</xdr:row>
       <xdr:rowOff>145539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>73270</xdr:colOff>
-      <xdr:row>2087</xdr:row>
+      <xdr:row>2103</xdr:row>
       <xdr:rowOff>138225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11247,13 +11429,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>2166</xdr:row>
+      <xdr:row>2182</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>150159</xdr:colOff>
-      <xdr:row>2180</xdr:row>
+      <xdr:row>2196</xdr:row>
       <xdr:rowOff>132790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11588,10 +11770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2324"/>
+  <dimension ref="A1:X2340"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1294" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1310" sqref="D1310"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2317" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C2338" sqref="C2338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11932,186 +12114,186 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18" t="s">
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
     </row>
     <row r="87" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
     </row>
     <row r="88" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17" t="s">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18" t="s">
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
     </row>
     <row r="90" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
     </row>
     <row r="91" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17" t="s">
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93">
@@ -15847,33 +16029,33 @@
       </c>
     </row>
     <row r="1044" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1044" s="10" t="s">
+      <c r="D1044" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="E1044" s="10"/>
-      <c r="F1044" s="10"/>
-      <c r="G1044" s="10" t="s">
+      <c r="E1044" s="13"/>
+      <c r="F1044" s="13"/>
+      <c r="G1044" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="H1044" s="10"/>
-      <c r="I1044" s="10"/>
-      <c r="J1044" s="10"/>
-      <c r="K1044" s="10"/>
-      <c r="L1044" s="10"/>
-      <c r="M1044" s="10"/>
-      <c r="N1044" s="10"/>
-      <c r="O1044" s="10"/>
-      <c r="P1044" s="10" t="s">
+      <c r="H1044" s="13"/>
+      <c r="I1044" s="13"/>
+      <c r="J1044" s="13"/>
+      <c r="K1044" s="13"/>
+      <c r="L1044" s="13"/>
+      <c r="M1044" s="13"/>
+      <c r="N1044" s="13"/>
+      <c r="O1044" s="13"/>
+      <c r="P1044" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="Q1044" s="10"/>
-      <c r="R1044" s="10"/>
-      <c r="S1044" s="10"/>
-      <c r="T1044" s="10"/>
-      <c r="U1044" s="10"/>
-      <c r="V1044" s="10"/>
-      <c r="W1044" s="10"/>
-      <c r="X1044" s="10"/>
+      <c r="Q1044" s="13"/>
+      <c r="R1044" s="13"/>
+      <c r="S1044" s="13"/>
+      <c r="T1044" s="13"/>
+      <c r="U1044" s="13"/>
+      <c r="V1044" s="13"/>
+      <c r="W1044" s="13"/>
+      <c r="X1044" s="13"/>
     </row>
     <row r="1045" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1045" s="14" t="s">
@@ -15892,17 +16074,17 @@
       <c r="M1045" s="14"/>
       <c r="N1045" s="14"/>
       <c r="O1045" s="14"/>
-      <c r="P1045" s="11" t="s">
+      <c r="P1045" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="Q1045" s="11"/>
-      <c r="R1045" s="11"/>
-      <c r="S1045" s="11"/>
-      <c r="T1045" s="11"/>
-      <c r="U1045" s="11"/>
-      <c r="V1045" s="11"/>
-      <c r="W1045" s="11"/>
-      <c r="X1045" s="11"/>
+      <c r="Q1045" s="18"/>
+      <c r="R1045" s="18"/>
+      <c r="S1045" s="18"/>
+      <c r="T1045" s="18"/>
+      <c r="U1045" s="18"/>
+      <c r="V1045" s="18"/>
+      <c r="W1045" s="18"/>
+      <c r="X1045" s="18"/>
     </row>
     <row r="1046" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1046" s="15" t="s">
@@ -15921,17 +16103,17 @@
       <c r="M1046" s="15"/>
       <c r="N1046" s="15"/>
       <c r="O1046" s="15"/>
-      <c r="P1046" s="12" t="s">
+      <c r="P1046" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="Q1046" s="12"/>
-      <c r="R1046" s="12"/>
-      <c r="S1046" s="12"/>
-      <c r="T1046" s="12"/>
-      <c r="U1046" s="12"/>
-      <c r="V1046" s="12"/>
-      <c r="W1046" s="12"/>
-      <c r="X1046" s="12"/>
+      <c r="Q1046" s="16"/>
+      <c r="R1046" s="16"/>
+      <c r="S1046" s="16"/>
+      <c r="T1046" s="16"/>
+      <c r="U1046" s="16"/>
+      <c r="V1046" s="16"/>
+      <c r="W1046" s="16"/>
+      <c r="X1046" s="16"/>
     </row>
     <row r="1047" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1047" s="14" t="s">
@@ -15950,69 +16132,69 @@
       <c r="M1047" s="14"/>
       <c r="N1047" s="14"/>
       <c r="O1047" s="14"/>
-      <c r="P1047" s="11" t="s">
+      <c r="P1047" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="Q1047" s="11"/>
-      <c r="R1047" s="11"/>
-      <c r="S1047" s="11"/>
-      <c r="T1047" s="11"/>
-      <c r="U1047" s="11"/>
-      <c r="V1047" s="11"/>
-      <c r="W1047" s="11"/>
-      <c r="X1047" s="11"/>
+      <c r="Q1047" s="18"/>
+      <c r="R1047" s="18"/>
+      <c r="S1047" s="18"/>
+      <c r="T1047" s="18"/>
+      <c r="U1047" s="18"/>
+      <c r="V1047" s="18"/>
+      <c r="W1047" s="18"/>
+      <c r="X1047" s="18"/>
     </row>
     <row r="1048" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1048" s="12" t="s">
+      <c r="D1048" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="E1048" s="12"/>
-      <c r="F1048" s="12"/>
-      <c r="G1048" s="16" t="s">
+      <c r="E1048" s="16"/>
+      <c r="F1048" s="16"/>
+      <c r="G1048" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="H1048" s="16"/>
-      <c r="I1048" s="16"/>
-      <c r="J1048" s="16"/>
-      <c r="K1048" s="16"/>
-      <c r="L1048" s="16"/>
-      <c r="M1048" s="16"/>
-      <c r="N1048" s="16"/>
-      <c r="O1048" s="16"/>
-      <c r="P1048" s="13" t="s">
+      <c r="H1048" s="17"/>
+      <c r="I1048" s="17"/>
+      <c r="J1048" s="17"/>
+      <c r="K1048" s="17"/>
+      <c r="L1048" s="17"/>
+      <c r="M1048" s="17"/>
+      <c r="N1048" s="17"/>
+      <c r="O1048" s="17"/>
+      <c r="P1048" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="Q1048" s="13"/>
-      <c r="R1048" s="13"/>
-      <c r="S1048" s="13"/>
-      <c r="T1048" s="13"/>
-      <c r="U1048" s="13"/>
-      <c r="V1048" s="13"/>
-      <c r="W1048" s="13"/>
-      <c r="X1048" s="13"/>
+      <c r="Q1048" s="19"/>
+      <c r="R1048" s="19"/>
+      <c r="S1048" s="19"/>
+      <c r="T1048" s="19"/>
+      <c r="U1048" s="19"/>
+      <c r="V1048" s="19"/>
+      <c r="W1048" s="19"/>
+      <c r="X1048" s="19"/>
     </row>
     <row r="1049" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1049" s="12"/>
-      <c r="E1049" s="12"/>
-      <c r="F1049" s="12"/>
-      <c r="G1049" s="16"/>
-      <c r="H1049" s="16"/>
-      <c r="I1049" s="16"/>
-      <c r="J1049" s="16"/>
-      <c r="K1049" s="16"/>
-      <c r="L1049" s="16"/>
-      <c r="M1049" s="16"/>
-      <c r="N1049" s="16"/>
-      <c r="O1049" s="16"/>
-      <c r="P1049" s="13"/>
-      <c r="Q1049" s="13"/>
-      <c r="R1049" s="13"/>
-      <c r="S1049" s="13"/>
-      <c r="T1049" s="13"/>
-      <c r="U1049" s="13"/>
-      <c r="V1049" s="13"/>
-      <c r="W1049" s="13"/>
-      <c r="X1049" s="13"/>
+      <c r="D1049" s="16"/>
+      <c r="E1049" s="16"/>
+      <c r="F1049" s="16"/>
+      <c r="G1049" s="17"/>
+      <c r="H1049" s="17"/>
+      <c r="I1049" s="17"/>
+      <c r="J1049" s="17"/>
+      <c r="K1049" s="17"/>
+      <c r="L1049" s="17"/>
+      <c r="M1049" s="17"/>
+      <c r="N1049" s="17"/>
+      <c r="O1049" s="17"/>
+      <c r="P1049" s="19"/>
+      <c r="Q1049" s="19"/>
+      <c r="R1049" s="19"/>
+      <c r="S1049" s="19"/>
+      <c r="T1049" s="19"/>
+      <c r="U1049" s="19"/>
+      <c r="V1049" s="19"/>
+      <c r="W1049" s="19"/>
+      <c r="X1049" s="19"/>
     </row>
     <row r="1050" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D1050" t="s">
@@ -17037,2476 +17219,2458 @@
         <v>881</v>
       </c>
     </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1330" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1330" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="1331" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1331" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1331" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1332" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1332" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="1333" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1333" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1333" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="1334" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1334" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1334" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="1335" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1335" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1335" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="1336" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1336" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1336" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="1338" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1338" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C1338" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="1340" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1340">
+    <row r="1340" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1340" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1342" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1342" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1343" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1343" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1345" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1347">
+        <v>1</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1348" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1349">
+        <v>2</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1350" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1351">
+        <v>3</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1352">
+        <v>4</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1353" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1354" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1356">
         <v>71</v>
       </c>
-      <c r="B1340" t="s">
+      <c r="B1356" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="1342" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1342" s="1" t="s">
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1358" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1342" t="s">
+      <c r="C1358" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="1343" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1343" t="s">
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1359" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="1344" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1344" t="s">
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1360" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="1345" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1345" t="s">
+    <row r="1361" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1361" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="1347" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1347" t="s">
+    <row r="1363" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1363" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="1348" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1348" t="s">
+    <row r="1364" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1364" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="1350" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1350" t="s">
+    <row r="1366" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1366" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="1351" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1351" t="s">
+    <row r="1367" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1367" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="1373" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1373" t="s">
+    <row r="1389" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1389" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="1375" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1375" t="s">
+    <row r="1391" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1391" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="1376" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1376" s="2" t="s">
+    <row r="1392" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1392" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1377" s="2" t="s">
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1393" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1378" s="2" t="s">
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1394" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1379" s="2" t="s">
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1395" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1380" s="2" t="s">
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1396" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="1381" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1381" s="2" t="s">
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1397" s="2" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1382" s="2" t="s">
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1398" s="2" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="1383" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1383" t="s">
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1399" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1384" t="s">
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1400" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="1386" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1386">
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1402">
         <v>72</v>
       </c>
-      <c r="B1386" t="s">
+      <c r="B1402" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1388" s="1" t="s">
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1404" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1388" t="s">
+      <c r="C1404" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1390">
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1406">
         <v>1</v>
       </c>
-      <c r="D1390" t="s">
+      <c r="D1406" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="1391" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1391">
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1407">
         <v>2</v>
       </c>
-      <c r="D1391" t="s">
+      <c r="D1407" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1392">
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1408">
         <v>3</v>
       </c>
-      <c r="D1392" t="s">
+      <c r="D1408" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="1393" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1393" t="s">
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1409" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="1395" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1395">
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1411">
         <v>73</v>
       </c>
-      <c r="B1395" t="s">
+      <c r="B1411" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="1397" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1397" s="1" t="s">
+    <row r="1413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1413" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C1397" t="s">
+      <c r="C1413" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="1398" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1398" t="s">
+    <row r="1414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1414" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="1400" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1400" t="s">
+    <row r="1416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1416" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="1402" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1402" t="s">
+    <row r="1418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1418" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="1403" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1403" t="s">
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1419" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="1405" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1405" t="s">
+    <row r="1421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1421" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="1406" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1406" t="s">
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1422" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="1430" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1430" t="s">
+    <row r="1446" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1446" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="1431" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1431" t="s">
+    <row r="1447" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1447" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="1433" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1433" t="s">
+    <row r="1449" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1449" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="1435" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1435" t="s">
+    <row r="1451" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1451" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="1436" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1436" t="s">
+    <row r="1452" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1452" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="1437" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1437" t="s">
+    <row r="1453" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1453" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="1438" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1438" t="s">
+    <row r="1454" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1454" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="1439" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1439" t="s">
+    <row r="1455" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1455" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="1463" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1463" t="s">
+    <row r="1479" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1479" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="1464" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1464" t="s">
+    <row r="1480" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1480" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="1465" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1465" t="s">
+    <row r="1481" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1481" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="1466" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1466" t="s">
+    <row r="1482" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1482" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="1468" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1468" t="s">
+    <row r="1484" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1484" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1470" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1470" t="s">
+    <row r="1486" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1486" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="1472" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1472" t="s">
+    <row r="1488" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1488" t="s">
         <v>943</v>
       </c>
-      <c r="D1472" t="s">
+      <c r="D1488" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="1474" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C1474" t="s">
+    <row r="1490" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C1490" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="1494" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1494" t="s">
+    <row r="1510" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1510" t="s">
         <v>946</v>
       </c>
-      <c r="D1494" t="s">
+      <c r="D1510" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="1496" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1496" t="s">
+    <row r="1512" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1512" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="1497" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1497" t="s">
+    <row r="1513" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1513" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="1514" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1514" t="s">
+    <row r="1530" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1530" t="s">
         <v>950</v>
       </c>
-      <c r="D1514" t="s">
+      <c r="D1530" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="1516" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1516" t="s">
+    <row r="1532" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1532" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="1517" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1517" s="2" t="s">
+    <row r="1533" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1533" s="2" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="1534" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1534" t="s">
+    <row r="1550" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1550" t="s">
         <v>954</v>
       </c>
-      <c r="D1534" t="s">
+      <c r="D1550" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="1536" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1536" t="s">
+    <row r="1552" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1552" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="1537" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1537" t="s">
+    <row r="1553" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1553" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="1538" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1538" t="s">
+    <row r="1554" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1554" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="1540" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1540" s="6" t="s">
+    <row r="1556" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1556" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="K1540" s="6" t="s">
+      <c r="K1556" s="6" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="1541" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1541" s="7" t="s">
+    <row r="1557" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1557" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="K1541" s="7" t="s">
+      <c r="K1557" s="7" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1542" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1542" s="6" t="s">
+    <row r="1558" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1558" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="K1542" s="6" t="s">
+      <c r="K1558" s="6" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1544" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C1544" t="s">
+    <row r="1560" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C1560" t="s">
         <v>965</v>
       </c>
-      <c r="D1544" t="s">
+      <c r="D1560" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="1546" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1546" t="s">
+    <row r="1562" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1562" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1547" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1547" t="s">
+    <row r="1563" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1563" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1548" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1548" t="s">
+    <row r="1564" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1564" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="1550" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1550" s="6" t="s">
+    <row r="1566" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1566" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="K1550" s="6" t="s">
+      <c r="K1566" s="6" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="1551" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1551" s="7" t="s">
+    <row r="1567" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1567" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="K1551" s="7" t="s">
+      <c r="K1567" s="7" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1552" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1552" s="6" t="s">
+    <row r="1568" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1568" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="K1552" s="6" t="s">
+      <c r="K1568" s="6" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="1553" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1553" s="7" t="s">
+    <row r="1569" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1569" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="K1553" s="7" t="s">
+      <c r="K1569" s="7" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="1554" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1554" s="6" t="s">
+    <row r="1570" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1570" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="K1554" s="6" t="s">
+      <c r="K1570" s="6" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="1556" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1556" t="s">
+    <row r="1572" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1572" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="1557" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1557" t="s">
+    <row r="1573" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1573" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="1559" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1559" s="6" t="s">
+    <row r="1575" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1575" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="K1559" s="6" t="s">
+      <c r="K1575" s="6" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1560" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1560" s="7" t="s">
+    <row r="1576" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1576" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="K1560" s="7" t="s">
+      <c r="K1576" s="7" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1561" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1561" s="6" t="s">
+    <row r="1577" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1577" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="K1561" s="6" t="s">
+      <c r="K1577" s="6" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="1563" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1563" s="2" t="s">
+    <row r="1579" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1579" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="1565" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D1565" t="s">
+    <row r="1581" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D1581" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="1567" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1567" s="6" t="s">
+    <row r="1583" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1583" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="K1567" s="6" t="s">
+      <c r="K1583" s="6" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="1568" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1568" s="7" t="s">
+    <row r="1584" spans="4:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1584" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="K1568" s="7" t="s">
+      <c r="K1584" s="7" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="1569" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="E1569" s="6" t="s">
+    <row r="1585" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1585" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="K1569" s="6" t="s">
+      <c r="K1585" s="6" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="1571" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C1571" t="s">
+    <row r="1587" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C1587" t="s">
         <v>989</v>
       </c>
-      <c r="D1571" t="s">
+      <c r="D1587" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="1573" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1573" t="s">
+    <row r="1589" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1589" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="1575" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1575" t="s">
+    <row r="1591" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1591" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="1577" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D1577" t="s">
+    <row r="1593" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D1593" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="1579" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1579" t="s">
+    <row r="1595" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1595" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="1580" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1580" t="s">
+    <row r="1596" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1596" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="1581" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1581" t="s">
+    <row r="1597" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1597" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="1582" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1582" t="s">
+    <row r="1598" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1598" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1583" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1583" t="s">
+    <row r="1599" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1599" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="1584" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="E1584" t="s">
+    <row r="1600" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E1600" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1585" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1585" t="s">
+    <row r="1601" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1601" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1586" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1586" t="s">
+    <row r="1602" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1602" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1588" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1588" t="s">
+    <row r="1604" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1604" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1590" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1590" t="s">
+    <row r="1606" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1606" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1591" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1591" s="2" t="s">
+    <row r="1607" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D1607" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1593" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1593" t="s">
+    <row r="1609" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1609" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="1594" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1594" t="s">
+    <row r="1610" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1610" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1595" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1595" t="s">
+    <row r="1611" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1611" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1596" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1596" t="s">
+    <row r="1612" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1612" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1597" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1597" t="s">
+    <row r="1613" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1613" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="1598" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1598" t="s">
+    <row r="1614" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1614" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1599" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1599" t="s">
+    <row r="1615" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1615" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1600" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="E1600" t="s">
+    <row r="1616" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E1616" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1601" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1601" t="s">
+    <row r="1617" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1617" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1602" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1602" t="s">
+    <row r="1618" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1618" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="1603" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1603" t="s">
+    <row r="1619" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1619" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="1604" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1604" t="s">
+    <row r="1620" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1620" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1605" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1605" t="s">
+    <row r="1621" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1621" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="1606" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1606" t="s">
+    <row r="1622" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1622" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1607" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1607" t="s">
+    <row r="1623" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1623" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="1608" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1608" t="s">
+    <row r="1624" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1624" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1609" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1609" t="s">
+    <row r="1625" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1625" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1610" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1610" t="s">
+    <row r="1626" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1626" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="1611" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1611" t="s">
+    <row r="1627" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1627" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1612" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1612" t="s">
+    <row r="1628" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1628" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1613" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1613" t="s">
+    <row r="1629" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1629" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1614" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E1614" t="s">
+    <row r="1630" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E1630" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1616" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C1616" t="s">
+    <row r="1632" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C1632" t="s">
         <v>1019</v>
       </c>
-      <c r="D1616" t="s">
+      <c r="D1632" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1618" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1618" s="2" t="s">
+    <row r="1634" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1634" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1619" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1619" t="s">
+    <row r="1635" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1635" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1621" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1621" s="2" t="s">
+    <row r="1637" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1637" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1632" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1632" t="s">
+    <row r="1648" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1648" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="1633" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1633" t="s">
+    <row r="1649" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1649" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="1641" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1641" s="2" t="s">
+    <row r="1657" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1657" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1643" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1643" t="s">
+    <row r="1659" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1659" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="1645" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1645" t="s">
+    <row r="1661" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1661" t="s">
         <v>1030</v>
       </c>
-      <c r="D1645" t="s">
+      <c r="D1661" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1647" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1647" t="s">
+    <row r="1663" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1663" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1648" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1648" t="s">
+    <row r="1664" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1664" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1650" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1650" t="s">
+    <row r="1666" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1666" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1661" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1661" t="s">
+    <row r="1677" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1677" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1663" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1663" t="s">
+    <row r="1679" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1679" t="s">
         <v>1036</v>
       </c>
-      <c r="D1663" t="s">
+      <c r="D1679" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="1665" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1665" t="s">
+    <row r="1681" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1681" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1667" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1667" t="s">
+    <row r="1683" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1683" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="1669" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1669" t="s">
+    <row r="1685" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1685" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1670" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1670" t="s">
+    <row r="1686" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1686" t="s">
         <v>1041</v>
-      </c>
-    </row>
-    <row r="1684" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1684" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D1684" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1686" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1686" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1687" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1687" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="1700" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C1700" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1702" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1702" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1703" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1703" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1716" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1716" t="s">
         <v>954</v>
       </c>
-      <c r="D1700" t="s">
+      <c r="D1716" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="1718" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1718" t="s">
+    <row r="1734" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1734" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1719" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1719" t="s">
+    <row r="1735" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1735" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1742" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D1742" t="s">
+    <row r="1758" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D1758" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="1744" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D1744" s="2" t="s">
+    <row r="1760" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D1760" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="S1744" s="3"/>
-    </row>
-    <row r="1745" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1745" t="s">
+      <c r="S1760" s="3"/>
+    </row>
+    <row r="1761" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1761" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1759" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1759" t="s">
+    <row r="1775" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1775" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1761" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1761" t="s">
+    <row r="1777" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1777" t="s">
         <v>1053</v>
       </c>
-      <c r="D1761" t="s">
+      <c r="D1777" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1763" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1763" t="s">
+    <row r="1779" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1779" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="1765" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1765" t="s">
+    <row r="1781" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1781" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="1767" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1767" t="s">
+    <row r="1783" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1783" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1770" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1770" t="s">
+    <row r="1786" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1786" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1772" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1772" t="s">
+    <row r="1788" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1788" t="s">
         <v>1059</v>
-      </c>
-    </row>
-    <row r="1774" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1774" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D1774" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1776" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1776" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1777" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D1777" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="1790" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C1790" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D1790" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1792" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D1792" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1793" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1793" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1806" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1806" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1808" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D1808" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1816" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D1816" t="s">
+    <row r="1832" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D1832" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1837" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1837">
+    <row r="1853" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1853">
         <v>74</v>
       </c>
-      <c r="B1837" t="s">
+      <c r="B1853" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1839" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1839" s="1" t="s">
+    <row r="1855" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1855" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C1839" t="s">
+      <c r="C1855" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1840" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1840" t="s">
+    <row r="1856" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1856" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1842" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C1842" t="s">
+    <row r="1858" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1858" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1844" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C1844" t="s">
+    <row r="1860" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1860" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1846" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C1846" t="s">
+    <row r="1862" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1862" t="s">
         <v>1073</v>
       </c>
-      <c r="D1846" t="s">
+      <c r="D1862" t="s">
         <v>1074</v>
       </c>
-      <c r="G1846" t="s">
+      <c r="G1862" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1848" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1848" t="s">
+    <row r="1864" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1864" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1849" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1849" t="s">
+    <row r="1865" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1865" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1850" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1850" t="s">
+    <row r="1866" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1866" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1851" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1851" t="s">
+    <row r="1867" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1867" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1853" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C1853" t="s">
+    <row r="1869" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C1869" t="s">
         <v>1075</v>
       </c>
-      <c r="D1853" t="s">
+      <c r="D1869" t="s">
         <v>1076</v>
       </c>
-      <c r="G1853" t="s">
+      <c r="G1869" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1855" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1855" t="s">
+    <row r="1871" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1871" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1856" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D1856" t="s">
+    <row r="1872" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D1872" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1857" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1857" t="s">
+    <row r="1873" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1873" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1859" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1859" t="s">
+    <row r="1875" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1875" t="s">
         <v>1077</v>
       </c>
-      <c r="D1859" t="s">
+      <c r="D1875" t="s">
         <v>1078</v>
       </c>
-      <c r="G1859" t="s">
+      <c r="G1875" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1861" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1861" t="s">
+    <row r="1877" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1877" t="s">
         <v>1101</v>
-      </c>
-    </row>
-    <row r="1862" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1862" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1864" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1864" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1864" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J1864" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1866" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1866" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1867" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1867" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1868" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1868" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1869" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1869" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1870" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1870" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1871" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1871" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1873" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1873" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D1873" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J1873" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1875" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1875" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1876" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1876" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="1878" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1878" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1879" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1879" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1880" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1880" t="s">
+        <v>1079</v>
+      </c>
       <c r="D1880" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1881" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D1881" t="s">
-        <v>1116</v>
+        <v>1080</v>
+      </c>
+      <c r="J1880" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="1882" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1882" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1883" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1883" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1884" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1884" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1885" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1885" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1886" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D1886" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1887" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1887" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1889" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1889" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J1889" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1891" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1891" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1892" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1892" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1894" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1894" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1895" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1895" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1896" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1896" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1897" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1897" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1898" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1898" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1899" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1899" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1900" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1900" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1901" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1901" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1902" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D1902" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1888" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C1888" t="s">
+    <row r="1904" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C1904" t="s">
         <v>1083</v>
       </c>
-      <c r="D1888" t="s">
+      <c r="D1904" t="s">
         <v>1084</v>
       </c>
-      <c r="I1888" t="s">
+      <c r="I1904" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1890" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1890" t="s">
+    <row r="1906" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1906" t="s">
         <v>1123</v>
-      </c>
-    </row>
-    <row r="1892" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1892" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1893" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1893" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1894" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1894" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1895" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1895" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1897" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1897" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D1897" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I1897" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1899" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1899" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1900" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1900" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1901" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1901" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1903" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1903" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1904" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D1904" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1906" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1906" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1906" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I1906" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="1908" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1908" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1909" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1909" t="s">
-        <v>1138</v>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1910" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1910" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="1911" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1911" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1913" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C1913" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D1913" t="s">
-        <v>1087</v>
+        <v>1129</v>
       </c>
       <c r="I1913" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1915" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1915" t="s">
-        <v>1141</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1916" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1916" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1917" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C1917" t="s">
-        <v>1128</v>
-      </c>
       <c r="D1917" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I1917" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1919" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1919" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1920" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D1920" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1922" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1922" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I1922" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1924" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1924" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1925" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1925" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1927" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1927" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1929" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1929" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I1929" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1931" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1931" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1933" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C1933" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I1933" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1935" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1935" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1936" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D1936" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1921" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D1921" t="s">
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1937" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1922" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D1922" t="s">
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1938" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1924" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D1924" t="s">
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1940" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1925" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D1925" t="s">
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1941" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1927" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1927">
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1943">
         <v>75</v>
       </c>
-      <c r="B1927" t="s">
+      <c r="B1943" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1929" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1929" s="1" t="s">
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1945" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1929" s="2" t="s">
+      <c r="C1945" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1930" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1930" t="s">
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1946" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1931" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1931" t="s">
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1947" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1933" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1933">
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1949">
         <v>76</v>
       </c>
-      <c r="B1933" t="s">
+      <c r="B1949" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1935" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1935" s="1" t="s">
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1951" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1935" t="s">
+      <c r="C1951" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1936" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1936" t="s">
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C1952" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1937" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1937" t="s">
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1953" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1939" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1939">
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1955">
         <v>77</v>
       </c>
-      <c r="B1939" t="s">
+      <c r="B1955" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1941" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1941" s="1" t="s">
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1957" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1941" t="s">
+      <c r="C1957" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1942" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1942" t="s">
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1958" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1943" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1943" t="s">
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1959" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1944" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1944" t="s">
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1960" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1956" spans="3:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="C1956" s="8" t="s">
+    <row r="1972" spans="3:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C1972" s="8" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1958" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C1958">
+    <row r="1974" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C1974">
         <v>1</v>
       </c>
-      <c r="D1958" t="s">
+      <c r="D1974" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1974" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C1974">
+    <row r="1990" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C1990">
         <v>2</v>
       </c>
-      <c r="D1974" t="s">
+      <c r="D1990" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1976" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D1976">
+    <row r="1992" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D1992">
         <v>1</v>
       </c>
-      <c r="E1976" t="s">
+      <c r="E1992" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1989" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1989">
+    <row r="2005" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D2005">
         <v>2</v>
       </c>
-      <c r="E1989" t="s">
+      <c r="E2005" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="2007" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E2007" t="s">
+    <row r="2023" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2023" t="s">
         <v>1171</v>
       </c>
-      <c r="M2007" t="s">
+      <c r="M2023" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="2008" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E2008" t="s">
+    <row r="2024" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2024" t="s">
         <v>1172</v>
       </c>
-      <c r="M2008" t="s">
+      <c r="M2024" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="2009" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E2009" t="s">
+    <row r="2025" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2025" t="s">
         <v>1176</v>
       </c>
-      <c r="M2009" t="s">
+      <c r="M2025" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="2011" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E2011" t="s">
+    <row r="2027" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2027" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="2013" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E2013" t="s">
+    <row r="2029" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="E2029" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="2015" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="D2015">
+    <row r="2031" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D2031">
         <v>3</v>
       </c>
-      <c r="E2015" t="s">
+      <c r="E2031" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="2017" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D2017">
+    <row r="2033" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2033">
         <v>4</v>
       </c>
-      <c r="E2017" t="s">
+      <c r="E2033" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="2029" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C2029">
+    <row r="2045" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C2045">
         <v>3</v>
       </c>
-      <c r="D2029" t="s">
+      <c r="D2045" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="2031" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D2031" t="s">
+    <row r="2047" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2047" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="2032" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D2032" t="s">
+    <row r="2048" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D2048" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="2034" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2034" t="s">
+    <row r="2050" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2050" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="2035" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2035" t="s">
+    <row r="2051" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2051" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="2037" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2037" t="s">
+    <row r="2053" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2053" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="2039" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2039" t="s">
+    <row r="2055" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2055" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="2041" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2041">
+    <row r="2057" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2057">
         <v>4</v>
       </c>
-      <c r="D2041" t="s">
+      <c r="D2057" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="2043" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2043" t="s">
+    <row r="2059" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2059" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="2044" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2044" t="s">
+    <row r="2060" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2060" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="2056" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2056" t="s">
+    <row r="2072" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2072" t="s">
         <v>1192</v>
-      </c>
-    </row>
-    <row r="2058" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2058">
-        <v>5</v>
-      </c>
-      <c r="D2058" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="2060" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2060" s="2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="2061" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2061" s="2" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="2074" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2074">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2074" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="2076" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2076" t="s">
-        <v>1197</v>
+      <c r="D2076" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="2077" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2077" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="2078" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2078" t="s">
-        <v>1199</v>
+      <c r="D2077" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="2090" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2090">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2090" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="2092" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D2092" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="2093" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2093" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="2094" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2094" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2106" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2106">
+        <v>7</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2108" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2108" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="2094" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2094">
+    <row r="2110" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2110">
         <v>8</v>
       </c>
-      <c r="D2094" t="s">
+      <c r="D2110" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="2096" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2096" t="s">
+    <row r="2112" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2112" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="2098" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2098">
+    <row r="2114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2114">
         <v>78</v>
       </c>
-      <c r="B2098" t="s">
+      <c r="B2114" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="2100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2100" s="1" t="s">
+    <row r="2116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2116" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2100" t="s">
+      <c r="C2116" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="2102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2102" t="s">
+    <row r="2118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2118" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="2103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2103" t="s">
+    <row r="2119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2119" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="2105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2105" t="s">
+    <row r="2121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2121" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="2106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2106" t="s">
+    <row r="2122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2122" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="2108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2108" t="s">
+    <row r="2124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2124" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="2109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2109" t="s">
+    <row r="2125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2125" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="2111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2111" t="s">
+    <row r="2127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2127" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="2112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2112" t="s">
+    <row r="2128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2128" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="2113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2113" t="s">
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2129" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="2115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2115">
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2131">
         <v>79</v>
       </c>
-      <c r="B2115" t="s">
+      <c r="B2131" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="2117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2117" s="1" t="s">
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2133" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2117" t="s">
+      <c r="C2133" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="2118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2118" t="s">
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2134" t="s">
         <v>1223</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2120" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2122">
-        <v>1</v>
-      </c>
-      <c r="D2122" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="2124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2124" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2125" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2127">
-        <v>2</v>
-      </c>
-      <c r="D2127" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="2129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2129" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="2130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2130" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="2132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2132">
-        <v>80</v>
-      </c>
-      <c r="B2132" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="2134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2134" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C2134" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="2135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2135" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="2136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C2136" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2138">
+        <v>1</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2140" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2141" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2143">
+        <v>2</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2145" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2146" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2148">
+        <v>80</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2150" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2151" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2152" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="2137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2137" t="s">
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2153" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="2138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2138" t="s">
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2154" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="2140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2140" t="s">
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2156" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="2141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2141" t="s">
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2157" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="2142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2142" t="s">
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2158" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="2144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2144">
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2160">
         <v>81</v>
       </c>
-      <c r="B2144" t="s">
+      <c r="B2160" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="2146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2146" s="1" t="s">
+    <row r="2162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2162" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2146" s="2" t="s">
+      <c r="C2162" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="2147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2147" t="s">
+    <row r="2163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2163" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="2148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2148" t="s">
+    <row r="2164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2164" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="2149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2149" t="s">
+    <row r="2165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2165" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="2150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2150" t="s">
+    <row r="2166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2166" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="2153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2153" t="s">
+    <row r="2169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2169" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="2155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2155">
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2171">
         <v>1</v>
       </c>
-      <c r="D2155" t="s">
+      <c r="D2171" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="2156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D2156">
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2172">
         <v>1</v>
       </c>
-      <c r="E2156" t="s">
+      <c r="E2172" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="2157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D2157">
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2173">
         <v>2</v>
       </c>
-      <c r="E2157" t="s">
+      <c r="E2173" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="2158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2158">
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2174">
         <v>2</v>
       </c>
-      <c r="D2158" t="s">
+      <c r="D2174" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="2159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C2159">
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C2175">
         <v>3</v>
       </c>
-      <c r="D2159" t="s">
+      <c r="D2175" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="2160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D2160">
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D2176">
         <v>1</v>
       </c>
-      <c r="E2160" t="s">
+      <c r="E2176" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="2161" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2161">
+    <row r="2177" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2177">
         <v>2</v>
       </c>
-      <c r="E2161" t="s">
+      <c r="E2177" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="2162" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C2162">
+    <row r="2178" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C2178">
         <v>3</v>
       </c>
-      <c r="D2162" t="s">
+      <c r="D2178" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="2163" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2163">
+    <row r="2179" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2179">
         <v>1</v>
       </c>
-      <c r="E2163" t="s">
+      <c r="E2179" t="s">
         <v>1257</v>
       </c>
-      <c r="Q2163" t="s">
+      <c r="Q2179" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="2164" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2164">
+    <row r="2180" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2180">
         <v>2</v>
       </c>
-      <c r="E2164" t="s">
+      <c r="E2180" t="s">
         <v>1258</v>
       </c>
-      <c r="Q2164" t="s">
+      <c r="Q2180" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="2165" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D2165">
+    <row r="2181" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="D2181">
         <v>3</v>
       </c>
-      <c r="E2165" t="s">
+      <c r="E2181" t="s">
         <v>1259</v>
       </c>
-      <c r="Q2165" t="s">
+      <c r="Q2181" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="2183" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2183">
+    <row r="2199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2199">
         <v>82</v>
       </c>
-      <c r="B2183" t="s">
+      <c r="B2199" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="2185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2185" s="1" t="s">
+    <row r="2201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2201" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C2185" t="s">
+      <c r="C2201" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="2186" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2186" t="s">
+    <row r="2202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2202" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="2187" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2187" t="s">
+    <row r="2203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2203" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="2188" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2188" t="s">
+    <row r="2204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2204" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="2189" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2189" t="s">
+    <row r="2205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2205" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="2190" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2190" t="s">
+    <row r="2206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2206" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="2191" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2191" t="s">
+    <row r="2207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2207" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="2193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2193">
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2209">
         <v>83</v>
       </c>
-      <c r="B2193" t="s">
+      <c r="B2209" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="2195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2195" s="1" t="s">
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2211" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C2195" t="s">
+      <c r="C2211" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="2196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2196" t="s">
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2212" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="2197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2197" t="s">
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2213" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="2199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2199" t="s">
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2215" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="2200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2200" t="s">
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2216" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="2202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2202" t="s">
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2218" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="2203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2203" t="s">
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2219" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="2205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2205" t="s">
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2221" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="2207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2207">
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2223">
         <v>1</v>
       </c>
-      <c r="D2207" t="s">
+      <c r="D2223" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="2208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2208" t="s">
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2224" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="2209" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2209" t="s">
+    <row r="2225" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2225" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="2211" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2211">
+    <row r="2227" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2227">
         <v>2</v>
       </c>
-      <c r="D2211" t="s">
+      <c r="D2227" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="2212" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2212" t="s">
+    <row r="2228" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2228" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="2213" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2213" t="s">
+    <row r="2229" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2229" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="2214" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2214" t="s">
+    <row r="2230" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2230" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="2216" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2216">
+    <row r="2232" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2232">
         <v>3</v>
       </c>
-      <c r="D2216" t="s">
+      <c r="D2232" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="2217" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2217" t="s">
+    <row r="2233" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2233" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="2218" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2218" t="s">
+    <row r="2234" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2234" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="2219" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2219" t="s">
+    <row r="2235" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2235" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="2221" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C2221">
+    <row r="2237" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C2237">
         <v>4</v>
       </c>
-      <c r="D2221" t="s">
+      <c r="D2237" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="2222" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2222" t="s">
+    <row r="2238" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2238" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="2223" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2223" t="s">
+    <row r="2239" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2239" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="2224" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D2224" t="s">
+    <row r="2240" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D2240" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="2225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2225" t="s">
+    <row r="2241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2241" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="2227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2227">
+    <row r="2243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2243">
         <v>5</v>
       </c>
-      <c r="D2227" t="s">
+      <c r="D2243" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="2228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2228" t="s">
+    <row r="2244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2244" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="2229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2229" t="s">
+    <row r="2245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2245" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="2231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2231">
+    <row r="2247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2247">
         <v>6</v>
       </c>
-      <c r="D2231" t="s">
+      <c r="D2247" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="2232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2232" t="s">
+    <row r="2248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2248" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="2233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2233" t="s">
+    <row r="2249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2249" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="2234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D2234" t="s">
+    <row r="2250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2250" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="2237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2237">
+    <row r="2253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2253">
         <v>84</v>
       </c>
-      <c r="B2237" t="s">
+      <c r="B2253" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="2239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2239" s="1" t="s">
+    <row r="2255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2255" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="2241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2241" t="s">
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2257" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="2242" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2242" t="s">
+    <row r="2258" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2258" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="2244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2244">
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2260">
         <v>65</v>
       </c>
-      <c r="B2244" t="s">
+      <c r="B2260" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="2246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2246" s="1" t="s">
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2262" s="1" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="2248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2248" t="s">
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2264" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="2249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2249" t="s">
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2265" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="2250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2250" t="s">
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2266" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="2251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2251" t="s">
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2267" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="2253" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2253" t="s">
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2269" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="2254" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2254" t="s">
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2270" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2255" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B2255" t="s">
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2271" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="2257" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2257" t="s">
+    <row r="2273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2273" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="2258" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2258" t="s">
+    <row r="2274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2274" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="2260" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2260" t="s">
+    <row r="2276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2276" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="2261" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2261" t="s">
+    <row r="2277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2277" t="s">
         <v>1333</v>
-      </c>
-    </row>
-    <row r="2263" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2263">
-        <v>66</v>
-      </c>
-      <c r="B2263" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2265" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C2265" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2267" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C2267" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2269" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2270" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2271" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2272" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2274" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C2274" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="2276" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2276" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2277" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="2279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2279">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2279" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2281" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2283" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2283" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2285" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2286" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2287" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2288" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2290" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C2290" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2292" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2293" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2295">
+        <v>67</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2297" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C2281" t="s">
+      <c r="C2297" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="2282" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2282" s="1"/>
-    </row>
-    <row r="2283" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2283" s="1"/>
-      <c r="C2283" t="s">
+    <row r="2298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2298" s="1"/>
+    </row>
+    <row r="2299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2299" s="1"/>
+      <c r="C2299" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="2284" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2284" s="1"/>
-      <c r="C2284" t="s">
+    <row r="2300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2300" s="1"/>
+      <c r="C2300" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="2285" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2285" s="1"/>
-      <c r="C2285" t="s">
+    <row r="2301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2301" s="1"/>
+      <c r="C2301" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="2286" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2286" s="1"/>
-    </row>
-    <row r="2287" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2287" s="9">
+    <row r="2302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2302" s="1"/>
+    </row>
+    <row r="2303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2303" s="9">
         <v>68</v>
       </c>
-      <c r="B2287" t="s">
+      <c r="B2303" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="2288" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2288" s="1"/>
-    </row>
-    <row r="2289" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2289" s="1" t="s">
+    <row r="2304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2304" s="1"/>
+    </row>
+    <row r="2305" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2305" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C2289" t="s">
+      <c r="C2305" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="2290" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2290" s="1"/>
-    </row>
-    <row r="2291" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2291" s="1"/>
-      <c r="C2291">
-        <v>1</v>
-      </c>
-      <c r="D2291" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="2292" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2292" s="1"/>
-    </row>
-    <row r="2293" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2293" s="1"/>
-      <c r="D2293" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="2294" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2294" s="1"/>
-      <c r="D2294" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2295" s="1"/>
-      <c r="D2295" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="2296" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2296" s="1"/>
-    </row>
-    <row r="2297" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2297" s="1"/>
-      <c r="C2297">
-        <v>2</v>
-      </c>
-      <c r="D2297" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2298" s="1"/>
-    </row>
-    <row r="2299" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2299" s="1"/>
-      <c r="D2299" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2300" s="1"/>
-      <c r="D2300" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2301" s="1"/>
-    </row>
-    <row r="2302" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2302" s="1"/>
-      <c r="D2302" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F2302" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2303" s="1"/>
-      <c r="F2303" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="2304" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2304" s="1"/>
-      <c r="F2304" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2305" s="1"/>
     </row>
     <row r="2306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2306" s="1"/>
-      <c r="E2306">
-        <v>1</v>
-      </c>
-      <c r="F2306" t="s">
-        <v>1366</v>
-      </c>
     </row>
     <row r="2307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2307" s="1"/>
-      <c r="F2307" t="s">
-        <v>1367</v>
+      <c r="C2307">
+        <v>1</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="2308" spans="1:6" x14ac:dyDescent="0.15">
@@ -19514,53 +19678,47 @@
     </row>
     <row r="2309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2309" s="1"/>
-      <c r="E2309">
-        <v>2</v>
-      </c>
-      <c r="F2309" t="s">
-        <v>1368</v>
+      <c r="D2309" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="2310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2310" s="1"/>
+      <c r="D2310" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="2311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2311" s="1"/>
-      <c r="E2311">
-        <v>3</v>
-      </c>
-      <c r="F2311" t="s">
-        <v>1369</v>
+      <c r="D2311" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="2312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2312" s="1"/>
-      <c r="F2312" t="s">
-        <v>1370</v>
-      </c>
     </row>
     <row r="2313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2313" s="1"/>
+      <c r="C2313">
+        <v>2</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="2314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2314" s="1"/>
-      <c r="E2314">
-        <v>4</v>
-      </c>
-      <c r="F2314" t="s">
-        <v>1371</v>
-      </c>
     </row>
     <row r="2315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2315" s="1"/>
-      <c r="F2315" t="s">
-        <v>1372</v>
+      <c r="D2315" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="2316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2316" s="1"/>
-      <c r="F2316" t="s">
-        <v>1373</v>
+      <c r="D2316" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="2317" spans="1:6" x14ac:dyDescent="0.15">
@@ -19568,33 +19726,154 @@
     </row>
     <row r="2318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2318" s="1"/>
+      <c r="D2318" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="2319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2319" s="1"/>
+      <c r="F2319" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="2320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2320" s="1"/>
-    </row>
-    <row r="2321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F2320" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2321" s="1"/>
     </row>
-    <row r="2322" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2322" s="1"/>
-    </row>
-    <row r="2323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E2322">
+        <v>1</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2323" s="1"/>
-    </row>
-    <row r="2324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F2323" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2324" s="1"/>
+    </row>
+    <row r="2325" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2325" s="1"/>
+      <c r="E2325">
+        <v>2</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2326" s="1"/>
+    </row>
+    <row r="2327" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2327" s="1"/>
+      <c r="E2327">
+        <v>3</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2328" s="1"/>
+      <c r="F2328" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2329" s="1"/>
+    </row>
+    <row r="2330" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2330" s="1"/>
+      <c r="E2330">
+        <v>4</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2331" s="1"/>
+      <c r="F2331" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2332" s="1"/>
+      <c r="F2332" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2333" s="1"/>
+    </row>
+    <row r="2334" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2334" s="9">
+        <v>69</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2335" s="1"/>
+    </row>
+    <row r="2336" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2336" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2337" s="1"/>
+      <c r="C2337" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2338" s="1"/>
+      <c r="C2338" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2339" s="1"/>
+    </row>
+    <row r="2340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2340" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="N85:W85"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="N86:W86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="N87:W87"/>
+    <mergeCell ref="P1044:X1044"/>
+    <mergeCell ref="P1045:X1045"/>
+    <mergeCell ref="P1046:X1046"/>
+    <mergeCell ref="P1047:X1047"/>
+    <mergeCell ref="P1048:X1049"/>
+    <mergeCell ref="G1044:O1044"/>
+    <mergeCell ref="G1045:O1045"/>
+    <mergeCell ref="G1046:O1046"/>
+    <mergeCell ref="G1047:O1047"/>
+    <mergeCell ref="G1048:O1049"/>
+    <mergeCell ref="D1044:F1044"/>
+    <mergeCell ref="D1045:F1045"/>
+    <mergeCell ref="D1046:F1046"/>
+    <mergeCell ref="D1047:F1047"/>
+    <mergeCell ref="D1048:F1049"/>
     <mergeCell ref="D91:M91"/>
     <mergeCell ref="N91:W91"/>
     <mergeCell ref="D88:M88"/>
@@ -19603,21 +19882,12 @@
     <mergeCell ref="N89:W89"/>
     <mergeCell ref="D90:M90"/>
     <mergeCell ref="N90:W90"/>
-    <mergeCell ref="D1044:F1044"/>
-    <mergeCell ref="D1045:F1045"/>
-    <mergeCell ref="D1046:F1046"/>
-    <mergeCell ref="D1047:F1047"/>
-    <mergeCell ref="D1048:F1049"/>
-    <mergeCell ref="G1044:O1044"/>
-    <mergeCell ref="G1045:O1045"/>
-    <mergeCell ref="G1046:O1046"/>
-    <mergeCell ref="G1047:O1047"/>
-    <mergeCell ref="G1048:O1049"/>
-    <mergeCell ref="P1044:X1044"/>
-    <mergeCell ref="P1045:X1045"/>
-    <mergeCell ref="P1046:X1046"/>
-    <mergeCell ref="P1047:X1047"/>
-    <mergeCell ref="P1048:X1049"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="N85:W85"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="N86:W86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="N87:W87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20164B7C-F9A3-4891-9192-338528FEA992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="14340" yWindow="3450" windowWidth="14460" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2342</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AC$2361</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1406">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -9525,11 +9526,87 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Blue-Green Deployment戦略</t>
+    <rPh sb="21" eb="23">
+      <t>センリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別のスタックを効率的に使用して、更新されたアプリケーションを本稼働に不具合をみながらデプロイする</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウリツテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的な方法のひとつです。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue環境</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Green環境</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のアプリケーションをホストする本稼働スタックです。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新されたアプリけしょんをホストするステージングスタックでえす。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9671,17 +9748,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9689,17 +9766,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9735,7 +9812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="20160929-bastion-3"/>
+        <xdr:cNvPr id="2" name="図 1" descr="20160929-bastion-3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9790,7 +9873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="https://docs.aws.amazon.com/ja_jp/dms/latest/userguide/images/datarep-Welcome.png"/>
+        <xdr:cNvPr id="3" name="図 2" descr="https://docs.aws.amazon.com/ja_jp/dms/latest/userguide/images/datarep-Welcome.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9845,7 +9934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="&#10;          パブリックおよびプライベートサブネットの VPC と NAT ゲートウェイ&#10;        "/>
+        <xdr:cNvPr id="4" name="図 3" descr="&#10;          パブリックおよびプライベートサブネットの VPC と NAT ゲートウェイ&#10;        ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9900,7 +9995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-002-640x249.png"/>
+        <xdr:cNvPr id="5" name="図 4" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-002-640x249.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9955,7 +10056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-000-640x249.png"/>
+        <xdr:cNvPr id="6" name="図 5" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-000-640x249.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10010,7 +10117,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="https://stay-ko.be/wp-content/uploads/2017/06/05004501/ELB00-676x662.png"/>
+        <xdr:cNvPr id="7" name="図 6" descr="https://stay-ko.be/wp-content/uploads/2017/06/05004501/ELB00-676x662.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10065,7 +10178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8" descr="vpc-expand-001"/>
+        <xdr:cNvPr id="9" name="図 8" descr="vpc-expand-001">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10120,7 +10239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9" descr="概要"/>
+        <xdr:cNvPr id="10" name="図 9" descr="概要">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10175,7 +10300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10" descr="概要2"/>
+        <xdr:cNvPr id="11" name="図 10" descr="概要2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10230,7 +10361,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11" descr="シナリオ0"/>
+        <xdr:cNvPr id="12" name="図 11" descr="シナリオ0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10285,7 +10422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12" descr="シナリオ1"/>
+        <xdr:cNvPr id="13" name="図 12" descr="シナリオ1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10340,7 +10483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13" descr="シナリオ2"/>
+        <xdr:cNvPr id="14" name="図 13" descr="シナリオ2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10395,7 +10544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14" descr="3"/>
+        <xdr:cNvPr id="15" name="図 14" descr="3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10450,7 +10605,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15" descr="4"/>
+        <xdr:cNvPr id="16" name="図 15" descr="4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10505,7 +10666,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16" descr="5"/>
+        <xdr:cNvPr id="17" name="図 16" descr="5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10560,7 +10727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17" descr="7"/>
+        <xdr:cNvPr id="18" name="図 17" descr="7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10615,7 +10788,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18" descr="8"/>
+        <xdr:cNvPr id="19" name="図 18" descr="8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10670,7 +10849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19" descr="9"/>
+        <xdr:cNvPr id="20" name="図 19" descr="9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10725,7 +10910,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20" descr="10"/>
+        <xdr:cNvPr id="21" name="図 20" descr="10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10780,7 +10971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21" descr="11"/>
+        <xdr:cNvPr id="22" name="図 21" descr="11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10835,7 +11032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22" descr="シナリオ4"/>
+        <xdr:cNvPr id="23" name="図 22" descr="シナリオ4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10890,7 +11093,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23" descr="13"/>
+        <xdr:cNvPr id="24" name="図 23" descr="13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10945,7 +11154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24" descr="14"/>
+        <xdr:cNvPr id="25" name="図 24" descr="14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11000,7 +11215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25" descr="00"/>
+        <xdr:cNvPr id="26" name="図 25" descr="00">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11055,7 +11276,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26" descr="00-0"/>
+        <xdr:cNvPr id="27" name="図 26" descr="00-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11110,7 +11337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-01.png"/>
+        <xdr:cNvPr id="28" name="図 27" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-01.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11165,7 +11398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-02.png"/>
+        <xdr:cNvPr id="29" name="図 28" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-02.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11220,7 +11459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29" descr="05"/>
+        <xdr:cNvPr id="30" name="図 29" descr="05">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11275,7 +11520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30" descr="10"/>
+        <xdr:cNvPr id="31" name="図 30" descr="10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11330,7 +11581,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31" descr="18"/>
+        <xdr:cNvPr id="32" name="図 31" descr="18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11385,7 +11642,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32" descr="24"/>
+        <xdr:cNvPr id="33" name="図 32" descr="24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11440,7 +11703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33" descr="dsm_oracle_to_aurora"/>
+        <xdr:cNvPr id="34" name="図 33" descr="dsm_oracle_to_aurora">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11559,6 +11828,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -11594,6 +11880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11769,11 +12072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2359"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2317" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2338" sqref="C2338"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A177" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12114,186 +12417,186 @@
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10" t="s">
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11" t="s">
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
     </row>
     <row r="87" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12" t="s">
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
     </row>
     <row r="88" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12" t="s">
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11" t="s">
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="18"/>
     </row>
     <row r="90" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12" t="s">
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
     </row>
     <row r="91" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12" t="s">
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93">
@@ -16029,33 +16332,33 @@
       </c>
     </row>
     <row r="1044" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D1044" s="13" t="s">
+      <c r="D1044" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="E1044" s="13"/>
-      <c r="F1044" s="13"/>
-      <c r="G1044" s="13" t="s">
+      <c r="E1044" s="10"/>
+      <c r="F1044" s="10"/>
+      <c r="G1044" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="H1044" s="13"/>
-      <c r="I1044" s="13"/>
-      <c r="J1044" s="13"/>
-      <c r="K1044" s="13"/>
-      <c r="L1044" s="13"/>
-      <c r="M1044" s="13"/>
-      <c r="N1044" s="13"/>
-      <c r="O1044" s="13"/>
-      <c r="P1044" s="13" t="s">
+      <c r="H1044" s="10"/>
+      <c r="I1044" s="10"/>
+      <c r="J1044" s="10"/>
+      <c r="K1044" s="10"/>
+      <c r="L1044" s="10"/>
+      <c r="M1044" s="10"/>
+      <c r="N1044" s="10"/>
+      <c r="O1044" s="10"/>
+      <c r="P1044" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="Q1044" s="13"/>
-      <c r="R1044" s="13"/>
-      <c r="S1044" s="13"/>
-      <c r="T1044" s="13"/>
-      <c r="U1044" s="13"/>
-      <c r="V1044" s="13"/>
-      <c r="W1044" s="13"/>
-      <c r="X1044" s="13"/>
+      <c r="Q1044" s="10"/>
+      <c r="R1044" s="10"/>
+      <c r="S1044" s="10"/>
+      <c r="T1044" s="10"/>
+      <c r="U1044" s="10"/>
+      <c r="V1044" s="10"/>
+      <c r="W1044" s="10"/>
+      <c r="X1044" s="10"/>
     </row>
     <row r="1045" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1045" s="14" t="s">
@@ -16074,17 +16377,17 @@
       <c r="M1045" s="14"/>
       <c r="N1045" s="14"/>
       <c r="O1045" s="14"/>
-      <c r="P1045" s="18" t="s">
+      <c r="P1045" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="Q1045" s="18"/>
-      <c r="R1045" s="18"/>
-      <c r="S1045" s="18"/>
-      <c r="T1045" s="18"/>
-      <c r="U1045" s="18"/>
-      <c r="V1045" s="18"/>
-      <c r="W1045" s="18"/>
-      <c r="X1045" s="18"/>
+      <c r="Q1045" s="11"/>
+      <c r="R1045" s="11"/>
+      <c r="S1045" s="11"/>
+      <c r="T1045" s="11"/>
+      <c r="U1045" s="11"/>
+      <c r="V1045" s="11"/>
+      <c r="W1045" s="11"/>
+      <c r="X1045" s="11"/>
     </row>
     <row r="1046" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1046" s="15" t="s">
@@ -16103,17 +16406,17 @@
       <c r="M1046" s="15"/>
       <c r="N1046" s="15"/>
       <c r="O1046" s="15"/>
-      <c r="P1046" s="16" t="s">
+      <c r="P1046" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="Q1046" s="16"/>
-      <c r="R1046" s="16"/>
-      <c r="S1046" s="16"/>
-      <c r="T1046" s="16"/>
-      <c r="U1046" s="16"/>
-      <c r="V1046" s="16"/>
-      <c r="W1046" s="16"/>
-      <c r="X1046" s="16"/>
+      <c r="Q1046" s="12"/>
+      <c r="R1046" s="12"/>
+      <c r="S1046" s="12"/>
+      <c r="T1046" s="12"/>
+      <c r="U1046" s="12"/>
+      <c r="V1046" s="12"/>
+      <c r="W1046" s="12"/>
+      <c r="X1046" s="12"/>
     </row>
     <row r="1047" spans="3:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D1047" s="14" t="s">
@@ -16132,69 +16435,69 @@
       <c r="M1047" s="14"/>
       <c r="N1047" s="14"/>
       <c r="O1047" s="14"/>
-      <c r="P1047" s="18" t="s">
+      <c r="P1047" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="Q1047" s="18"/>
-      <c r="R1047" s="18"/>
-      <c r="S1047" s="18"/>
-      <c r="T1047" s="18"/>
-      <c r="U1047" s="18"/>
-      <c r="V1047" s="18"/>
-      <c r="W1047" s="18"/>
-      <c r="X1047" s="18"/>
+      <c r="Q1047" s="11"/>
+      <c r="R1047" s="11"/>
+      <c r="S1047" s="11"/>
+      <c r="T1047" s="11"/>
+      <c r="U1047" s="11"/>
+      <c r="V1047" s="11"/>
+      <c r="W1047" s="11"/>
+      <c r="X1047" s="11"/>
     </row>
     <row r="1048" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1048" s="16" t="s">
+      <c r="D1048" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="E1048" s="16"/>
-      <c r="F1048" s="16"/>
-      <c r="G1048" s="17" t="s">
+      <c r="E1048" s="12"/>
+      <c r="F1048" s="12"/>
+      <c r="G1048" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="H1048" s="17"/>
-      <c r="I1048" s="17"/>
-      <c r="J1048" s="17"/>
-      <c r="K1048" s="17"/>
-      <c r="L1048" s="17"/>
-      <c r="M1048" s="17"/>
-      <c r="N1048" s="17"/>
-      <c r="O1048" s="17"/>
-      <c r="P1048" s="19" t="s">
+      <c r="H1048" s="16"/>
+      <c r="I1048" s="16"/>
+      <c r="J1048" s="16"/>
+      <c r="K1048" s="16"/>
+      <c r="L1048" s="16"/>
+      <c r="M1048" s="16"/>
+      <c r="N1048" s="16"/>
+      <c r="O1048" s="16"/>
+      <c r="P1048" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="Q1048" s="19"/>
-      <c r="R1048" s="19"/>
-      <c r="S1048" s="19"/>
-      <c r="T1048" s="19"/>
-      <c r="U1048" s="19"/>
-      <c r="V1048" s="19"/>
-      <c r="W1048" s="19"/>
-      <c r="X1048" s="19"/>
+      <c r="Q1048" s="13"/>
+      <c r="R1048" s="13"/>
+      <c r="S1048" s="13"/>
+      <c r="T1048" s="13"/>
+      <c r="U1048" s="13"/>
+      <c r="V1048" s="13"/>
+      <c r="W1048" s="13"/>
+      <c r="X1048" s="13"/>
     </row>
     <row r="1049" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="D1049" s="16"/>
-      <c r="E1049" s="16"/>
-      <c r="F1049" s="16"/>
-      <c r="G1049" s="17"/>
-      <c r="H1049" s="17"/>
-      <c r="I1049" s="17"/>
-      <c r="J1049" s="17"/>
-      <c r="K1049" s="17"/>
-      <c r="L1049" s="17"/>
-      <c r="M1049" s="17"/>
-      <c r="N1049" s="17"/>
-      <c r="O1049" s="17"/>
-      <c r="P1049" s="19"/>
-      <c r="Q1049" s="19"/>
-      <c r="R1049" s="19"/>
-      <c r="S1049" s="19"/>
-      <c r="T1049" s="19"/>
-      <c r="U1049" s="19"/>
-      <c r="V1049" s="19"/>
-      <c r="W1049" s="19"/>
-      <c r="X1049" s="19"/>
+      <c r="D1049" s="12"/>
+      <c r="E1049" s="12"/>
+      <c r="F1049" s="12"/>
+      <c r="G1049" s="16"/>
+      <c r="H1049" s="16"/>
+      <c r="I1049" s="16"/>
+      <c r="J1049" s="16"/>
+      <c r="K1049" s="16"/>
+      <c r="L1049" s="16"/>
+      <c r="M1049" s="16"/>
+      <c r="N1049" s="16"/>
+      <c r="O1049" s="16"/>
+      <c r="P1049" s="13"/>
+      <c r="Q1049" s="13"/>
+      <c r="R1049" s="13"/>
+      <c r="S1049" s="13"/>
+      <c r="T1049" s="13"/>
+      <c r="U1049" s="13"/>
+      <c r="V1049" s="13"/>
+      <c r="W1049" s="13"/>
+      <c r="X1049" s="13"/>
     </row>
     <row r="1050" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D1050" t="s">
@@ -19821,10 +20124,10 @@
       <c r="A2333" s="1"/>
     </row>
     <row r="2334" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2334" s="9">
+      <c r="A2334" s="1">
         <v>69</v>
       </c>
-      <c r="B2334" t="s">
+      <c r="B2334" s="1" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -19839,41 +20142,118 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="2337" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2337" s="1"/>
       <c r="C2337" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="2338" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2338" s="1"/>
       <c r="C2338" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="2339" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2339" s="1"/>
     </row>
-    <row r="2340" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2340" s="1"/>
+    <row r="2340" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2340" s="1">
+        <v>70</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2341" s="1"/>
+    </row>
+    <row r="2342" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2342" s="1"/>
+      <c r="B2342" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2343" s="1"/>
+      <c r="B2343" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2344" s="1"/>
+    </row>
+    <row r="2345" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2345" s="1"/>
+      <c r="B2345">
+        <v>1</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2346" s="1"/>
+      <c r="B2346">
+        <v>2</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2347" s="1"/>
+    </row>
+    <row r="2348" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2348" s="1"/>
+    </row>
+    <row r="2349" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2349" s="1"/>
+    </row>
+    <row r="2350" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2350" s="1"/>
+    </row>
+    <row r="2351" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2351" s="1"/>
+    </row>
+    <row r="2352" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2352" s="1"/>
+    </row>
+    <row r="2353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2353" s="1"/>
+    </row>
+    <row r="2354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2354" s="1"/>
+    </row>
+    <row r="2355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2355" s="1"/>
+    </row>
+    <row r="2356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2356" s="1"/>
+    </row>
+    <row r="2357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2357" s="1"/>
+    </row>
+    <row r="2358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2358" s="1"/>
+    </row>
+    <row r="2359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2359" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P1044:X1044"/>
-    <mergeCell ref="P1045:X1045"/>
-    <mergeCell ref="P1046:X1046"/>
-    <mergeCell ref="P1047:X1047"/>
-    <mergeCell ref="P1048:X1049"/>
-    <mergeCell ref="G1044:O1044"/>
-    <mergeCell ref="G1045:O1045"/>
-    <mergeCell ref="G1046:O1046"/>
-    <mergeCell ref="G1047:O1047"/>
-    <mergeCell ref="G1048:O1049"/>
-    <mergeCell ref="D1044:F1044"/>
-    <mergeCell ref="D1045:F1045"/>
-    <mergeCell ref="D1046:F1046"/>
-    <mergeCell ref="D1047:F1047"/>
-    <mergeCell ref="D1048:F1049"/>
+    <mergeCell ref="D85:M85"/>
+    <mergeCell ref="N85:W85"/>
+    <mergeCell ref="D86:M86"/>
+    <mergeCell ref="N86:W86"/>
+    <mergeCell ref="D87:M87"/>
+    <mergeCell ref="N87:W87"/>
     <mergeCell ref="D91:M91"/>
     <mergeCell ref="N91:W91"/>
     <mergeCell ref="D88:M88"/>
@@ -19882,12 +20262,21 @@
     <mergeCell ref="N89:W89"/>
     <mergeCell ref="D90:M90"/>
     <mergeCell ref="N90:W90"/>
-    <mergeCell ref="D85:M85"/>
-    <mergeCell ref="N85:W85"/>
-    <mergeCell ref="D86:M86"/>
-    <mergeCell ref="N86:W86"/>
-    <mergeCell ref="D87:M87"/>
-    <mergeCell ref="N87:W87"/>
+    <mergeCell ref="D1044:F1044"/>
+    <mergeCell ref="D1045:F1045"/>
+    <mergeCell ref="D1046:F1046"/>
+    <mergeCell ref="D1047:F1047"/>
+    <mergeCell ref="D1048:F1049"/>
+    <mergeCell ref="G1044:O1044"/>
+    <mergeCell ref="G1045:O1045"/>
+    <mergeCell ref="G1046:O1046"/>
+    <mergeCell ref="G1047:O1047"/>
+    <mergeCell ref="G1048:O1049"/>
+    <mergeCell ref="P1044:X1044"/>
+    <mergeCell ref="P1045:X1045"/>
+    <mergeCell ref="P1046:X1046"/>
+    <mergeCell ref="P1047:X1047"/>
+    <mergeCell ref="P1048:X1049"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Aws/SAP/Udemy.xlsx
+++ b/Aws/SAP/Udemy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$3011</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$3017</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1860">
   <si>
     <t>SWFとは？</t>
     <phoneticPr fontId="1"/>
@@ -12890,6 +12890,21 @@
       <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon DLM（Data Lifecycle Management）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBS スナップショットと EBS-backed AMI の作成、保持、コピー、削除を自動化できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、Amazon CloudWatch イベントに基づいて、お客様と共有されているスナップショットに対し、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント間でスナップショットコピーアクションを自動化することもできます。</t>
   </si>
 </sst>
 </file>
@@ -13103,58 +13118,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13169,14 +13148,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13216,7 +13231,7 @@
         <xdr:cNvPr id="2" name="図 1" descr="20160929-bastion-3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13277,7 +13292,7 @@
         <xdr:cNvPr id="3" name="図 2" descr="https://docs.aws.amazon.com/ja_jp/dms/latest/userguide/images/datarep-Welcome.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13338,7 +13353,7 @@
         <xdr:cNvPr id="4" name="図 3" descr="&#10;          パブリックおよびプライベートサブネットの VPC と NAT ゲートウェイ&#10;        ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13399,7 +13414,7 @@
         <xdr:cNvPr id="5" name="図 4" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-002-640x249.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13460,7 +13475,7 @@
         <xdr:cNvPr id="6" name="図 5" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2018/03/cf-s3-cross-000-640x249.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13521,7 +13536,7 @@
         <xdr:cNvPr id="7" name="図 6" descr="https://stay-ko.be/wp-content/uploads/2017/06/05004501/ELB00-676x662.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13582,7 +13597,7 @@
         <xdr:cNvPr id="9" name="図 8" descr="vpc-expand-001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13643,7 +13658,7 @@
         <xdr:cNvPr id="10" name="図 9" descr="概要">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13704,7 +13719,7 @@
         <xdr:cNvPr id="11" name="図 10" descr="概要2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13765,7 +13780,7 @@
         <xdr:cNvPr id="12" name="図 11" descr="シナリオ0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13826,7 +13841,7 @@
         <xdr:cNvPr id="13" name="図 12" descr="シナリオ1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13887,7 +13902,7 @@
         <xdr:cNvPr id="14" name="図 13" descr="シナリオ2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13948,7 +13963,7 @@
         <xdr:cNvPr id="15" name="図 14" descr="3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14009,7 +14024,7 @@
         <xdr:cNvPr id="16" name="図 15" descr="4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14070,7 +14085,7 @@
         <xdr:cNvPr id="17" name="図 16" descr="5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14131,7 +14146,7 @@
         <xdr:cNvPr id="18" name="図 17" descr="7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14192,7 +14207,7 @@
         <xdr:cNvPr id="19" name="図 18" descr="8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14253,7 +14268,7 @@
         <xdr:cNvPr id="20" name="図 19" descr="9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14314,7 +14329,7 @@
         <xdr:cNvPr id="21" name="図 20" descr="10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14375,7 +14390,7 @@
         <xdr:cNvPr id="22" name="図 21" descr="11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14436,7 +14451,7 @@
         <xdr:cNvPr id="23" name="図 22" descr="シナリオ4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14497,7 +14512,7 @@
         <xdr:cNvPr id="24" name="図 23" descr="13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14558,7 +14573,7 @@
         <xdr:cNvPr id="25" name="図 24" descr="14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14619,7 +14634,7 @@
         <xdr:cNvPr id="26" name="図 25" descr="00">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14680,7 +14695,7 @@
         <xdr:cNvPr id="27" name="図 26" descr="00-0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14741,7 +14756,7 @@
         <xdr:cNvPr id="28" name="図 27" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14802,7 +14817,7 @@
         <xdr:cNvPr id="29" name="図 28" descr="https://cdn-ssl-devio-img.classmethod.jp/wp-content/uploads/2019/10/sa20191004-02.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14863,7 +14878,7 @@
         <xdr:cNvPr id="30" name="図 29" descr="05">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14924,7 +14939,7 @@
         <xdr:cNvPr id="31" name="図 30" descr="10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14985,7 +15000,7 @@
         <xdr:cNvPr id="32" name="図 31" descr="18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15046,7 +15061,7 @@
         <xdr:cNvPr id="33" name="図 32" descr="24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15107,7 +15122,7 @@
         <xdr:cNvPr id="34" name="図 33" descr="dsm_oracle_to_aurora">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15605,10 +15620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3008"/>
+  <dimension ref="A1:X3014"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A264" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3001" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B3014" sqref="B3014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -16009,186 +16024,186 @@
       </c>
     </row>
     <row r="103" spans="1:23">
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="30" t="s">
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
+      <c r="V103" s="18"/>
+      <c r="W103" s="18"/>
     </row>
     <row r="104" spans="1:23" ht="27.75" customHeight="1">
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24" t="s">
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
-      <c r="T104" s="24"/>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="24"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
     </row>
     <row r="105" spans="1:23" ht="27" customHeight="1">
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24" t="s">
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
-      <c r="Q105" s="31"/>
-      <c r="R105" s="31"/>
-      <c r="S105" s="31"/>
-      <c r="T105" s="31"/>
-      <c r="U105" s="31"/>
-      <c r="V105" s="31"/>
-      <c r="W105" s="31"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+      <c r="W105" s="19"/>
     </row>
     <row r="106" spans="1:23">
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31" t="s">
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O106" s="31"/>
-      <c r="P106" s="31"/>
-      <c r="Q106" s="31"/>
-      <c r="R106" s="31"/>
-      <c r="S106" s="31"/>
-      <c r="T106" s="31"/>
-      <c r="U106" s="31"/>
-      <c r="V106" s="31"/>
-      <c r="W106" s="31"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
     </row>
     <row r="107" spans="1:23" ht="26.25" customHeight="1">
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24" t="s">
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="24"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
     </row>
     <row r="108" spans="1:23">
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="31" t="s">
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="31"/>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="31"/>
-      <c r="W108" s="31"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="19"/>
     </row>
     <row r="109" spans="1:23" ht="27" customHeight="1">
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="20" t="s">
         <v>1731</v>
       </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24" t="s">
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20" t="s">
         <v>1731</v>
       </c>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
-      <c r="V109" s="24"/>
-      <c r="W109" s="24"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
     </row>
     <row r="111" spans="1:23">
       <c r="A111">
@@ -18405,196 +18420,196 @@
       </c>
     </row>
     <row r="689" spans="3:16" ht="17.25">
-      <c r="C689" s="25" t="s">
+      <c r="C689" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="D689" s="25"/>
-      <c r="E689" s="25"/>
-      <c r="F689" s="25"/>
-      <c r="G689" s="25" t="s">
+      <c r="D689" s="10"/>
+      <c r="E689" s="10"/>
+      <c r="F689" s="10"/>
+      <c r="G689" s="10" t="s">
         <v>1640</v>
       </c>
-      <c r="H689" s="25"/>
-      <c r="I689" s="25"/>
-      <c r="J689" s="25"/>
-      <c r="K689" s="25" t="s">
+      <c r="H689" s="10"/>
+      <c r="I689" s="10"/>
+      <c r="J689" s="10"/>
+      <c r="K689" s="10" t="s">
         <v>1641</v>
       </c>
-      <c r="L689" s="25"/>
-      <c r="M689" s="25"/>
-      <c r="N689" s="25" t="s">
+      <c r="L689" s="10"/>
+      <c r="M689" s="10"/>
+      <c r="N689" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="O689" s="25"/>
-      <c r="P689" s="25"/>
+      <c r="O689" s="10"/>
+      <c r="P689" s="10"/>
     </row>
     <row r="690" spans="3:16" ht="17.25">
-      <c r="C690" s="26" t="s">
+      <c r="C690" s="13" t="s">
         <v>1643</v>
       </c>
-      <c r="D690" s="26"/>
-      <c r="E690" s="26"/>
-      <c r="F690" s="26"/>
-      <c r="G690" s="28">
+      <c r="D690" s="13"/>
+      <c r="E690" s="13"/>
+      <c r="F690" s="13"/>
+      <c r="G690" s="16">
         <v>41925</v>
       </c>
-      <c r="H690" s="28"/>
-      <c r="I690" s="28"/>
-      <c r="J690" s="28"/>
-      <c r="K690" s="26" t="s">
+      <c r="H690" s="16"/>
+      <c r="I690" s="16"/>
+      <c r="J690" s="16"/>
+      <c r="K690" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="L690" s="26"/>
-      <c r="M690" s="26"/>
-      <c r="N690" s="32">
+      <c r="L690" s="13"/>
+      <c r="M690" s="13"/>
+      <c r="N690" s="11">
         <v>500</v>
       </c>
-      <c r="O690" s="32"/>
-      <c r="P690" s="32"/>
+      <c r="O690" s="11"/>
+      <c r="P690" s="11"/>
     </row>
     <row r="691" spans="3:16" ht="17.25">
-      <c r="C691" s="27" t="s">
+      <c r="C691" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="D691" s="27"/>
-      <c r="E691" s="27"/>
-      <c r="F691" s="27"/>
-      <c r="G691" s="29">
+      <c r="D691" s="14"/>
+      <c r="E691" s="14"/>
+      <c r="F691" s="14"/>
+      <c r="G691" s="17">
         <v>41929</v>
       </c>
-      <c r="H691" s="29"/>
-      <c r="I691" s="29"/>
-      <c r="J691" s="29"/>
-      <c r="K691" s="27" t="s">
+      <c r="H691" s="17"/>
+      <c r="I691" s="17"/>
+      <c r="J691" s="17"/>
+      <c r="K691" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="L691" s="27"/>
-      <c r="M691" s="27"/>
-      <c r="N691" s="33">
+      <c r="L691" s="14"/>
+      <c r="M691" s="14"/>
+      <c r="N691" s="12">
         <v>500</v>
       </c>
-      <c r="O691" s="33"/>
-      <c r="P691" s="33"/>
+      <c r="O691" s="12"/>
+      <c r="P691" s="12"/>
     </row>
     <row r="692" spans="3:16" ht="17.25">
-      <c r="C692" s="26" t="s">
+      <c r="C692" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="D692" s="26"/>
-      <c r="E692" s="26"/>
-      <c r="F692" s="26"/>
-      <c r="G692" s="28">
+      <c r="D692" s="13"/>
+      <c r="E692" s="13"/>
+      <c r="F692" s="13"/>
+      <c r="G692" s="16">
         <v>41922</v>
       </c>
-      <c r="H692" s="28"/>
-      <c r="I692" s="28"/>
-      <c r="J692" s="28"/>
-      <c r="K692" s="26" t="s">
+      <c r="H692" s="16"/>
+      <c r="I692" s="16"/>
+      <c r="J692" s="16"/>
+      <c r="K692" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="L692" s="26"/>
-      <c r="M692" s="26"/>
-      <c r="N692" s="32">
+      <c r="L692" s="13"/>
+      <c r="M692" s="13"/>
+      <c r="N692" s="11">
         <v>400</v>
       </c>
-      <c r="O692" s="32"/>
-      <c r="P692" s="32"/>
+      <c r="O692" s="11"/>
+      <c r="P692" s="11"/>
     </row>
     <row r="693" spans="3:16" ht="17.25">
-      <c r="C693" s="27" t="s">
+      <c r="C693" s="14" t="s">
         <v>1645</v>
       </c>
-      <c r="D693" s="27"/>
-      <c r="E693" s="27"/>
-      <c r="F693" s="27"/>
-      <c r="G693" s="29">
+      <c r="D693" s="14"/>
+      <c r="E693" s="14"/>
+      <c r="F693" s="14"/>
+      <c r="G693" s="17">
         <v>41925</v>
       </c>
-      <c r="H693" s="29"/>
-      <c r="I693" s="29"/>
-      <c r="J693" s="29"/>
-      <c r="K693" s="27" t="s">
+      <c r="H693" s="17"/>
+      <c r="I693" s="17"/>
+      <c r="J693" s="17"/>
+      <c r="K693" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="L693" s="27"/>
-      <c r="M693" s="27"/>
-      <c r="N693" s="33">
+      <c r="L693" s="14"/>
+      <c r="M693" s="14"/>
+      <c r="N693" s="12">
         <v>500</v>
       </c>
-      <c r="O693" s="33"/>
-      <c r="P693" s="33"/>
+      <c r="O693" s="12"/>
+      <c r="P693" s="12"/>
     </row>
     <row r="694" spans="3:16" ht="17.25">
-      <c r="C694" s="26" t="s">
+      <c r="C694" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="D694" s="26"/>
-      <c r="E694" s="26"/>
-      <c r="F694" s="26"/>
-      <c r="G694" s="28">
+      <c r="D694" s="13"/>
+      <c r="E694" s="13"/>
+      <c r="F694" s="13"/>
+      <c r="G694" s="16">
         <v>41926</v>
       </c>
-      <c r="H694" s="28"/>
-      <c r="I694" s="28"/>
-      <c r="J694" s="28"/>
-      <c r="K694" s="26" t="s">
+      <c r="H694" s="16"/>
+      <c r="I694" s="16"/>
+      <c r="J694" s="16"/>
+      <c r="K694" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="L694" s="26"/>
-      <c r="M694" s="26"/>
-      <c r="N694" s="32">
+      <c r="L694" s="13"/>
+      <c r="M694" s="13"/>
+      <c r="N694" s="11">
         <v>400</v>
       </c>
-      <c r="O694" s="32"/>
-      <c r="P694" s="32"/>
+      <c r="O694" s="11"/>
+      <c r="P694" s="11"/>
     </row>
     <row r="695" spans="3:16" ht="17.25">
-      <c r="C695" s="27" t="s">
+      <c r="C695" s="14" t="s">
         <v>1647</v>
       </c>
-      <c r="D695" s="27"/>
-      <c r="E695" s="27"/>
-      <c r="F695" s="27"/>
-      <c r="G695" s="29">
+      <c r="D695" s="14"/>
+      <c r="E695" s="14"/>
+      <c r="F695" s="14"/>
+      <c r="G695" s="17">
         <v>41928</v>
       </c>
-      <c r="H695" s="29"/>
-      <c r="I695" s="29"/>
-      <c r="J695" s="29"/>
-      <c r="K695" s="27" t="s">
+      <c r="H695" s="17"/>
+      <c r="I695" s="17"/>
+      <c r="J695" s="17"/>
+      <c r="K695" s="14" t="s">
         <v>1648</v>
       </c>
-      <c r="L695" s="27"/>
-      <c r="M695" s="27"/>
-      <c r="N695" s="33">
+      <c r="L695" s="14"/>
+      <c r="M695" s="14"/>
+      <c r="N695" s="12">
         <v>700</v>
       </c>
-      <c r="O695" s="33"/>
-      <c r="P695" s="33"/>
+      <c r="O695" s="12"/>
+      <c r="P695" s="12"/>
     </row>
     <row r="696" spans="3:16" ht="17.25">
-      <c r="C696" s="26" t="s">
+      <c r="C696" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="D696" s="26"/>
-      <c r="E696" s="26"/>
-      <c r="F696" s="26"/>
-      <c r="G696" s="28">
+      <c r="D696" s="13"/>
+      <c r="E696" s="13"/>
+      <c r="F696" s="13"/>
+      <c r="G696" s="16">
         <v>41929</v>
       </c>
-      <c r="H696" s="28"/>
-      <c r="I696" s="28"/>
-      <c r="J696" s="28"/>
-      <c r="K696" s="26" t="s">
+      <c r="H696" s="16"/>
+      <c r="I696" s="16"/>
+      <c r="J696" s="16"/>
+      <c r="K696" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="L696" s="26"/>
-      <c r="M696" s="26"/>
-      <c r="N696" s="32">
+      <c r="L696" s="13"/>
+      <c r="M696" s="13"/>
+      <c r="N696" s="11">
         <v>900</v>
       </c>
-      <c r="O696" s="32"/>
-      <c r="P696" s="32"/>
+      <c r="O696" s="11"/>
+      <c r="P696" s="11"/>
     </row>
     <row r="698" spans="3:16">
       <c r="C698" t="s">
@@ -18617,196 +18632,196 @@
       </c>
     </row>
     <row r="704" spans="3:16" ht="17.25">
-      <c r="C704" s="25" t="s">
+      <c r="C704" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="D704" s="25"/>
-      <c r="E704" s="25"/>
-      <c r="F704" s="25"/>
-      <c r="G704" s="34" t="s">
+      <c r="D704" s="10"/>
+      <c r="E704" s="10"/>
+      <c r="F704" s="10"/>
+      <c r="G704" s="15" t="s">
         <v>1653</v>
       </c>
-      <c r="H704" s="25"/>
-      <c r="I704" s="25"/>
-      <c r="J704" s="34" t="s">
+      <c r="H704" s="10"/>
+      <c r="I704" s="10"/>
+      <c r="J704" s="15" t="s">
         <v>1654</v>
       </c>
-      <c r="K704" s="25"/>
-      <c r="L704" s="25"/>
-      <c r="M704" s="25"/>
-      <c r="N704" s="25" t="s">
+      <c r="K704" s="10"/>
+      <c r="L704" s="10"/>
+      <c r="M704" s="10"/>
+      <c r="N704" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="O704" s="25"/>
-      <c r="P704" s="25"/>
+      <c r="O704" s="10"/>
+      <c r="P704" s="10"/>
     </row>
     <row r="705" spans="2:16" ht="17.25">
-      <c r="C705" s="26" t="s">
+      <c r="C705" s="13" t="s">
         <v>1643</v>
       </c>
-      <c r="D705" s="26"/>
-      <c r="E705" s="26"/>
-      <c r="F705" s="26"/>
-      <c r="G705" s="26" t="s">
+      <c r="D705" s="13"/>
+      <c r="E705" s="13"/>
+      <c r="F705" s="13"/>
+      <c r="G705" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="H705" s="26"/>
-      <c r="I705" s="26"/>
-      <c r="J705" s="28">
+      <c r="H705" s="13"/>
+      <c r="I705" s="13"/>
+      <c r="J705" s="16">
         <v>41925</v>
       </c>
-      <c r="K705" s="28"/>
-      <c r="L705" s="28"/>
-      <c r="M705" s="28"/>
-      <c r="N705" s="32">
+      <c r="K705" s="16"/>
+      <c r="L705" s="16"/>
+      <c r="M705" s="16"/>
+      <c r="N705" s="11">
         <v>500</v>
       </c>
-      <c r="O705" s="32"/>
-      <c r="P705" s="32"/>
+      <c r="O705" s="11"/>
+      <c r="P705" s="11"/>
     </row>
     <row r="706" spans="2:16" ht="17.25">
-      <c r="C706" s="27" t="s">
+      <c r="C706" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="D706" s="27"/>
-      <c r="E706" s="27"/>
-      <c r="F706" s="27"/>
-      <c r="G706" s="27" t="s">
+      <c r="D706" s="14"/>
+      <c r="E706" s="14"/>
+      <c r="F706" s="14"/>
+      <c r="G706" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="H706" s="27"/>
-      <c r="I706" s="27"/>
-      <c r="J706" s="29">
+      <c r="H706" s="14"/>
+      <c r="I706" s="14"/>
+      <c r="J706" s="17">
         <v>41929</v>
       </c>
-      <c r="K706" s="29"/>
-      <c r="L706" s="29"/>
-      <c r="M706" s="29"/>
-      <c r="N706" s="33">
+      <c r="K706" s="17"/>
+      <c r="L706" s="17"/>
+      <c r="M706" s="17"/>
+      <c r="N706" s="12">
         <v>500</v>
       </c>
-      <c r="O706" s="33"/>
-      <c r="P706" s="33"/>
+      <c r="O706" s="12"/>
+      <c r="P706" s="12"/>
     </row>
     <row r="707" spans="2:16" ht="17.25">
-      <c r="C707" s="26" t="s">
+      <c r="C707" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="D707" s="26"/>
-      <c r="E707" s="26"/>
-      <c r="F707" s="26"/>
-      <c r="G707" s="26" t="s">
+      <c r="D707" s="13"/>
+      <c r="E707" s="13"/>
+      <c r="F707" s="13"/>
+      <c r="G707" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="H707" s="26"/>
-      <c r="I707" s="26"/>
-      <c r="J707" s="28">
+      <c r="H707" s="13"/>
+      <c r="I707" s="13"/>
+      <c r="J707" s="16">
         <v>41922</v>
       </c>
-      <c r="K707" s="28"/>
-      <c r="L707" s="28"/>
-      <c r="M707" s="28"/>
-      <c r="N707" s="32">
+      <c r="K707" s="16"/>
+      <c r="L707" s="16"/>
+      <c r="M707" s="16"/>
+      <c r="N707" s="11">
         <v>400</v>
       </c>
-      <c r="O707" s="32"/>
-      <c r="P707" s="32"/>
+      <c r="O707" s="11"/>
+      <c r="P707" s="11"/>
     </row>
     <row r="708" spans="2:16" ht="17.25">
-      <c r="C708" s="27" t="s">
+      <c r="C708" s="14" t="s">
         <v>1645</v>
       </c>
-      <c r="D708" s="27"/>
-      <c r="E708" s="27"/>
-      <c r="F708" s="27"/>
-      <c r="G708" s="27" t="s">
+      <c r="D708" s="14"/>
+      <c r="E708" s="14"/>
+      <c r="F708" s="14"/>
+      <c r="G708" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="H708" s="27"/>
-      <c r="I708" s="27"/>
-      <c r="J708" s="29">
+      <c r="H708" s="14"/>
+      <c r="I708" s="14"/>
+      <c r="J708" s="17">
         <v>41925</v>
       </c>
-      <c r="K708" s="29"/>
-      <c r="L708" s="29"/>
-      <c r="M708" s="29"/>
-      <c r="N708" s="33">
+      <c r="K708" s="17"/>
+      <c r="L708" s="17"/>
+      <c r="M708" s="17"/>
+      <c r="N708" s="12">
         <v>500</v>
       </c>
-      <c r="O708" s="33"/>
-      <c r="P708" s="33"/>
+      <c r="O708" s="12"/>
+      <c r="P708" s="12"/>
     </row>
     <row r="709" spans="2:16" ht="17.25">
-      <c r="C709" s="26" t="s">
+      <c r="C709" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="D709" s="26"/>
-      <c r="E709" s="26"/>
-      <c r="F709" s="26"/>
-      <c r="G709" s="26" t="s">
+      <c r="D709" s="13"/>
+      <c r="E709" s="13"/>
+      <c r="F709" s="13"/>
+      <c r="G709" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="H709" s="26"/>
-      <c r="I709" s="26"/>
-      <c r="J709" s="28">
+      <c r="H709" s="13"/>
+      <c r="I709" s="13"/>
+      <c r="J709" s="16">
         <v>41926</v>
       </c>
-      <c r="K709" s="28"/>
-      <c r="L709" s="28"/>
-      <c r="M709" s="28"/>
-      <c r="N709" s="32">
+      <c r="K709" s="16"/>
+      <c r="L709" s="16"/>
+      <c r="M709" s="16"/>
+      <c r="N709" s="11">
         <v>400</v>
       </c>
-      <c r="O709" s="32"/>
-      <c r="P709" s="32"/>
+      <c r="O709" s="11"/>
+      <c r="P709" s="11"/>
     </row>
     <row r="710" spans="2:16" ht="17.25">
-      <c r="C710" s="27" t="s">
+      <c r="C710" s="14" t="s">
         <v>1647</v>
       </c>
-      <c r="D710" s="27"/>
-      <c r="E710" s="27"/>
-      <c r="F710" s="27"/>
-      <c r="G710" s="27" t="s">
+      <c r="D710" s="14"/>
+      <c r="E710" s="14"/>
+      <c r="F710" s="14"/>
+      <c r="G710" s="14" t="s">
         <v>1648</v>
       </c>
-      <c r="H710" s="27"/>
-      <c r="I710" s="27"/>
-      <c r="J710" s="29">
+      <c r="H710" s="14"/>
+      <c r="I710" s="14"/>
+      <c r="J710" s="17">
         <v>41928</v>
       </c>
-      <c r="K710" s="29"/>
-      <c r="L710" s="29"/>
-      <c r="M710" s="29"/>
-      <c r="N710" s="33">
+      <c r="K710" s="17"/>
+      <c r="L710" s="17"/>
+      <c r="M710" s="17"/>
+      <c r="N710" s="12">
         <v>700</v>
       </c>
-      <c r="O710" s="33"/>
-      <c r="P710" s="33"/>
+      <c r="O710" s="12"/>
+      <c r="P710" s="12"/>
     </row>
     <row r="711" spans="2:16" ht="17.25">
-      <c r="C711" s="26" t="s">
+      <c r="C711" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="D711" s="26"/>
-      <c r="E711" s="26"/>
-      <c r="F711" s="26"/>
-      <c r="G711" s="26" t="s">
+      <c r="D711" s="13"/>
+      <c r="E711" s="13"/>
+      <c r="F711" s="13"/>
+      <c r="G711" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="H711" s="26"/>
-      <c r="I711" s="26"/>
-      <c r="J711" s="28">
+      <c r="H711" s="13"/>
+      <c r="I711" s="13"/>
+      <c r="J711" s="16">
         <v>41929</v>
       </c>
-      <c r="K711" s="28"/>
-      <c r="L711" s="28"/>
-      <c r="M711" s="28"/>
-      <c r="N711" s="32">
+      <c r="K711" s="16"/>
+      <c r="L711" s="16"/>
+      <c r="M711" s="16"/>
+      <c r="N711" s="11">
         <v>900</v>
       </c>
-      <c r="O711" s="32"/>
-      <c r="P711" s="32"/>
+      <c r="O711" s="11"/>
+      <c r="P711" s="11"/>
     </row>
     <row r="713" spans="2:16">
       <c r="C713" t="s">
@@ -18867,196 +18882,196 @@
       </c>
     </row>
     <row r="731" spans="3:16" ht="17.25">
-      <c r="C731" s="25" t="s">
+      <c r="C731" s="10" t="s">
         <v>1669</v>
       </c>
-      <c r="D731" s="25"/>
-      <c r="E731" s="25"/>
-      <c r="F731" s="25" t="s">
+      <c r="D731" s="10"/>
+      <c r="E731" s="10"/>
+      <c r="F731" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="G731" s="25"/>
-      <c r="H731" s="25"/>
-      <c r="I731" s="25"/>
-      <c r="J731" s="34" t="s">
+      <c r="G731" s="10"/>
+      <c r="H731" s="10"/>
+      <c r="I731" s="10"/>
+      <c r="J731" s="15" t="s">
         <v>1654</v>
       </c>
-      <c r="K731" s="25"/>
-      <c r="L731" s="25"/>
-      <c r="M731" s="25"/>
-      <c r="N731" s="25" t="s">
+      <c r="K731" s="10"/>
+      <c r="L731" s="10"/>
+      <c r="M731" s="10"/>
+      <c r="N731" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="O731" s="25"/>
-      <c r="P731" s="25"/>
+      <c r="O731" s="10"/>
+      <c r="P731" s="10"/>
     </row>
     <row r="732" spans="3:16" ht="17.25">
-      <c r="C732" s="26" t="s">
+      <c r="C732" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="D732" s="26"/>
-      <c r="E732" s="26"/>
-      <c r="F732" s="26" t="s">
+      <c r="D732" s="13"/>
+      <c r="E732" s="13"/>
+      <c r="F732" s="13" t="s">
         <v>1643</v>
       </c>
-      <c r="G732" s="26"/>
-      <c r="H732" s="26"/>
-      <c r="I732" s="26"/>
-      <c r="J732" s="28">
+      <c r="G732" s="13"/>
+      <c r="H732" s="13"/>
+      <c r="I732" s="13"/>
+      <c r="J732" s="16">
         <v>41925</v>
       </c>
-      <c r="K732" s="28"/>
-      <c r="L732" s="28"/>
-      <c r="M732" s="28"/>
-      <c r="N732" s="32">
+      <c r="K732" s="16"/>
+      <c r="L732" s="16"/>
+      <c r="M732" s="16"/>
+      <c r="N732" s="11">
         <v>500</v>
       </c>
-      <c r="O732" s="32"/>
-      <c r="P732" s="32"/>
+      <c r="O732" s="11"/>
+      <c r="P732" s="11"/>
     </row>
     <row r="733" spans="3:16" ht="17.25">
-      <c r="C733" s="27" t="s">
+      <c r="C733" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="D733" s="27"/>
-      <c r="E733" s="27"/>
-      <c r="F733" s="27" t="s">
+      <c r="D733" s="14"/>
+      <c r="E733" s="14"/>
+      <c r="F733" s="14" t="s">
         <v>1643</v>
       </c>
-      <c r="G733" s="27"/>
-      <c r="H733" s="27"/>
-      <c r="I733" s="27"/>
-      <c r="J733" s="29">
+      <c r="G733" s="14"/>
+      <c r="H733" s="14"/>
+      <c r="I733" s="14"/>
+      <c r="J733" s="17">
         <v>41929</v>
       </c>
-      <c r="K733" s="29"/>
-      <c r="L733" s="29"/>
-      <c r="M733" s="29"/>
-      <c r="N733" s="33">
+      <c r="K733" s="17"/>
+      <c r="L733" s="17"/>
+      <c r="M733" s="17"/>
+      <c r="N733" s="12">
         <v>500</v>
       </c>
-      <c r="O733" s="33"/>
-      <c r="P733" s="33"/>
+      <c r="O733" s="12"/>
+      <c r="P733" s="12"/>
     </row>
     <row r="734" spans="3:16" ht="17.25">
-      <c r="C734" s="26" t="s">
+      <c r="C734" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="D734" s="26"/>
-      <c r="E734" s="26"/>
-      <c r="F734" s="26" t="s">
+      <c r="D734" s="13"/>
+      <c r="E734" s="13"/>
+      <c r="F734" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="G734" s="26"/>
-      <c r="H734" s="26"/>
-      <c r="I734" s="26"/>
-      <c r="J734" s="28">
+      <c r="G734" s="13"/>
+      <c r="H734" s="13"/>
+      <c r="I734" s="13"/>
+      <c r="J734" s="16">
         <v>41922</v>
       </c>
-      <c r="K734" s="28"/>
-      <c r="L734" s="28"/>
-      <c r="M734" s="28"/>
-      <c r="N734" s="32">
+      <c r="K734" s="16"/>
+      <c r="L734" s="16"/>
+      <c r="M734" s="16"/>
+      <c r="N734" s="11">
         <v>400</v>
       </c>
-      <c r="O734" s="32"/>
-      <c r="P734" s="32"/>
+      <c r="O734" s="11"/>
+      <c r="P734" s="11"/>
     </row>
     <row r="735" spans="3:16" ht="17.25">
-      <c r="C735" s="27" t="s">
+      <c r="C735" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="D735" s="27"/>
-      <c r="E735" s="27"/>
-      <c r="F735" s="27" t="s">
+      <c r="D735" s="14"/>
+      <c r="E735" s="14"/>
+      <c r="F735" s="14" t="s">
         <v>1645</v>
       </c>
-      <c r="G735" s="27"/>
-      <c r="H735" s="27"/>
-      <c r="I735" s="27"/>
-      <c r="J735" s="29">
+      <c r="G735" s="14"/>
+      <c r="H735" s="14"/>
+      <c r="I735" s="14"/>
+      <c r="J735" s="17">
         <v>41925</v>
       </c>
-      <c r="K735" s="29"/>
-      <c r="L735" s="29"/>
-      <c r="M735" s="29"/>
-      <c r="N735" s="33">
+      <c r="K735" s="17"/>
+      <c r="L735" s="17"/>
+      <c r="M735" s="17"/>
+      <c r="N735" s="12">
         <v>500</v>
       </c>
-      <c r="O735" s="33"/>
-      <c r="P735" s="33"/>
+      <c r="O735" s="12"/>
+      <c r="P735" s="12"/>
     </row>
     <row r="736" spans="3:16" ht="17.25">
-      <c r="C736" s="26" t="s">
+      <c r="C736" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="D736" s="26"/>
-      <c r="E736" s="26"/>
-      <c r="F736" s="26" t="s">
+      <c r="D736" s="13"/>
+      <c r="E736" s="13"/>
+      <c r="F736" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="G736" s="26"/>
-      <c r="H736" s="26"/>
-      <c r="I736" s="26"/>
-      <c r="J736" s="28">
+      <c r="G736" s="13"/>
+      <c r="H736" s="13"/>
+      <c r="I736" s="13"/>
+      <c r="J736" s="16">
         <v>41926</v>
       </c>
-      <c r="K736" s="28"/>
-      <c r="L736" s="28"/>
-      <c r="M736" s="28"/>
-      <c r="N736" s="32">
+      <c r="K736" s="16"/>
+      <c r="L736" s="16"/>
+      <c r="M736" s="16"/>
+      <c r="N736" s="11">
         <v>400</v>
       </c>
-      <c r="O736" s="32"/>
-      <c r="P736" s="32"/>
+      <c r="O736" s="11"/>
+      <c r="P736" s="11"/>
     </row>
     <row r="737" spans="2:16" ht="17.25">
-      <c r="C737" s="27" t="s">
+      <c r="C737" s="14" t="s">
         <v>1648</v>
       </c>
-      <c r="D737" s="27"/>
-      <c r="E737" s="27"/>
-      <c r="F737" s="27" t="s">
+      <c r="D737" s="14"/>
+      <c r="E737" s="14"/>
+      <c r="F737" s="14" t="s">
         <v>1647</v>
       </c>
-      <c r="G737" s="27"/>
-      <c r="H737" s="27"/>
-      <c r="I737" s="27"/>
-      <c r="J737" s="29">
+      <c r="G737" s="14"/>
+      <c r="H737" s="14"/>
+      <c r="I737" s="14"/>
+      <c r="J737" s="17">
         <v>41928</v>
       </c>
-      <c r="K737" s="29"/>
-      <c r="L737" s="29"/>
-      <c r="M737" s="29"/>
-      <c r="N737" s="33">
+      <c r="K737" s="17"/>
+      <c r="L737" s="17"/>
+      <c r="M737" s="17"/>
+      <c r="N737" s="12">
         <v>700</v>
       </c>
-      <c r="O737" s="33"/>
-      <c r="P737" s="33"/>
+      <c r="O737" s="12"/>
+      <c r="P737" s="12"/>
     </row>
     <row r="738" spans="2:16" ht="17.25">
-      <c r="C738" s="26" t="s">
+      <c r="C738" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="D738" s="26"/>
-      <c r="E738" s="26"/>
-      <c r="F738" s="26" t="s">
+      <c r="D738" s="13"/>
+      <c r="E738" s="13"/>
+      <c r="F738" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="G738" s="26"/>
-      <c r="H738" s="26"/>
-      <c r="I738" s="26"/>
-      <c r="J738" s="28">
+      <c r="G738" s="13"/>
+      <c r="H738" s="13"/>
+      <c r="I738" s="13"/>
+      <c r="J738" s="16">
         <v>41929</v>
       </c>
-      <c r="K738" s="28"/>
-      <c r="L738" s="28"/>
-      <c r="M738" s="28"/>
-      <c r="N738" s="32">
+      <c r="K738" s="16"/>
+      <c r="L738" s="16"/>
+      <c r="M738" s="16"/>
+      <c r="N738" s="11">
         <v>900</v>
       </c>
-      <c r="O738" s="32"/>
-      <c r="P738" s="32"/>
+      <c r="O738" s="11"/>
+      <c r="P738" s="11"/>
     </row>
     <row r="740" spans="2:16">
       <c r="C740" t="s">
@@ -20926,62 +20941,62 @@
       </c>
     </row>
     <row r="1197" spans="3:24" ht="14.25">
-      <c r="D1197" s="16" t="s">
+      <c r="D1197" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="E1197" s="16"/>
-      <c r="F1197" s="16"/>
-      <c r="G1197" s="16" t="s">
+      <c r="E1197" s="26"/>
+      <c r="F1197" s="26"/>
+      <c r="G1197" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="H1197" s="16"/>
-      <c r="I1197" s="16"/>
-      <c r="J1197" s="16"/>
-      <c r="K1197" s="16"/>
-      <c r="L1197" s="16"/>
-      <c r="M1197" s="16"/>
-      <c r="N1197" s="16"/>
-      <c r="O1197" s="16"/>
-      <c r="P1197" s="16" t="s">
+      <c r="H1197" s="26"/>
+      <c r="I1197" s="26"/>
+      <c r="J1197" s="26"/>
+      <c r="K1197" s="26"/>
+      <c r="L1197" s="26"/>
+      <c r="M1197" s="26"/>
+      <c r="N1197" s="26"/>
+      <c r="O1197" s="26"/>
+      <c r="P1197" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="Q1197" s="16"/>
-      <c r="R1197" s="16"/>
-      <c r="S1197" s="16"/>
-      <c r="T1197" s="16"/>
-      <c r="U1197" s="16"/>
-      <c r="V1197" s="16"/>
-      <c r="W1197" s="16"/>
-      <c r="X1197" s="16"/>
+      <c r="Q1197" s="26"/>
+      <c r="R1197" s="26"/>
+      <c r="S1197" s="26"/>
+      <c r="T1197" s="26"/>
+      <c r="U1197" s="26"/>
+      <c r="V1197" s="26"/>
+      <c r="W1197" s="26"/>
+      <c r="X1197" s="26"/>
     </row>
     <row r="1198" spans="3:24" ht="14.25">
-      <c r="D1198" s="20" t="s">
+      <c r="D1198" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="E1198" s="20"/>
-      <c r="F1198" s="20"/>
-      <c r="G1198" s="20" t="s">
+      <c r="E1198" s="22"/>
+      <c r="F1198" s="22"/>
+      <c r="G1198" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="H1198" s="20"/>
-      <c r="I1198" s="20"/>
-      <c r="J1198" s="20"/>
-      <c r="K1198" s="20"/>
-      <c r="L1198" s="20"/>
-      <c r="M1198" s="20"/>
-      <c r="N1198" s="20"/>
-      <c r="O1198" s="20"/>
-      <c r="P1198" s="17" t="s">
+      <c r="H1198" s="22"/>
+      <c r="I1198" s="22"/>
+      <c r="J1198" s="22"/>
+      <c r="K1198" s="22"/>
+      <c r="L1198" s="22"/>
+      <c r="M1198" s="22"/>
+      <c r="N1198" s="22"/>
+      <c r="O1198" s="22"/>
+      <c r="P1198" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="Q1198" s="17"/>
-      <c r="R1198" s="17"/>
-      <c r="S1198" s="17"/>
-      <c r="T1198" s="17"/>
-      <c r="U1198" s="17"/>
-      <c r="V1198" s="17"/>
-      <c r="W1198" s="17"/>
-      <c r="X1198" s="17"/>
+      <c r="Q1198" s="27"/>
+      <c r="R1198" s="27"/>
+      <c r="S1198" s="27"/>
+      <c r="T1198" s="27"/>
+      <c r="U1198" s="27"/>
+      <c r="V1198" s="27"/>
+      <c r="W1198" s="27"/>
+      <c r="X1198" s="27"/>
     </row>
     <row r="1199" spans="3:24" ht="14.25">
       <c r="D1199" s="21" t="s">
@@ -21000,98 +21015,98 @@
       <c r="M1199" s="21"/>
       <c r="N1199" s="21"/>
       <c r="O1199" s="21"/>
-      <c r="P1199" s="18" t="s">
+      <c r="P1199" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="Q1199" s="18"/>
-      <c r="R1199" s="18"/>
-      <c r="S1199" s="18"/>
-      <c r="T1199" s="18"/>
-      <c r="U1199" s="18"/>
-      <c r="V1199" s="18"/>
-      <c r="W1199" s="18"/>
-      <c r="X1199" s="18"/>
+      <c r="Q1199" s="23"/>
+      <c r="R1199" s="23"/>
+      <c r="S1199" s="23"/>
+      <c r="T1199" s="23"/>
+      <c r="U1199" s="23"/>
+      <c r="V1199" s="23"/>
+      <c r="W1199" s="23"/>
+      <c r="X1199" s="23"/>
     </row>
     <row r="1200" spans="3:24" ht="14.25">
-      <c r="D1200" s="20" t="s">
+      <c r="D1200" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="E1200" s="20"/>
-      <c r="F1200" s="20"/>
-      <c r="G1200" s="20" t="s">
+      <c r="E1200" s="22"/>
+      <c r="F1200" s="22"/>
+      <c r="G1200" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="H1200" s="20"/>
-      <c r="I1200" s="20"/>
-      <c r="J1200" s="20"/>
-      <c r="K1200" s="20"/>
-      <c r="L1200" s="20"/>
-      <c r="M1200" s="20"/>
-      <c r="N1200" s="20"/>
-      <c r="O1200" s="20"/>
-      <c r="P1200" s="17" t="s">
+      <c r="H1200" s="22"/>
+      <c r="I1200" s="22"/>
+      <c r="J1200" s="22"/>
+      <c r="K1200" s="22"/>
+      <c r="L1200" s="22"/>
+      <c r="M1200" s="22"/>
+      <c r="N1200" s="22"/>
+      <c r="O1200" s="22"/>
+      <c r="P1200" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="Q1200" s="17"/>
-      <c r="R1200" s="17"/>
-      <c r="S1200" s="17"/>
-      <c r="T1200" s="17"/>
-      <c r="U1200" s="17"/>
-      <c r="V1200" s="17"/>
-      <c r="W1200" s="17"/>
-      <c r="X1200" s="17"/>
+      <c r="Q1200" s="27"/>
+      <c r="R1200" s="27"/>
+      <c r="S1200" s="27"/>
+      <c r="T1200" s="27"/>
+      <c r="U1200" s="27"/>
+      <c r="V1200" s="27"/>
+      <c r="W1200" s="27"/>
+      <c r="X1200" s="27"/>
     </row>
     <row r="1201" spans="3:24">
-      <c r="D1201" s="18" t="s">
+      <c r="D1201" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="E1201" s="18"/>
-      <c r="F1201" s="18"/>
-      <c r="G1201" s="22" t="s">
+      <c r="E1201" s="23"/>
+      <c r="F1201" s="23"/>
+      <c r="G1201" s="29" t="s">
         <v>691</v>
       </c>
-      <c r="H1201" s="22"/>
-      <c r="I1201" s="22"/>
-      <c r="J1201" s="22"/>
-      <c r="K1201" s="22"/>
-      <c r="L1201" s="22"/>
-      <c r="M1201" s="22"/>
-      <c r="N1201" s="22"/>
-      <c r="O1201" s="22"/>
-      <c r="P1201" s="19" t="s">
+      <c r="H1201" s="29"/>
+      <c r="I1201" s="29"/>
+      <c r="J1201" s="29"/>
+      <c r="K1201" s="29"/>
+      <c r="L1201" s="29"/>
+      <c r="M1201" s="29"/>
+      <c r="N1201" s="29"/>
+      <c r="O1201" s="29"/>
+      <c r="P1201" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="Q1201" s="19"/>
-      <c r="R1201" s="19"/>
-      <c r="S1201" s="19"/>
-      <c r="T1201" s="19"/>
-      <c r="U1201" s="19"/>
-      <c r="V1201" s="19"/>
-      <c r="W1201" s="19"/>
-      <c r="X1201" s="19"/>
+      <c r="Q1201" s="28"/>
+      <c r="R1201" s="28"/>
+      <c r="S1201" s="28"/>
+      <c r="T1201" s="28"/>
+      <c r="U1201" s="28"/>
+      <c r="V1201" s="28"/>
+      <c r="W1201" s="28"/>
+      <c r="X1201" s="28"/>
     </row>
     <row r="1202" spans="3:24">
-      <c r="D1202" s="18"/>
-      <c r="E1202" s="18"/>
-      <c r="F1202" s="18"/>
-      <c r="G1202" s="22"/>
-      <c r="H1202" s="22"/>
-      <c r="I1202" s="22"/>
-      <c r="J1202" s="22"/>
-      <c r="K1202" s="22"/>
-      <c r="L1202" s="22"/>
-      <c r="M1202" s="22"/>
-      <c r="N1202" s="22"/>
-      <c r="O1202" s="22"/>
-      <c r="P1202" s="19"/>
-      <c r="Q1202" s="19"/>
-      <c r="R1202" s="19"/>
-      <c r="S1202" s="19"/>
-      <c r="T1202" s="19"/>
-      <c r="U1202" s="19"/>
-      <c r="V1202" s="19"/>
-      <c r="W1202" s="19"/>
-      <c r="X1202" s="19"/>
+      <c r="D1202" s="23"/>
+      <c r="E1202" s="23"/>
+      <c r="F1202" s="23"/>
+      <c r="G1202" s="29"/>
+      <c r="H1202" s="29"/>
+      <c r="I1202" s="29"/>
+      <c r="J1202" s="29"/>
+      <c r="K1202" s="29"/>
+      <c r="L1202" s="29"/>
+      <c r="M1202" s="29"/>
+      <c r="N1202" s="29"/>
+      <c r="O1202" s="29"/>
+      <c r="P1202" s="28"/>
+      <c r="Q1202" s="28"/>
+      <c r="R1202" s="28"/>
+      <c r="S1202" s="28"/>
+      <c r="T1202" s="28"/>
+      <c r="U1202" s="28"/>
+      <c r="V1202" s="28"/>
+      <c r="W1202" s="28"/>
+      <c r="X1202" s="28"/>
     </row>
     <row r="1203" spans="3:24">
       <c r="D1203" t="s">
@@ -25459,1769 +25474,1769 @@
       <c r="A2649" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2649" s="23" t="s">
+      <c r="B2649" s="31" t="s">
         <v>1401</v>
       </c>
-      <c r="C2649" s="23"/>
-      <c r="D2649" s="23"/>
-      <c r="E2649" s="23"/>
-      <c r="F2649" s="23" t="s">
+      <c r="C2649" s="31"/>
+      <c r="D2649" s="31"/>
+      <c r="E2649" s="31"/>
+      <c r="F2649" s="31" t="s">
         <v>1402</v>
       </c>
-      <c r="G2649" s="23"/>
-      <c r="H2649" s="23"/>
-      <c r="I2649" s="23"/>
-      <c r="J2649" s="23"/>
-      <c r="K2649" s="23"/>
-      <c r="L2649" s="23"/>
-      <c r="M2649" s="23"/>
-      <c r="N2649" s="23"/>
-      <c r="O2649" s="23" t="s">
+      <c r="G2649" s="31"/>
+      <c r="H2649" s="31"/>
+      <c r="I2649" s="31"/>
+      <c r="J2649" s="31"/>
+      <c r="K2649" s="31"/>
+      <c r="L2649" s="31"/>
+      <c r="M2649" s="31"/>
+      <c r="N2649" s="31"/>
+      <c r="O2649" s="31" t="s">
         <v>1403</v>
       </c>
-      <c r="P2649" s="23"/>
-      <c r="Q2649" s="23"/>
-      <c r="R2649" s="23"/>
-      <c r="S2649" s="23"/>
-      <c r="T2649" s="23"/>
-      <c r="U2649" s="23"/>
-      <c r="V2649" s="23"/>
-      <c r="W2649" s="23"/>
+      <c r="P2649" s="31"/>
+      <c r="Q2649" s="31"/>
+      <c r="R2649" s="31"/>
+      <c r="S2649" s="31"/>
+      <c r="T2649" s="31"/>
+      <c r="U2649" s="31"/>
+      <c r="V2649" s="31"/>
+      <c r="W2649" s="31"/>
     </row>
     <row r="2650" spans="1:23" ht="15" customHeight="1">
       <c r="A2650" s="1"/>
-      <c r="B2650" s="10" t="s">
+      <c r="B2650" s="30" t="s">
         <v>1404</v>
       </c>
-      <c r="C2650" s="10"/>
-      <c r="D2650" s="10"/>
-      <c r="E2650" s="10"/>
-      <c r="F2650" s="11" t="s">
+      <c r="C2650" s="30"/>
+      <c r="D2650" s="30"/>
+      <c r="E2650" s="30"/>
+      <c r="F2650" s="25" t="s">
         <v>1450</v>
       </c>
-      <c r="G2650" s="11"/>
-      <c r="H2650" s="11"/>
-      <c r="I2650" s="11"/>
-      <c r="J2650" s="11"/>
-      <c r="K2650" s="11"/>
-      <c r="L2650" s="11"/>
-      <c r="M2650" s="11"/>
-      <c r="N2650" s="11"/>
-      <c r="O2650" s="11" t="s">
+      <c r="G2650" s="25"/>
+      <c r="H2650" s="25"/>
+      <c r="I2650" s="25"/>
+      <c r="J2650" s="25"/>
+      <c r="K2650" s="25"/>
+      <c r="L2650" s="25"/>
+      <c r="M2650" s="25"/>
+      <c r="N2650" s="25"/>
+      <c r="O2650" s="25" t="s">
         <v>1405</v>
       </c>
-      <c r="P2650" s="11"/>
-      <c r="Q2650" s="11"/>
-      <c r="R2650" s="11"/>
-      <c r="S2650" s="11"/>
-      <c r="T2650" s="11"/>
-      <c r="U2650" s="11"/>
-      <c r="V2650" s="11"/>
-      <c r="W2650" s="11"/>
+      <c r="P2650" s="25"/>
+      <c r="Q2650" s="25"/>
+      <c r="R2650" s="25"/>
+      <c r="S2650" s="25"/>
+      <c r="T2650" s="25"/>
+      <c r="U2650" s="25"/>
+      <c r="V2650" s="25"/>
+      <c r="W2650" s="25"/>
     </row>
     <row r="2651" spans="1:23">
       <c r="A2651" s="1"/>
-      <c r="B2651" s="10"/>
-      <c r="C2651" s="10"/>
-      <c r="D2651" s="10"/>
-      <c r="E2651" s="10"/>
-      <c r="F2651" s="11"/>
-      <c r="G2651" s="11"/>
-      <c r="H2651" s="11"/>
-      <c r="I2651" s="11"/>
-      <c r="J2651" s="11"/>
-      <c r="K2651" s="11"/>
-      <c r="L2651" s="11"/>
-      <c r="M2651" s="11"/>
-      <c r="N2651" s="11"/>
-      <c r="O2651" s="11"/>
-      <c r="P2651" s="11"/>
-      <c r="Q2651" s="11"/>
-      <c r="R2651" s="11"/>
-      <c r="S2651" s="11"/>
-      <c r="T2651" s="11"/>
-      <c r="U2651" s="11"/>
-      <c r="V2651" s="11"/>
-      <c r="W2651" s="11"/>
+      <c r="B2651" s="30"/>
+      <c r="C2651" s="30"/>
+      <c r="D2651" s="30"/>
+      <c r="E2651" s="30"/>
+      <c r="F2651" s="25"/>
+      <c r="G2651" s="25"/>
+      <c r="H2651" s="25"/>
+      <c r="I2651" s="25"/>
+      <c r="J2651" s="25"/>
+      <c r="K2651" s="25"/>
+      <c r="L2651" s="25"/>
+      <c r="M2651" s="25"/>
+      <c r="N2651" s="25"/>
+      <c r="O2651" s="25"/>
+      <c r="P2651" s="25"/>
+      <c r="Q2651" s="25"/>
+      <c r="R2651" s="25"/>
+      <c r="S2651" s="25"/>
+      <c r="T2651" s="25"/>
+      <c r="U2651" s="25"/>
+      <c r="V2651" s="25"/>
+      <c r="W2651" s="25"/>
     </row>
     <row r="2652" spans="1:23">
       <c r="A2652" s="1"/>
-      <c r="B2652" s="10"/>
-      <c r="C2652" s="10"/>
-      <c r="D2652" s="10"/>
-      <c r="E2652" s="10"/>
-      <c r="F2652" s="11"/>
-      <c r="G2652" s="11"/>
-      <c r="H2652" s="11"/>
-      <c r="I2652" s="11"/>
-      <c r="J2652" s="11"/>
-      <c r="K2652" s="11"/>
-      <c r="L2652" s="11"/>
-      <c r="M2652" s="11"/>
-      <c r="N2652" s="11"/>
-      <c r="O2652" s="11"/>
-      <c r="P2652" s="11"/>
-      <c r="Q2652" s="11"/>
-      <c r="R2652" s="11"/>
-      <c r="S2652" s="11"/>
-      <c r="T2652" s="11"/>
-      <c r="U2652" s="11"/>
-      <c r="V2652" s="11"/>
-      <c r="W2652" s="11"/>
+      <c r="B2652" s="30"/>
+      <c r="C2652" s="30"/>
+      <c r="D2652" s="30"/>
+      <c r="E2652" s="30"/>
+      <c r="F2652" s="25"/>
+      <c r="G2652" s="25"/>
+      <c r="H2652" s="25"/>
+      <c r="I2652" s="25"/>
+      <c r="J2652" s="25"/>
+      <c r="K2652" s="25"/>
+      <c r="L2652" s="25"/>
+      <c r="M2652" s="25"/>
+      <c r="N2652" s="25"/>
+      <c r="O2652" s="25"/>
+      <c r="P2652" s="25"/>
+      <c r="Q2652" s="25"/>
+      <c r="R2652" s="25"/>
+      <c r="S2652" s="25"/>
+      <c r="T2652" s="25"/>
+      <c r="U2652" s="25"/>
+      <c r="V2652" s="25"/>
+      <c r="W2652" s="25"/>
     </row>
     <row r="2653" spans="1:23">
       <c r="A2653" s="1"/>
-      <c r="B2653" s="10"/>
-      <c r="C2653" s="10"/>
-      <c r="D2653" s="10"/>
-      <c r="E2653" s="10"/>
-      <c r="F2653" s="11"/>
-      <c r="G2653" s="11"/>
-      <c r="H2653" s="11"/>
-      <c r="I2653" s="11"/>
-      <c r="J2653" s="11"/>
-      <c r="K2653" s="11"/>
-      <c r="L2653" s="11"/>
-      <c r="M2653" s="11"/>
-      <c r="N2653" s="11"/>
-      <c r="O2653" s="11"/>
-      <c r="P2653" s="11"/>
-      <c r="Q2653" s="11"/>
-      <c r="R2653" s="11"/>
-      <c r="S2653" s="11"/>
-      <c r="T2653" s="11"/>
-      <c r="U2653" s="11"/>
-      <c r="V2653" s="11"/>
-      <c r="W2653" s="11"/>
+      <c r="B2653" s="30"/>
+      <c r="C2653" s="30"/>
+      <c r="D2653" s="30"/>
+      <c r="E2653" s="30"/>
+      <c r="F2653" s="25"/>
+      <c r="G2653" s="25"/>
+      <c r="H2653" s="25"/>
+      <c r="I2653" s="25"/>
+      <c r="J2653" s="25"/>
+      <c r="K2653" s="25"/>
+      <c r="L2653" s="25"/>
+      <c r="M2653" s="25"/>
+      <c r="N2653" s="25"/>
+      <c r="O2653" s="25"/>
+      <c r="P2653" s="25"/>
+      <c r="Q2653" s="25"/>
+      <c r="R2653" s="25"/>
+      <c r="S2653" s="25"/>
+      <c r="T2653" s="25"/>
+      <c r="U2653" s="25"/>
+      <c r="V2653" s="25"/>
+      <c r="W2653" s="25"/>
     </row>
     <row r="2654" spans="1:23">
       <c r="A2654" s="1"/>
-      <c r="B2654" s="10"/>
-      <c r="C2654" s="10"/>
-      <c r="D2654" s="10"/>
-      <c r="E2654" s="10"/>
-      <c r="F2654" s="11"/>
-      <c r="G2654" s="11"/>
-      <c r="H2654" s="11"/>
-      <c r="I2654" s="11"/>
-      <c r="J2654" s="11"/>
-      <c r="K2654" s="11"/>
-      <c r="L2654" s="11"/>
-      <c r="M2654" s="11"/>
-      <c r="N2654" s="11"/>
-      <c r="O2654" s="11"/>
-      <c r="P2654" s="11"/>
-      <c r="Q2654" s="11"/>
-      <c r="R2654" s="11"/>
-      <c r="S2654" s="11"/>
-      <c r="T2654" s="11"/>
-      <c r="U2654" s="11"/>
-      <c r="V2654" s="11"/>
-      <c r="W2654" s="11"/>
+      <c r="B2654" s="30"/>
+      <c r="C2654" s="30"/>
+      <c r="D2654" s="30"/>
+      <c r="E2654" s="30"/>
+      <c r="F2654" s="25"/>
+      <c r="G2654" s="25"/>
+      <c r="H2654" s="25"/>
+      <c r="I2654" s="25"/>
+      <c r="J2654" s="25"/>
+      <c r="K2654" s="25"/>
+      <c r="L2654" s="25"/>
+      <c r="M2654" s="25"/>
+      <c r="N2654" s="25"/>
+      <c r="O2654" s="25"/>
+      <c r="P2654" s="25"/>
+      <c r="Q2654" s="25"/>
+      <c r="R2654" s="25"/>
+      <c r="S2654" s="25"/>
+      <c r="T2654" s="25"/>
+      <c r="U2654" s="25"/>
+      <c r="V2654" s="25"/>
+      <c r="W2654" s="25"/>
     </row>
     <row r="2655" spans="1:23" ht="14.25" customHeight="1">
-      <c r="B2655" s="13" t="s">
+      <c r="B2655" s="24" t="s">
         <v>1406</v>
       </c>
-      <c r="C2655" s="13"/>
-      <c r="D2655" s="13"/>
-      <c r="E2655" s="13"/>
-      <c r="F2655" s="11" t="s">
+      <c r="C2655" s="24"/>
+      <c r="D2655" s="24"/>
+      <c r="E2655" s="24"/>
+      <c r="F2655" s="25" t="s">
         <v>1407</v>
       </c>
-      <c r="G2655" s="11"/>
-      <c r="H2655" s="11"/>
-      <c r="I2655" s="11"/>
-      <c r="J2655" s="11"/>
-      <c r="K2655" s="11"/>
-      <c r="L2655" s="11"/>
-      <c r="M2655" s="11"/>
-      <c r="N2655" s="11"/>
-      <c r="O2655" s="11" t="s">
+      <c r="G2655" s="25"/>
+      <c r="H2655" s="25"/>
+      <c r="I2655" s="25"/>
+      <c r="J2655" s="25"/>
+      <c r="K2655" s="25"/>
+      <c r="L2655" s="25"/>
+      <c r="M2655" s="25"/>
+      <c r="N2655" s="25"/>
+      <c r="O2655" s="25" t="s">
         <v>1408</v>
       </c>
-      <c r="P2655" s="11"/>
-      <c r="Q2655" s="11"/>
-      <c r="R2655" s="11"/>
-      <c r="S2655" s="11"/>
-      <c r="T2655" s="11"/>
-      <c r="U2655" s="11"/>
-      <c r="V2655" s="11"/>
-      <c r="W2655" s="11"/>
+      <c r="P2655" s="25"/>
+      <c r="Q2655" s="25"/>
+      <c r="R2655" s="25"/>
+      <c r="S2655" s="25"/>
+      <c r="T2655" s="25"/>
+      <c r="U2655" s="25"/>
+      <c r="V2655" s="25"/>
+      <c r="W2655" s="25"/>
     </row>
     <row r="2656" spans="1:23" ht="14.25" customHeight="1">
-      <c r="B2656" s="13"/>
-      <c r="C2656" s="13"/>
-      <c r="D2656" s="13"/>
-      <c r="E2656" s="13"/>
-      <c r="F2656" s="11"/>
-      <c r="G2656" s="11"/>
-      <c r="H2656" s="11"/>
-      <c r="I2656" s="11"/>
-      <c r="J2656" s="11"/>
-      <c r="K2656" s="11"/>
-      <c r="L2656" s="11"/>
-      <c r="M2656" s="11"/>
-      <c r="N2656" s="11"/>
-      <c r="O2656" s="11"/>
-      <c r="P2656" s="11"/>
-      <c r="Q2656" s="11"/>
-      <c r="R2656" s="11"/>
-      <c r="S2656" s="11"/>
-      <c r="T2656" s="11"/>
-      <c r="U2656" s="11"/>
-      <c r="V2656" s="11"/>
-      <c r="W2656" s="11"/>
+      <c r="B2656" s="24"/>
+      <c r="C2656" s="24"/>
+      <c r="D2656" s="24"/>
+      <c r="E2656" s="24"/>
+      <c r="F2656" s="25"/>
+      <c r="G2656" s="25"/>
+      <c r="H2656" s="25"/>
+      <c r="I2656" s="25"/>
+      <c r="J2656" s="25"/>
+      <c r="K2656" s="25"/>
+      <c r="L2656" s="25"/>
+      <c r="M2656" s="25"/>
+      <c r="N2656" s="25"/>
+      <c r="O2656" s="25"/>
+      <c r="P2656" s="25"/>
+      <c r="Q2656" s="25"/>
+      <c r="R2656" s="25"/>
+      <c r="S2656" s="25"/>
+      <c r="T2656" s="25"/>
+      <c r="U2656" s="25"/>
+      <c r="V2656" s="25"/>
+      <c r="W2656" s="25"/>
     </row>
     <row r="2657" spans="2:23" ht="15" customHeight="1">
-      <c r="B2657" s="13" t="s">
+      <c r="B2657" s="24" t="s">
         <v>1409</v>
       </c>
-      <c r="C2657" s="13"/>
-      <c r="D2657" s="13"/>
-      <c r="E2657" s="13"/>
-      <c r="F2657" s="11" t="s">
+      <c r="C2657" s="24"/>
+      <c r="D2657" s="24"/>
+      <c r="E2657" s="24"/>
+      <c r="F2657" s="25" t="s">
         <v>1410</v>
       </c>
-      <c r="G2657" s="11"/>
-      <c r="H2657" s="11"/>
-      <c r="I2657" s="11"/>
-      <c r="J2657" s="11"/>
-      <c r="K2657" s="11"/>
-      <c r="L2657" s="11"/>
-      <c r="M2657" s="11"/>
-      <c r="N2657" s="11"/>
-      <c r="O2657" s="11" t="s">
+      <c r="G2657" s="25"/>
+      <c r="H2657" s="25"/>
+      <c r="I2657" s="25"/>
+      <c r="J2657" s="25"/>
+      <c r="K2657" s="25"/>
+      <c r="L2657" s="25"/>
+      <c r="M2657" s="25"/>
+      <c r="N2657" s="25"/>
+      <c r="O2657" s="25" t="s">
         <v>1411</v>
       </c>
-      <c r="P2657" s="11"/>
-      <c r="Q2657" s="11"/>
-      <c r="R2657" s="11"/>
-      <c r="S2657" s="11"/>
-      <c r="T2657" s="11"/>
-      <c r="U2657" s="11"/>
-      <c r="V2657" s="11"/>
-      <c r="W2657" s="11"/>
+      <c r="P2657" s="25"/>
+      <c r="Q2657" s="25"/>
+      <c r="R2657" s="25"/>
+      <c r="S2657" s="25"/>
+      <c r="T2657" s="25"/>
+      <c r="U2657" s="25"/>
+      <c r="V2657" s="25"/>
+      <c r="W2657" s="25"/>
     </row>
     <row r="2658" spans="2:23" ht="15" customHeight="1">
-      <c r="B2658" s="13"/>
-      <c r="C2658" s="13"/>
-      <c r="D2658" s="13"/>
-      <c r="E2658" s="13"/>
-      <c r="F2658" s="11"/>
-      <c r="G2658" s="11"/>
-      <c r="H2658" s="11"/>
-      <c r="I2658" s="11"/>
-      <c r="J2658" s="11"/>
-      <c r="K2658" s="11"/>
-      <c r="L2658" s="11"/>
-      <c r="M2658" s="11"/>
-      <c r="N2658" s="11"/>
-      <c r="O2658" s="11"/>
-      <c r="P2658" s="11"/>
-      <c r="Q2658" s="11"/>
-      <c r="R2658" s="11"/>
-      <c r="S2658" s="11"/>
-      <c r="T2658" s="11"/>
-      <c r="U2658" s="11"/>
-      <c r="V2658" s="11"/>
-      <c r="W2658" s="11"/>
+      <c r="B2658" s="24"/>
+      <c r="C2658" s="24"/>
+      <c r="D2658" s="24"/>
+      <c r="E2658" s="24"/>
+      <c r="F2658" s="25"/>
+      <c r="G2658" s="25"/>
+      <c r="H2658" s="25"/>
+      <c r="I2658" s="25"/>
+      <c r="J2658" s="25"/>
+      <c r="K2658" s="25"/>
+      <c r="L2658" s="25"/>
+      <c r="M2658" s="25"/>
+      <c r="N2658" s="25"/>
+      <c r="O2658" s="25"/>
+      <c r="P2658" s="25"/>
+      <c r="Q2658" s="25"/>
+      <c r="R2658" s="25"/>
+      <c r="S2658" s="25"/>
+      <c r="T2658" s="25"/>
+      <c r="U2658" s="25"/>
+      <c r="V2658" s="25"/>
+      <c r="W2658" s="25"/>
     </row>
     <row r="2659" spans="2:23" ht="15" customHeight="1">
-      <c r="B2659" s="13"/>
-      <c r="C2659" s="13"/>
-      <c r="D2659" s="13"/>
-      <c r="E2659" s="13"/>
-      <c r="F2659" s="11"/>
-      <c r="G2659" s="11"/>
-      <c r="H2659" s="11"/>
-      <c r="I2659" s="11"/>
-      <c r="J2659" s="11"/>
-      <c r="K2659" s="11"/>
-      <c r="L2659" s="11"/>
-      <c r="M2659" s="11"/>
-      <c r="N2659" s="11"/>
-      <c r="O2659" s="11"/>
-      <c r="P2659" s="11"/>
-      <c r="Q2659" s="11"/>
-      <c r="R2659" s="11"/>
-      <c r="S2659" s="11"/>
-      <c r="T2659" s="11"/>
-      <c r="U2659" s="11"/>
-      <c r="V2659" s="11"/>
-      <c r="W2659" s="11"/>
+      <c r="B2659" s="24"/>
+      <c r="C2659" s="24"/>
+      <c r="D2659" s="24"/>
+      <c r="E2659" s="24"/>
+      <c r="F2659" s="25"/>
+      <c r="G2659" s="25"/>
+      <c r="H2659" s="25"/>
+      <c r="I2659" s="25"/>
+      <c r="J2659" s="25"/>
+      <c r="K2659" s="25"/>
+      <c r="L2659" s="25"/>
+      <c r="M2659" s="25"/>
+      <c r="N2659" s="25"/>
+      <c r="O2659" s="25"/>
+      <c r="P2659" s="25"/>
+      <c r="Q2659" s="25"/>
+      <c r="R2659" s="25"/>
+      <c r="S2659" s="25"/>
+      <c r="T2659" s="25"/>
+      <c r="U2659" s="25"/>
+      <c r="V2659" s="25"/>
+      <c r="W2659" s="25"/>
     </row>
     <row r="2660" spans="2:23">
-      <c r="B2660" s="13"/>
-      <c r="C2660" s="13"/>
-      <c r="D2660" s="13"/>
-      <c r="E2660" s="13"/>
-      <c r="F2660" s="11"/>
-      <c r="G2660" s="11"/>
-      <c r="H2660" s="11"/>
-      <c r="I2660" s="11"/>
-      <c r="J2660" s="11"/>
-      <c r="K2660" s="11"/>
-      <c r="L2660" s="11"/>
-      <c r="M2660" s="11"/>
-      <c r="N2660" s="11"/>
-      <c r="O2660" s="11"/>
-      <c r="P2660" s="11"/>
-      <c r="Q2660" s="11"/>
-      <c r="R2660" s="11"/>
-      <c r="S2660" s="11"/>
-      <c r="T2660" s="11"/>
-      <c r="U2660" s="11"/>
-      <c r="V2660" s="11"/>
-      <c r="W2660" s="11"/>
+      <c r="B2660" s="24"/>
+      <c r="C2660" s="24"/>
+      <c r="D2660" s="24"/>
+      <c r="E2660" s="24"/>
+      <c r="F2660" s="25"/>
+      <c r="G2660" s="25"/>
+      <c r="H2660" s="25"/>
+      <c r="I2660" s="25"/>
+      <c r="J2660" s="25"/>
+      <c r="K2660" s="25"/>
+      <c r="L2660" s="25"/>
+      <c r="M2660" s="25"/>
+      <c r="N2660" s="25"/>
+      <c r="O2660" s="25"/>
+      <c r="P2660" s="25"/>
+      <c r="Q2660" s="25"/>
+      <c r="R2660" s="25"/>
+      <c r="S2660" s="25"/>
+      <c r="T2660" s="25"/>
+      <c r="U2660" s="25"/>
+      <c r="V2660" s="25"/>
+      <c r="W2660" s="25"/>
     </row>
     <row r="2661" spans="2:23" ht="15" customHeight="1">
-      <c r="B2661" s="13" t="s">
+      <c r="B2661" s="24" t="s">
         <v>1412</v>
       </c>
-      <c r="C2661" s="13"/>
-      <c r="D2661" s="13"/>
-      <c r="E2661" s="13"/>
-      <c r="F2661" s="11" t="s">
+      <c r="C2661" s="24"/>
+      <c r="D2661" s="24"/>
+      <c r="E2661" s="24"/>
+      <c r="F2661" s="25" t="s">
         <v>1413</v>
       </c>
-      <c r="G2661" s="11"/>
-      <c r="H2661" s="11"/>
-      <c r="I2661" s="11"/>
-      <c r="J2661" s="11"/>
-      <c r="K2661" s="11"/>
-      <c r="L2661" s="11"/>
-      <c r="M2661" s="11"/>
-      <c r="N2661" s="11"/>
-      <c r="O2661" s="11" t="s">
+      <c r="G2661" s="25"/>
+      <c r="H2661" s="25"/>
+      <c r="I2661" s="25"/>
+      <c r="J2661" s="25"/>
+      <c r="K2661" s="25"/>
+      <c r="L2661" s="25"/>
+      <c r="M2661" s="25"/>
+      <c r="N2661" s="25"/>
+      <c r="O2661" s="25" t="s">
         <v>1414</v>
       </c>
-      <c r="P2661" s="11"/>
-      <c r="Q2661" s="11"/>
-      <c r="R2661" s="11"/>
-      <c r="S2661" s="11"/>
-      <c r="T2661" s="11"/>
-      <c r="U2661" s="11"/>
-      <c r="V2661" s="11"/>
-      <c r="W2661" s="11"/>
+      <c r="P2661" s="25"/>
+      <c r="Q2661" s="25"/>
+      <c r="R2661" s="25"/>
+      <c r="S2661" s="25"/>
+      <c r="T2661" s="25"/>
+      <c r="U2661" s="25"/>
+      <c r="V2661" s="25"/>
+      <c r="W2661" s="25"/>
     </row>
     <row r="2662" spans="2:23">
-      <c r="B2662" s="13"/>
-      <c r="C2662" s="13"/>
-      <c r="D2662" s="13"/>
-      <c r="E2662" s="13"/>
-      <c r="F2662" s="11"/>
-      <c r="G2662" s="11"/>
-      <c r="H2662" s="11"/>
-      <c r="I2662" s="11"/>
-      <c r="J2662" s="11"/>
-      <c r="K2662" s="11"/>
-      <c r="L2662" s="11"/>
-      <c r="M2662" s="11"/>
-      <c r="N2662" s="11"/>
-      <c r="O2662" s="11"/>
-      <c r="P2662" s="11"/>
-      <c r="Q2662" s="11"/>
-      <c r="R2662" s="11"/>
-      <c r="S2662" s="11"/>
-      <c r="T2662" s="11"/>
-      <c r="U2662" s="11"/>
-      <c r="V2662" s="11"/>
-      <c r="W2662" s="11"/>
+      <c r="B2662" s="24"/>
+      <c r="C2662" s="24"/>
+      <c r="D2662" s="24"/>
+      <c r="E2662" s="24"/>
+      <c r="F2662" s="25"/>
+      <c r="G2662" s="25"/>
+      <c r="H2662" s="25"/>
+      <c r="I2662" s="25"/>
+      <c r="J2662" s="25"/>
+      <c r="K2662" s="25"/>
+      <c r="L2662" s="25"/>
+      <c r="M2662" s="25"/>
+      <c r="N2662" s="25"/>
+      <c r="O2662" s="25"/>
+      <c r="P2662" s="25"/>
+      <c r="Q2662" s="25"/>
+      <c r="R2662" s="25"/>
+      <c r="S2662" s="25"/>
+      <c r="T2662" s="25"/>
+      <c r="U2662" s="25"/>
+      <c r="V2662" s="25"/>
+      <c r="W2662" s="25"/>
     </row>
     <row r="2663" spans="2:23" ht="15" customHeight="1">
-      <c r="B2663" s="13" t="s">
+      <c r="B2663" s="24" t="s">
         <v>1415</v>
       </c>
-      <c r="C2663" s="13"/>
-      <c r="D2663" s="13"/>
-      <c r="E2663" s="13"/>
-      <c r="F2663" s="11" t="s">
+      <c r="C2663" s="24"/>
+      <c r="D2663" s="24"/>
+      <c r="E2663" s="24"/>
+      <c r="F2663" s="25" t="s">
         <v>1416</v>
       </c>
-      <c r="G2663" s="11"/>
-      <c r="H2663" s="11"/>
-      <c r="I2663" s="11"/>
-      <c r="J2663" s="11"/>
-      <c r="K2663" s="11"/>
-      <c r="L2663" s="11"/>
-      <c r="M2663" s="11"/>
-      <c r="N2663" s="11"/>
-      <c r="O2663" s="11" t="s">
+      <c r="G2663" s="25"/>
+      <c r="H2663" s="25"/>
+      <c r="I2663" s="25"/>
+      <c r="J2663" s="25"/>
+      <c r="K2663" s="25"/>
+      <c r="L2663" s="25"/>
+      <c r="M2663" s="25"/>
+      <c r="N2663" s="25"/>
+      <c r="O2663" s="25" t="s">
         <v>1417</v>
       </c>
-      <c r="P2663" s="11"/>
-      <c r="Q2663" s="11"/>
-      <c r="R2663" s="11"/>
-      <c r="S2663" s="11"/>
-      <c r="T2663" s="11"/>
-      <c r="U2663" s="11"/>
-      <c r="V2663" s="11"/>
-      <c r="W2663" s="11"/>
+      <c r="P2663" s="25"/>
+      <c r="Q2663" s="25"/>
+      <c r="R2663" s="25"/>
+      <c r="S2663" s="25"/>
+      <c r="T2663" s="25"/>
+      <c r="U2663" s="25"/>
+      <c r="V2663" s="25"/>
+      <c r="W2663" s="25"/>
     </row>
     <row r="2664" spans="2:23" ht="15" customHeight="1">
-      <c r="B2664" s="13"/>
-      <c r="C2664" s="13"/>
-      <c r="D2664" s="13"/>
-      <c r="E2664" s="13"/>
-      <c r="F2664" s="11"/>
-      <c r="G2664" s="11"/>
-      <c r="H2664" s="11"/>
-      <c r="I2664" s="11"/>
-      <c r="J2664" s="11"/>
-      <c r="K2664" s="11"/>
-      <c r="L2664" s="11"/>
-      <c r="M2664" s="11"/>
-      <c r="N2664" s="11"/>
-      <c r="O2664" s="11"/>
-      <c r="P2664" s="11"/>
-      <c r="Q2664" s="11"/>
-      <c r="R2664" s="11"/>
-      <c r="S2664" s="11"/>
-      <c r="T2664" s="11"/>
-      <c r="U2664" s="11"/>
-      <c r="V2664" s="11"/>
-      <c r="W2664" s="11"/>
+      <c r="B2664" s="24"/>
+      <c r="C2664" s="24"/>
+      <c r="D2664" s="24"/>
+      <c r="E2664" s="24"/>
+      <c r="F2664" s="25"/>
+      <c r="G2664" s="25"/>
+      <c r="H2664" s="25"/>
+      <c r="I2664" s="25"/>
+      <c r="J2664" s="25"/>
+      <c r="K2664" s="25"/>
+      <c r="L2664" s="25"/>
+      <c r="M2664" s="25"/>
+      <c r="N2664" s="25"/>
+      <c r="O2664" s="25"/>
+      <c r="P2664" s="25"/>
+      <c r="Q2664" s="25"/>
+      <c r="R2664" s="25"/>
+      <c r="S2664" s="25"/>
+      <c r="T2664" s="25"/>
+      <c r="U2664" s="25"/>
+      <c r="V2664" s="25"/>
+      <c r="W2664" s="25"/>
     </row>
     <row r="2665" spans="2:23" ht="15" customHeight="1">
-      <c r="B2665" s="13"/>
-      <c r="C2665" s="13"/>
-      <c r="D2665" s="13"/>
-      <c r="E2665" s="13"/>
-      <c r="F2665" s="11"/>
-      <c r="G2665" s="11"/>
-      <c r="H2665" s="11"/>
-      <c r="I2665" s="11"/>
-      <c r="J2665" s="11"/>
-      <c r="K2665" s="11"/>
-      <c r="L2665" s="11"/>
-      <c r="M2665" s="11"/>
-      <c r="N2665" s="11"/>
-      <c r="O2665" s="11"/>
-      <c r="P2665" s="11"/>
-      <c r="Q2665" s="11"/>
-      <c r="R2665" s="11"/>
-      <c r="S2665" s="11"/>
-      <c r="T2665" s="11"/>
-      <c r="U2665" s="11"/>
-      <c r="V2665" s="11"/>
-      <c r="W2665" s="11"/>
+      <c r="B2665" s="24"/>
+      <c r="C2665" s="24"/>
+      <c r="D2665" s="24"/>
+      <c r="E2665" s="24"/>
+      <c r="F2665" s="25"/>
+      <c r="G2665" s="25"/>
+      <c r="H2665" s="25"/>
+      <c r="I2665" s="25"/>
+      <c r="J2665" s="25"/>
+      <c r="K2665" s="25"/>
+      <c r="L2665" s="25"/>
+      <c r="M2665" s="25"/>
+      <c r="N2665" s="25"/>
+      <c r="O2665" s="25"/>
+      <c r="P2665" s="25"/>
+      <c r="Q2665" s="25"/>
+      <c r="R2665" s="25"/>
+      <c r="S2665" s="25"/>
+      <c r="T2665" s="25"/>
+      <c r="U2665" s="25"/>
+      <c r="V2665" s="25"/>
+      <c r="W2665" s="25"/>
     </row>
     <row r="2666" spans="2:23" ht="15" customHeight="1">
-      <c r="B2666" s="13"/>
-      <c r="C2666" s="13"/>
-      <c r="D2666" s="13"/>
-      <c r="E2666" s="13"/>
-      <c r="F2666" s="11"/>
-      <c r="G2666" s="11"/>
-      <c r="H2666" s="11"/>
-      <c r="I2666" s="11"/>
-      <c r="J2666" s="11"/>
-      <c r="K2666" s="11"/>
-      <c r="L2666" s="11"/>
-      <c r="M2666" s="11"/>
-      <c r="N2666" s="11"/>
-      <c r="O2666" s="11"/>
-      <c r="P2666" s="11"/>
-      <c r="Q2666" s="11"/>
-      <c r="R2666" s="11"/>
-      <c r="S2666" s="11"/>
-      <c r="T2666" s="11"/>
-      <c r="U2666" s="11"/>
-      <c r="V2666" s="11"/>
-      <c r="W2666" s="11"/>
+      <c r="B2666" s="24"/>
+      <c r="C2666" s="24"/>
+      <c r="D2666" s="24"/>
+      <c r="E2666" s="24"/>
+      <c r="F2666" s="25"/>
+      <c r="G2666" s="25"/>
+      <c r="H2666" s="25"/>
+      <c r="I2666" s="25"/>
+      <c r="J2666" s="25"/>
+      <c r="K2666" s="25"/>
+      <c r="L2666" s="25"/>
+      <c r="M2666" s="25"/>
+      <c r="N2666" s="25"/>
+      <c r="O2666" s="25"/>
+      <c r="P2666" s="25"/>
+      <c r="Q2666" s="25"/>
+      <c r="R2666" s="25"/>
+      <c r="S2666" s="25"/>
+      <c r="T2666" s="25"/>
+      <c r="U2666" s="25"/>
+      <c r="V2666" s="25"/>
+      <c r="W2666" s="25"/>
     </row>
     <row r="2667" spans="2:23">
-      <c r="B2667" s="13"/>
-      <c r="C2667" s="13"/>
-      <c r="D2667" s="13"/>
-      <c r="E2667" s="13"/>
-      <c r="F2667" s="11"/>
-      <c r="G2667" s="11"/>
-      <c r="H2667" s="11"/>
-      <c r="I2667" s="11"/>
-      <c r="J2667" s="11"/>
-      <c r="K2667" s="11"/>
-      <c r="L2667" s="11"/>
-      <c r="M2667" s="11"/>
-      <c r="N2667" s="11"/>
-      <c r="O2667" s="11"/>
-      <c r="P2667" s="11"/>
-      <c r="Q2667" s="11"/>
-      <c r="R2667" s="11"/>
-      <c r="S2667" s="11"/>
-      <c r="T2667" s="11"/>
-      <c r="U2667" s="11"/>
-      <c r="V2667" s="11"/>
-      <c r="W2667" s="11"/>
+      <c r="B2667" s="24"/>
+      <c r="C2667" s="24"/>
+      <c r="D2667" s="24"/>
+      <c r="E2667" s="24"/>
+      <c r="F2667" s="25"/>
+      <c r="G2667" s="25"/>
+      <c r="H2667" s="25"/>
+      <c r="I2667" s="25"/>
+      <c r="J2667" s="25"/>
+      <c r="K2667" s="25"/>
+      <c r="L2667" s="25"/>
+      <c r="M2667" s="25"/>
+      <c r="N2667" s="25"/>
+      <c r="O2667" s="25"/>
+      <c r="P2667" s="25"/>
+      <c r="Q2667" s="25"/>
+      <c r="R2667" s="25"/>
+      <c r="S2667" s="25"/>
+      <c r="T2667" s="25"/>
+      <c r="U2667" s="25"/>
+      <c r="V2667" s="25"/>
+      <c r="W2667" s="25"/>
     </row>
     <row r="2668" spans="2:23" ht="15" customHeight="1">
-      <c r="B2668" s="10" t="s">
+      <c r="B2668" s="30" t="s">
         <v>1418</v>
       </c>
-      <c r="C2668" s="10"/>
-      <c r="D2668" s="10"/>
-      <c r="E2668" s="10"/>
-      <c r="F2668" s="11" t="s">
+      <c r="C2668" s="30"/>
+      <c r="D2668" s="30"/>
+      <c r="E2668" s="30"/>
+      <c r="F2668" s="25" t="s">
         <v>1419</v>
       </c>
-      <c r="G2668" s="11"/>
-      <c r="H2668" s="11"/>
-      <c r="I2668" s="11"/>
-      <c r="J2668" s="11"/>
-      <c r="K2668" s="11"/>
-      <c r="L2668" s="11"/>
-      <c r="M2668" s="11"/>
-      <c r="N2668" s="11"/>
-      <c r="O2668" s="11" t="s">
+      <c r="G2668" s="25"/>
+      <c r="H2668" s="25"/>
+      <c r="I2668" s="25"/>
+      <c r="J2668" s="25"/>
+      <c r="K2668" s="25"/>
+      <c r="L2668" s="25"/>
+      <c r="M2668" s="25"/>
+      <c r="N2668" s="25"/>
+      <c r="O2668" s="25" t="s">
         <v>1420</v>
       </c>
-      <c r="P2668" s="11"/>
-      <c r="Q2668" s="11"/>
-      <c r="R2668" s="11"/>
-      <c r="S2668" s="11"/>
-      <c r="T2668" s="11"/>
-      <c r="U2668" s="11"/>
-      <c r="V2668" s="11"/>
-      <c r="W2668" s="11"/>
+      <c r="P2668" s="25"/>
+      <c r="Q2668" s="25"/>
+      <c r="R2668" s="25"/>
+      <c r="S2668" s="25"/>
+      <c r="T2668" s="25"/>
+      <c r="U2668" s="25"/>
+      <c r="V2668" s="25"/>
+      <c r="W2668" s="25"/>
     </row>
     <row r="2669" spans="2:23" ht="15" customHeight="1">
-      <c r="B2669" s="10"/>
-      <c r="C2669" s="10"/>
-      <c r="D2669" s="10"/>
-      <c r="E2669" s="10"/>
-      <c r="F2669" s="11"/>
-      <c r="G2669" s="11"/>
-      <c r="H2669" s="11"/>
-      <c r="I2669" s="11"/>
-      <c r="J2669" s="11"/>
-      <c r="K2669" s="11"/>
-      <c r="L2669" s="11"/>
-      <c r="M2669" s="11"/>
-      <c r="N2669" s="11"/>
-      <c r="O2669" s="11"/>
-      <c r="P2669" s="11"/>
-      <c r="Q2669" s="11"/>
-      <c r="R2669" s="11"/>
-      <c r="S2669" s="11"/>
-      <c r="T2669" s="11"/>
-      <c r="U2669" s="11"/>
-      <c r="V2669" s="11"/>
-      <c r="W2669" s="11"/>
+      <c r="B2669" s="30"/>
+      <c r="C2669" s="30"/>
+      <c r="D2669" s="30"/>
+      <c r="E2669" s="30"/>
+      <c r="F2669" s="25"/>
+      <c r="G2669" s="25"/>
+      <c r="H2669" s="25"/>
+      <c r="I2669" s="25"/>
+      <c r="J2669" s="25"/>
+      <c r="K2669" s="25"/>
+      <c r="L2669" s="25"/>
+      <c r="M2669" s="25"/>
+      <c r="N2669" s="25"/>
+      <c r="O2669" s="25"/>
+      <c r="P2669" s="25"/>
+      <c r="Q2669" s="25"/>
+      <c r="R2669" s="25"/>
+      <c r="S2669" s="25"/>
+      <c r="T2669" s="25"/>
+      <c r="U2669" s="25"/>
+      <c r="V2669" s="25"/>
+      <c r="W2669" s="25"/>
     </row>
     <row r="2670" spans="2:23" ht="15" customHeight="1">
-      <c r="B2670" s="10"/>
-      <c r="C2670" s="10"/>
-      <c r="D2670" s="10"/>
-      <c r="E2670" s="10"/>
-      <c r="F2670" s="11"/>
-      <c r="G2670" s="11"/>
-      <c r="H2670" s="11"/>
-      <c r="I2670" s="11"/>
-      <c r="J2670" s="11"/>
-      <c r="K2670" s="11"/>
-      <c r="L2670" s="11"/>
-      <c r="M2670" s="11"/>
-      <c r="N2670" s="11"/>
-      <c r="O2670" s="11"/>
-      <c r="P2670" s="11"/>
-      <c r="Q2670" s="11"/>
-      <c r="R2670" s="11"/>
-      <c r="S2670" s="11"/>
-      <c r="T2670" s="11"/>
-      <c r="U2670" s="11"/>
-      <c r="V2670" s="11"/>
-      <c r="W2670" s="11"/>
+      <c r="B2670" s="30"/>
+      <c r="C2670" s="30"/>
+      <c r="D2670" s="30"/>
+      <c r="E2670" s="30"/>
+      <c r="F2670" s="25"/>
+      <c r="G2670" s="25"/>
+      <c r="H2670" s="25"/>
+      <c r="I2670" s="25"/>
+      <c r="J2670" s="25"/>
+      <c r="K2670" s="25"/>
+      <c r="L2670" s="25"/>
+      <c r="M2670" s="25"/>
+      <c r="N2670" s="25"/>
+      <c r="O2670" s="25"/>
+      <c r="P2670" s="25"/>
+      <c r="Q2670" s="25"/>
+      <c r="R2670" s="25"/>
+      <c r="S2670" s="25"/>
+      <c r="T2670" s="25"/>
+      <c r="U2670" s="25"/>
+      <c r="V2670" s="25"/>
+      <c r="W2670" s="25"/>
     </row>
     <row r="2671" spans="2:23">
-      <c r="B2671" s="10"/>
-      <c r="C2671" s="10"/>
-      <c r="D2671" s="10"/>
-      <c r="E2671" s="10"/>
-      <c r="F2671" s="11"/>
-      <c r="G2671" s="11"/>
-      <c r="H2671" s="11"/>
-      <c r="I2671" s="11"/>
-      <c r="J2671" s="11"/>
-      <c r="K2671" s="11"/>
-      <c r="L2671" s="11"/>
-      <c r="M2671" s="11"/>
-      <c r="N2671" s="11"/>
-      <c r="O2671" s="11"/>
-      <c r="P2671" s="11"/>
-      <c r="Q2671" s="11"/>
-      <c r="R2671" s="11"/>
-      <c r="S2671" s="11"/>
-      <c r="T2671" s="11"/>
-      <c r="U2671" s="11"/>
-      <c r="V2671" s="11"/>
-      <c r="W2671" s="11"/>
+      <c r="B2671" s="30"/>
+      <c r="C2671" s="30"/>
+      <c r="D2671" s="30"/>
+      <c r="E2671" s="30"/>
+      <c r="F2671" s="25"/>
+      <c r="G2671" s="25"/>
+      <c r="H2671" s="25"/>
+      <c r="I2671" s="25"/>
+      <c r="J2671" s="25"/>
+      <c r="K2671" s="25"/>
+      <c r="L2671" s="25"/>
+      <c r="M2671" s="25"/>
+      <c r="N2671" s="25"/>
+      <c r="O2671" s="25"/>
+      <c r="P2671" s="25"/>
+      <c r="Q2671" s="25"/>
+      <c r="R2671" s="25"/>
+      <c r="S2671" s="25"/>
+      <c r="T2671" s="25"/>
+      <c r="U2671" s="25"/>
+      <c r="V2671" s="25"/>
+      <c r="W2671" s="25"/>
     </row>
     <row r="2672" spans="2:23" ht="15" customHeight="1">
-      <c r="B2672" s="10" t="s">
+      <c r="B2672" s="30" t="s">
         <v>1421</v>
       </c>
-      <c r="C2672" s="10"/>
-      <c r="D2672" s="10"/>
-      <c r="E2672" s="10"/>
-      <c r="F2672" s="11" t="s">
+      <c r="C2672" s="30"/>
+      <c r="D2672" s="30"/>
+      <c r="E2672" s="30"/>
+      <c r="F2672" s="25" t="s">
         <v>1422</v>
       </c>
-      <c r="G2672" s="11"/>
-      <c r="H2672" s="11"/>
-      <c r="I2672" s="11"/>
-      <c r="J2672" s="11"/>
-      <c r="K2672" s="11"/>
-      <c r="L2672" s="11"/>
-      <c r="M2672" s="11"/>
-      <c r="N2672" s="11"/>
-      <c r="O2672" s="11" t="s">
+      <c r="G2672" s="25"/>
+      <c r="H2672" s="25"/>
+      <c r="I2672" s="25"/>
+      <c r="J2672" s="25"/>
+      <c r="K2672" s="25"/>
+      <c r="L2672" s="25"/>
+      <c r="M2672" s="25"/>
+      <c r="N2672" s="25"/>
+      <c r="O2672" s="25" t="s">
         <v>1423</v>
       </c>
-      <c r="P2672" s="11"/>
-      <c r="Q2672" s="11"/>
-      <c r="R2672" s="11"/>
-      <c r="S2672" s="11"/>
-      <c r="T2672" s="11"/>
-      <c r="U2672" s="11"/>
-      <c r="V2672" s="11"/>
-      <c r="W2672" s="11"/>
+      <c r="P2672" s="25"/>
+      <c r="Q2672" s="25"/>
+      <c r="R2672" s="25"/>
+      <c r="S2672" s="25"/>
+      <c r="T2672" s="25"/>
+      <c r="U2672" s="25"/>
+      <c r="V2672" s="25"/>
+      <c r="W2672" s="25"/>
     </row>
     <row r="2673" spans="2:23">
-      <c r="B2673" s="10"/>
-      <c r="C2673" s="10"/>
-      <c r="D2673" s="10"/>
-      <c r="E2673" s="10"/>
-      <c r="F2673" s="11"/>
-      <c r="G2673" s="11"/>
-      <c r="H2673" s="11"/>
-      <c r="I2673" s="11"/>
-      <c r="J2673" s="11"/>
-      <c r="K2673" s="11"/>
-      <c r="L2673" s="11"/>
-      <c r="M2673" s="11"/>
-      <c r="N2673" s="11"/>
-      <c r="O2673" s="11"/>
-      <c r="P2673" s="11"/>
-      <c r="Q2673" s="11"/>
-      <c r="R2673" s="11"/>
-      <c r="S2673" s="11"/>
-      <c r="T2673" s="11"/>
-      <c r="U2673" s="11"/>
-      <c r="V2673" s="11"/>
-      <c r="W2673" s="11"/>
+      <c r="B2673" s="30"/>
+      <c r="C2673" s="30"/>
+      <c r="D2673" s="30"/>
+      <c r="E2673" s="30"/>
+      <c r="F2673" s="25"/>
+      <c r="G2673" s="25"/>
+      <c r="H2673" s="25"/>
+      <c r="I2673" s="25"/>
+      <c r="J2673" s="25"/>
+      <c r="K2673" s="25"/>
+      <c r="L2673" s="25"/>
+      <c r="M2673" s="25"/>
+      <c r="N2673" s="25"/>
+      <c r="O2673" s="25"/>
+      <c r="P2673" s="25"/>
+      <c r="Q2673" s="25"/>
+      <c r="R2673" s="25"/>
+      <c r="S2673" s="25"/>
+      <c r="T2673" s="25"/>
+      <c r="U2673" s="25"/>
+      <c r="V2673" s="25"/>
+      <c r="W2673" s="25"/>
     </row>
     <row r="2674" spans="2:23">
-      <c r="B2674" s="10"/>
-      <c r="C2674" s="10"/>
-      <c r="D2674" s="10"/>
-      <c r="E2674" s="10"/>
-      <c r="F2674" s="11"/>
-      <c r="G2674" s="11"/>
-      <c r="H2674" s="11"/>
-      <c r="I2674" s="11"/>
-      <c r="J2674" s="11"/>
-      <c r="K2674" s="11"/>
-      <c r="L2674" s="11"/>
-      <c r="M2674" s="11"/>
-      <c r="N2674" s="11"/>
-      <c r="O2674" s="11"/>
-      <c r="P2674" s="11"/>
-      <c r="Q2674" s="11"/>
-      <c r="R2674" s="11"/>
-      <c r="S2674" s="11"/>
-      <c r="T2674" s="11"/>
-      <c r="U2674" s="11"/>
-      <c r="V2674" s="11"/>
-      <c r="W2674" s="11"/>
+      <c r="B2674" s="30"/>
+      <c r="C2674" s="30"/>
+      <c r="D2674" s="30"/>
+      <c r="E2674" s="30"/>
+      <c r="F2674" s="25"/>
+      <c r="G2674" s="25"/>
+      <c r="H2674" s="25"/>
+      <c r="I2674" s="25"/>
+      <c r="J2674" s="25"/>
+      <c r="K2674" s="25"/>
+      <c r="L2674" s="25"/>
+      <c r="M2674" s="25"/>
+      <c r="N2674" s="25"/>
+      <c r="O2674" s="25"/>
+      <c r="P2674" s="25"/>
+      <c r="Q2674" s="25"/>
+      <c r="R2674" s="25"/>
+      <c r="S2674" s="25"/>
+      <c r="T2674" s="25"/>
+      <c r="U2674" s="25"/>
+      <c r="V2674" s="25"/>
+      <c r="W2674" s="25"/>
     </row>
     <row r="2675" spans="2:23">
-      <c r="B2675" s="10"/>
-      <c r="C2675" s="10"/>
-      <c r="D2675" s="10"/>
-      <c r="E2675" s="10"/>
-      <c r="F2675" s="11"/>
-      <c r="G2675" s="11"/>
-      <c r="H2675" s="11"/>
-      <c r="I2675" s="11"/>
-      <c r="J2675" s="11"/>
-      <c r="K2675" s="11"/>
-      <c r="L2675" s="11"/>
-      <c r="M2675" s="11"/>
-      <c r="N2675" s="11"/>
-      <c r="O2675" s="11"/>
-      <c r="P2675" s="11"/>
-      <c r="Q2675" s="11"/>
-      <c r="R2675" s="11"/>
-      <c r="S2675" s="11"/>
-      <c r="T2675" s="11"/>
-      <c r="U2675" s="11"/>
-      <c r="V2675" s="11"/>
-      <c r="W2675" s="11"/>
+      <c r="B2675" s="30"/>
+      <c r="C2675" s="30"/>
+      <c r="D2675" s="30"/>
+      <c r="E2675" s="30"/>
+      <c r="F2675" s="25"/>
+      <c r="G2675" s="25"/>
+      <c r="H2675" s="25"/>
+      <c r="I2675" s="25"/>
+      <c r="J2675" s="25"/>
+      <c r="K2675" s="25"/>
+      <c r="L2675" s="25"/>
+      <c r="M2675" s="25"/>
+      <c r="N2675" s="25"/>
+      <c r="O2675" s="25"/>
+      <c r="P2675" s="25"/>
+      <c r="Q2675" s="25"/>
+      <c r="R2675" s="25"/>
+      <c r="S2675" s="25"/>
+      <c r="T2675" s="25"/>
+      <c r="U2675" s="25"/>
+      <c r="V2675" s="25"/>
+      <c r="W2675" s="25"/>
     </row>
     <row r="2676" spans="2:23">
-      <c r="B2676" s="10"/>
-      <c r="C2676" s="10"/>
-      <c r="D2676" s="10"/>
-      <c r="E2676" s="10"/>
-      <c r="F2676" s="11"/>
-      <c r="G2676" s="11"/>
-      <c r="H2676" s="11"/>
-      <c r="I2676" s="11"/>
-      <c r="J2676" s="11"/>
-      <c r="K2676" s="11"/>
-      <c r="L2676" s="11"/>
-      <c r="M2676" s="11"/>
-      <c r="N2676" s="11"/>
-      <c r="O2676" s="11"/>
-      <c r="P2676" s="11"/>
-      <c r="Q2676" s="11"/>
-      <c r="R2676" s="11"/>
-      <c r="S2676" s="11"/>
-      <c r="T2676" s="11"/>
-      <c r="U2676" s="11"/>
-      <c r="V2676" s="11"/>
-      <c r="W2676" s="11"/>
+      <c r="B2676" s="30"/>
+      <c r="C2676" s="30"/>
+      <c r="D2676" s="30"/>
+      <c r="E2676" s="30"/>
+      <c r="F2676" s="25"/>
+      <c r="G2676" s="25"/>
+      <c r="H2676" s="25"/>
+      <c r="I2676" s="25"/>
+      <c r="J2676" s="25"/>
+      <c r="K2676" s="25"/>
+      <c r="L2676" s="25"/>
+      <c r="M2676" s="25"/>
+      <c r="N2676" s="25"/>
+      <c r="O2676" s="25"/>
+      <c r="P2676" s="25"/>
+      <c r="Q2676" s="25"/>
+      <c r="R2676" s="25"/>
+      <c r="S2676" s="25"/>
+      <c r="T2676" s="25"/>
+      <c r="U2676" s="25"/>
+      <c r="V2676" s="25"/>
+      <c r="W2676" s="25"/>
     </row>
     <row r="2677" spans="2:23">
-      <c r="B2677" s="10"/>
-      <c r="C2677" s="10"/>
-      <c r="D2677" s="10"/>
-      <c r="E2677" s="10"/>
-      <c r="F2677" s="11"/>
-      <c r="G2677" s="11"/>
-      <c r="H2677" s="11"/>
-      <c r="I2677" s="11"/>
-      <c r="J2677" s="11"/>
-      <c r="K2677" s="11"/>
-      <c r="L2677" s="11"/>
-      <c r="M2677" s="11"/>
-      <c r="N2677" s="11"/>
-      <c r="O2677" s="11"/>
-      <c r="P2677" s="11"/>
-      <c r="Q2677" s="11"/>
-      <c r="R2677" s="11"/>
-      <c r="S2677" s="11"/>
-      <c r="T2677" s="11"/>
-      <c r="U2677" s="11"/>
-      <c r="V2677" s="11"/>
-      <c r="W2677" s="11"/>
+      <c r="B2677" s="30"/>
+      <c r="C2677" s="30"/>
+      <c r="D2677" s="30"/>
+      <c r="E2677" s="30"/>
+      <c r="F2677" s="25"/>
+      <c r="G2677" s="25"/>
+      <c r="H2677" s="25"/>
+      <c r="I2677" s="25"/>
+      <c r="J2677" s="25"/>
+      <c r="K2677" s="25"/>
+      <c r="L2677" s="25"/>
+      <c r="M2677" s="25"/>
+      <c r="N2677" s="25"/>
+      <c r="O2677" s="25"/>
+      <c r="P2677" s="25"/>
+      <c r="Q2677" s="25"/>
+      <c r="R2677" s="25"/>
+      <c r="S2677" s="25"/>
+      <c r="T2677" s="25"/>
+      <c r="U2677" s="25"/>
+      <c r="V2677" s="25"/>
+      <c r="W2677" s="25"/>
     </row>
     <row r="2678" spans="2:23">
-      <c r="B2678" s="10"/>
-      <c r="C2678" s="10"/>
-      <c r="D2678" s="10"/>
-      <c r="E2678" s="10"/>
-      <c r="F2678" s="11"/>
-      <c r="G2678" s="11"/>
-      <c r="H2678" s="11"/>
-      <c r="I2678" s="11"/>
-      <c r="J2678" s="11"/>
-      <c r="K2678" s="11"/>
-      <c r="L2678" s="11"/>
-      <c r="M2678" s="11"/>
-      <c r="N2678" s="11"/>
-      <c r="O2678" s="11"/>
-      <c r="P2678" s="11"/>
-      <c r="Q2678" s="11"/>
-      <c r="R2678" s="11"/>
-      <c r="S2678" s="11"/>
-      <c r="T2678" s="11"/>
-      <c r="U2678" s="11"/>
-      <c r="V2678" s="11"/>
-      <c r="W2678" s="11"/>
+      <c r="B2678" s="30"/>
+      <c r="C2678" s="30"/>
+      <c r="D2678" s="30"/>
+      <c r="E2678" s="30"/>
+      <c r="F2678" s="25"/>
+      <c r="G2678" s="25"/>
+      <c r="H2678" s="25"/>
+      <c r="I2678" s="25"/>
+      <c r="J2678" s="25"/>
+      <c r="K2678" s="25"/>
+      <c r="L2678" s="25"/>
+      <c r="M2678" s="25"/>
+      <c r="N2678" s="25"/>
+      <c r="O2678" s="25"/>
+      <c r="P2678" s="25"/>
+      <c r="Q2678" s="25"/>
+      <c r="R2678" s="25"/>
+      <c r="S2678" s="25"/>
+      <c r="T2678" s="25"/>
+      <c r="U2678" s="25"/>
+      <c r="V2678" s="25"/>
+      <c r="W2678" s="25"/>
     </row>
     <row r="2679" spans="2:23" ht="15" customHeight="1">
-      <c r="B2679" s="10" t="s">
+      <c r="B2679" s="30" t="s">
         <v>1424</v>
       </c>
-      <c r="C2679" s="10"/>
-      <c r="D2679" s="10"/>
-      <c r="E2679" s="10"/>
-      <c r="F2679" s="11" t="s">
+      <c r="C2679" s="30"/>
+      <c r="D2679" s="30"/>
+      <c r="E2679" s="30"/>
+      <c r="F2679" s="25" t="s">
         <v>1425</v>
       </c>
-      <c r="G2679" s="11"/>
-      <c r="H2679" s="11"/>
-      <c r="I2679" s="11"/>
-      <c r="J2679" s="11"/>
-      <c r="K2679" s="11"/>
-      <c r="L2679" s="11"/>
-      <c r="M2679" s="11"/>
-      <c r="N2679" s="11"/>
-      <c r="O2679" s="11" t="s">
+      <c r="G2679" s="25"/>
+      <c r="H2679" s="25"/>
+      <c r="I2679" s="25"/>
+      <c r="J2679" s="25"/>
+      <c r="K2679" s="25"/>
+      <c r="L2679" s="25"/>
+      <c r="M2679" s="25"/>
+      <c r="N2679" s="25"/>
+      <c r="O2679" s="25" t="s">
         <v>1426</v>
       </c>
-      <c r="P2679" s="11"/>
-      <c r="Q2679" s="11"/>
-      <c r="R2679" s="11"/>
-      <c r="S2679" s="11"/>
-      <c r="T2679" s="11"/>
-      <c r="U2679" s="11"/>
-      <c r="V2679" s="11"/>
-      <c r="W2679" s="11"/>
+      <c r="P2679" s="25"/>
+      <c r="Q2679" s="25"/>
+      <c r="R2679" s="25"/>
+      <c r="S2679" s="25"/>
+      <c r="T2679" s="25"/>
+      <c r="U2679" s="25"/>
+      <c r="V2679" s="25"/>
+      <c r="W2679" s="25"/>
     </row>
     <row r="2680" spans="2:23" ht="15" customHeight="1">
-      <c r="B2680" s="10"/>
-      <c r="C2680" s="10"/>
-      <c r="D2680" s="10"/>
-      <c r="E2680" s="10"/>
-      <c r="F2680" s="11"/>
-      <c r="G2680" s="11"/>
-      <c r="H2680" s="11"/>
-      <c r="I2680" s="11"/>
-      <c r="J2680" s="11"/>
-      <c r="K2680" s="11"/>
-      <c r="L2680" s="11"/>
-      <c r="M2680" s="11"/>
-      <c r="N2680" s="11"/>
-      <c r="O2680" s="11"/>
-      <c r="P2680" s="11"/>
-      <c r="Q2680" s="11"/>
-      <c r="R2680" s="11"/>
-      <c r="S2680" s="11"/>
-      <c r="T2680" s="11"/>
-      <c r="U2680" s="11"/>
-      <c r="V2680" s="11"/>
-      <c r="W2680" s="11"/>
+      <c r="B2680" s="30"/>
+      <c r="C2680" s="30"/>
+      <c r="D2680" s="30"/>
+      <c r="E2680" s="30"/>
+      <c r="F2680" s="25"/>
+      <c r="G2680" s="25"/>
+      <c r="H2680" s="25"/>
+      <c r="I2680" s="25"/>
+      <c r="J2680" s="25"/>
+      <c r="K2680" s="25"/>
+      <c r="L2680" s="25"/>
+      <c r="M2680" s="25"/>
+      <c r="N2680" s="25"/>
+      <c r="O2680" s="25"/>
+      <c r="P2680" s="25"/>
+      <c r="Q2680" s="25"/>
+      <c r="R2680" s="25"/>
+      <c r="S2680" s="25"/>
+      <c r="T2680" s="25"/>
+      <c r="U2680" s="25"/>
+      <c r="V2680" s="25"/>
+      <c r="W2680" s="25"/>
     </row>
     <row r="2681" spans="2:23">
-      <c r="B2681" s="10"/>
-      <c r="C2681" s="10"/>
-      <c r="D2681" s="10"/>
-      <c r="E2681" s="10"/>
-      <c r="F2681" s="11"/>
-      <c r="G2681" s="11"/>
-      <c r="H2681" s="11"/>
-      <c r="I2681" s="11"/>
-      <c r="J2681" s="11"/>
-      <c r="K2681" s="11"/>
-      <c r="L2681" s="11"/>
-      <c r="M2681" s="11"/>
-      <c r="N2681" s="11"/>
-      <c r="O2681" s="11"/>
-      <c r="P2681" s="11"/>
-      <c r="Q2681" s="11"/>
-      <c r="R2681" s="11"/>
-      <c r="S2681" s="11"/>
-      <c r="T2681" s="11"/>
-      <c r="U2681" s="11"/>
-      <c r="V2681" s="11"/>
-      <c r="W2681" s="11"/>
+      <c r="B2681" s="30"/>
+      <c r="C2681" s="30"/>
+      <c r="D2681" s="30"/>
+      <c r="E2681" s="30"/>
+      <c r="F2681" s="25"/>
+      <c r="G2681" s="25"/>
+      <c r="H2681" s="25"/>
+      <c r="I2681" s="25"/>
+      <c r="J2681" s="25"/>
+      <c r="K2681" s="25"/>
+      <c r="L2681" s="25"/>
+      <c r="M2681" s="25"/>
+      <c r="N2681" s="25"/>
+      <c r="O2681" s="25"/>
+      <c r="P2681" s="25"/>
+      <c r="Q2681" s="25"/>
+      <c r="R2681" s="25"/>
+      <c r="S2681" s="25"/>
+      <c r="T2681" s="25"/>
+      <c r="U2681" s="25"/>
+      <c r="V2681" s="25"/>
+      <c r="W2681" s="25"/>
     </row>
     <row r="2682" spans="2:23" ht="15" customHeight="1">
-      <c r="B2682" s="10" t="s">
+      <c r="B2682" s="30" t="s">
         <v>1427</v>
       </c>
-      <c r="C2682" s="10"/>
-      <c r="D2682" s="10"/>
-      <c r="E2682" s="10"/>
-      <c r="F2682" s="11" t="s">
+      <c r="C2682" s="30"/>
+      <c r="D2682" s="30"/>
+      <c r="E2682" s="30"/>
+      <c r="F2682" s="25" t="s">
         <v>1428</v>
       </c>
-      <c r="G2682" s="11"/>
-      <c r="H2682" s="11"/>
-      <c r="I2682" s="11"/>
-      <c r="J2682" s="11"/>
-      <c r="K2682" s="11"/>
-      <c r="L2682" s="11"/>
-      <c r="M2682" s="11"/>
-      <c r="N2682" s="11"/>
-      <c r="O2682" s="11" t="s">
+      <c r="G2682" s="25"/>
+      <c r="H2682" s="25"/>
+      <c r="I2682" s="25"/>
+      <c r="J2682" s="25"/>
+      <c r="K2682" s="25"/>
+      <c r="L2682" s="25"/>
+      <c r="M2682" s="25"/>
+      <c r="N2682" s="25"/>
+      <c r="O2682" s="25" t="s">
         <v>1429</v>
       </c>
-      <c r="P2682" s="11"/>
-      <c r="Q2682" s="11"/>
-      <c r="R2682" s="11"/>
-      <c r="S2682" s="11"/>
-      <c r="T2682" s="11"/>
-      <c r="U2682" s="11"/>
-      <c r="V2682" s="11"/>
-      <c r="W2682" s="11"/>
+      <c r="P2682" s="25"/>
+      <c r="Q2682" s="25"/>
+      <c r="R2682" s="25"/>
+      <c r="S2682" s="25"/>
+      <c r="T2682" s="25"/>
+      <c r="U2682" s="25"/>
+      <c r="V2682" s="25"/>
+      <c r="W2682" s="25"/>
     </row>
     <row r="2683" spans="2:23">
-      <c r="B2683" s="10"/>
-      <c r="C2683" s="10"/>
-      <c r="D2683" s="10"/>
-      <c r="E2683" s="10"/>
-      <c r="F2683" s="11"/>
-      <c r="G2683" s="11"/>
-      <c r="H2683" s="11"/>
-      <c r="I2683" s="11"/>
-      <c r="J2683" s="11"/>
-      <c r="K2683" s="11"/>
-      <c r="L2683" s="11"/>
-      <c r="M2683" s="11"/>
-      <c r="N2683" s="11"/>
-      <c r="O2683" s="11"/>
-      <c r="P2683" s="11"/>
-      <c r="Q2683" s="11"/>
-      <c r="R2683" s="11"/>
-      <c r="S2683" s="11"/>
-      <c r="T2683" s="11"/>
-      <c r="U2683" s="11"/>
-      <c r="V2683" s="11"/>
-      <c r="W2683" s="11"/>
+      <c r="B2683" s="30"/>
+      <c r="C2683" s="30"/>
+      <c r="D2683" s="30"/>
+      <c r="E2683" s="30"/>
+      <c r="F2683" s="25"/>
+      <c r="G2683" s="25"/>
+      <c r="H2683" s="25"/>
+      <c r="I2683" s="25"/>
+      <c r="J2683" s="25"/>
+      <c r="K2683" s="25"/>
+      <c r="L2683" s="25"/>
+      <c r="M2683" s="25"/>
+      <c r="N2683" s="25"/>
+      <c r="O2683" s="25"/>
+      <c r="P2683" s="25"/>
+      <c r="Q2683" s="25"/>
+      <c r="R2683" s="25"/>
+      <c r="S2683" s="25"/>
+      <c r="T2683" s="25"/>
+      <c r="U2683" s="25"/>
+      <c r="V2683" s="25"/>
+      <c r="W2683" s="25"/>
     </row>
     <row r="2684" spans="2:23">
-      <c r="B2684" s="10"/>
-      <c r="C2684" s="10"/>
-      <c r="D2684" s="10"/>
-      <c r="E2684" s="10"/>
-      <c r="F2684" s="11"/>
-      <c r="G2684" s="11"/>
-      <c r="H2684" s="11"/>
-      <c r="I2684" s="11"/>
-      <c r="J2684" s="11"/>
-      <c r="K2684" s="11"/>
-      <c r="L2684" s="11"/>
-      <c r="M2684" s="11"/>
-      <c r="N2684" s="11"/>
-      <c r="O2684" s="11"/>
-      <c r="P2684" s="11"/>
-      <c r="Q2684" s="11"/>
-      <c r="R2684" s="11"/>
-      <c r="S2684" s="11"/>
-      <c r="T2684" s="11"/>
-      <c r="U2684" s="11"/>
-      <c r="V2684" s="11"/>
-      <c r="W2684" s="11"/>
+      <c r="B2684" s="30"/>
+      <c r="C2684" s="30"/>
+      <c r="D2684" s="30"/>
+      <c r="E2684" s="30"/>
+      <c r="F2684" s="25"/>
+      <c r="G2684" s="25"/>
+      <c r="H2684" s="25"/>
+      <c r="I2684" s="25"/>
+      <c r="J2684" s="25"/>
+      <c r="K2684" s="25"/>
+      <c r="L2684" s="25"/>
+      <c r="M2684" s="25"/>
+      <c r="N2684" s="25"/>
+      <c r="O2684" s="25"/>
+      <c r="P2684" s="25"/>
+      <c r="Q2684" s="25"/>
+      <c r="R2684" s="25"/>
+      <c r="S2684" s="25"/>
+      <c r="T2684" s="25"/>
+      <c r="U2684" s="25"/>
+      <c r="V2684" s="25"/>
+      <c r="W2684" s="25"/>
     </row>
     <row r="2685" spans="2:23">
-      <c r="B2685" s="10"/>
-      <c r="C2685" s="10"/>
-      <c r="D2685" s="10"/>
-      <c r="E2685" s="10"/>
-      <c r="F2685" s="11"/>
-      <c r="G2685" s="11"/>
-      <c r="H2685" s="11"/>
-      <c r="I2685" s="11"/>
-      <c r="J2685" s="11"/>
-      <c r="K2685" s="11"/>
-      <c r="L2685" s="11"/>
-      <c r="M2685" s="11"/>
-      <c r="N2685" s="11"/>
-      <c r="O2685" s="11"/>
-      <c r="P2685" s="11"/>
-      <c r="Q2685" s="11"/>
-      <c r="R2685" s="11"/>
-      <c r="S2685" s="11"/>
-      <c r="T2685" s="11"/>
-      <c r="U2685" s="11"/>
-      <c r="V2685" s="11"/>
-      <c r="W2685" s="11"/>
+      <c r="B2685" s="30"/>
+      <c r="C2685" s="30"/>
+      <c r="D2685" s="30"/>
+      <c r="E2685" s="30"/>
+      <c r="F2685" s="25"/>
+      <c r="G2685" s="25"/>
+      <c r="H2685" s="25"/>
+      <c r="I2685" s="25"/>
+      <c r="J2685" s="25"/>
+      <c r="K2685" s="25"/>
+      <c r="L2685" s="25"/>
+      <c r="M2685" s="25"/>
+      <c r="N2685" s="25"/>
+      <c r="O2685" s="25"/>
+      <c r="P2685" s="25"/>
+      <c r="Q2685" s="25"/>
+      <c r="R2685" s="25"/>
+      <c r="S2685" s="25"/>
+      <c r="T2685" s="25"/>
+      <c r="U2685" s="25"/>
+      <c r="V2685" s="25"/>
+      <c r="W2685" s="25"/>
     </row>
     <row r="2686" spans="2:23">
-      <c r="B2686" s="10"/>
-      <c r="C2686" s="10"/>
-      <c r="D2686" s="10"/>
-      <c r="E2686" s="10"/>
-      <c r="F2686" s="11"/>
-      <c r="G2686" s="11"/>
-      <c r="H2686" s="11"/>
-      <c r="I2686" s="11"/>
-      <c r="J2686" s="11"/>
-      <c r="K2686" s="11"/>
-      <c r="L2686" s="11"/>
-      <c r="M2686" s="11"/>
-      <c r="N2686" s="11"/>
-      <c r="O2686" s="11"/>
-      <c r="P2686" s="11"/>
-      <c r="Q2686" s="11"/>
-      <c r="R2686" s="11"/>
-      <c r="S2686" s="11"/>
-      <c r="T2686" s="11"/>
-      <c r="U2686" s="11"/>
-      <c r="V2686" s="11"/>
-      <c r="W2686" s="11"/>
+      <c r="B2686" s="30"/>
+      <c r="C2686" s="30"/>
+      <c r="D2686" s="30"/>
+      <c r="E2686" s="30"/>
+      <c r="F2686" s="25"/>
+      <c r="G2686" s="25"/>
+      <c r="H2686" s="25"/>
+      <c r="I2686" s="25"/>
+      <c r="J2686" s="25"/>
+      <c r="K2686" s="25"/>
+      <c r="L2686" s="25"/>
+      <c r="M2686" s="25"/>
+      <c r="N2686" s="25"/>
+      <c r="O2686" s="25"/>
+      <c r="P2686" s="25"/>
+      <c r="Q2686" s="25"/>
+      <c r="R2686" s="25"/>
+      <c r="S2686" s="25"/>
+      <c r="T2686" s="25"/>
+      <c r="U2686" s="25"/>
+      <c r="V2686" s="25"/>
+      <c r="W2686" s="25"/>
     </row>
     <row r="2687" spans="2:23">
-      <c r="B2687" s="10"/>
-      <c r="C2687" s="10"/>
-      <c r="D2687" s="10"/>
-      <c r="E2687" s="10"/>
-      <c r="F2687" s="11"/>
-      <c r="G2687" s="11"/>
-      <c r="H2687" s="11"/>
-      <c r="I2687" s="11"/>
-      <c r="J2687" s="11"/>
-      <c r="K2687" s="11"/>
-      <c r="L2687" s="11"/>
-      <c r="M2687" s="11"/>
-      <c r="N2687" s="11"/>
-      <c r="O2687" s="11"/>
-      <c r="P2687" s="11"/>
-      <c r="Q2687" s="11"/>
-      <c r="R2687" s="11"/>
-      <c r="S2687" s="11"/>
-      <c r="T2687" s="11"/>
-      <c r="U2687" s="11"/>
-      <c r="V2687" s="11"/>
-      <c r="W2687" s="11"/>
+      <c r="B2687" s="30"/>
+      <c r="C2687" s="30"/>
+      <c r="D2687" s="30"/>
+      <c r="E2687" s="30"/>
+      <c r="F2687" s="25"/>
+      <c r="G2687" s="25"/>
+      <c r="H2687" s="25"/>
+      <c r="I2687" s="25"/>
+      <c r="J2687" s="25"/>
+      <c r="K2687" s="25"/>
+      <c r="L2687" s="25"/>
+      <c r="M2687" s="25"/>
+      <c r="N2687" s="25"/>
+      <c r="O2687" s="25"/>
+      <c r="P2687" s="25"/>
+      <c r="Q2687" s="25"/>
+      <c r="R2687" s="25"/>
+      <c r="S2687" s="25"/>
+      <c r="T2687" s="25"/>
+      <c r="U2687" s="25"/>
+      <c r="V2687" s="25"/>
+      <c r="W2687" s="25"/>
     </row>
     <row r="2688" spans="2:23">
-      <c r="B2688" s="10"/>
-      <c r="C2688" s="10"/>
-      <c r="D2688" s="10"/>
-      <c r="E2688" s="10"/>
-      <c r="F2688" s="11"/>
-      <c r="G2688" s="11"/>
-      <c r="H2688" s="11"/>
-      <c r="I2688" s="11"/>
-      <c r="J2688" s="11"/>
-      <c r="K2688" s="11"/>
-      <c r="L2688" s="11"/>
-      <c r="M2688" s="11"/>
-      <c r="N2688" s="11"/>
-      <c r="O2688" s="11"/>
-      <c r="P2688" s="11"/>
-      <c r="Q2688" s="11"/>
-      <c r="R2688" s="11"/>
-      <c r="S2688" s="11"/>
-      <c r="T2688" s="11"/>
-      <c r="U2688" s="11"/>
-      <c r="V2688" s="11"/>
-      <c r="W2688" s="11"/>
+      <c r="B2688" s="30"/>
+      <c r="C2688" s="30"/>
+      <c r="D2688" s="30"/>
+      <c r="E2688" s="30"/>
+      <c r="F2688" s="25"/>
+      <c r="G2688" s="25"/>
+      <c r="H2688" s="25"/>
+      <c r="I2688" s="25"/>
+      <c r="J2688" s="25"/>
+      <c r="K2688" s="25"/>
+      <c r="L2688" s="25"/>
+      <c r="M2688" s="25"/>
+      <c r="N2688" s="25"/>
+      <c r="O2688" s="25"/>
+      <c r="P2688" s="25"/>
+      <c r="Q2688" s="25"/>
+      <c r="R2688" s="25"/>
+      <c r="S2688" s="25"/>
+      <c r="T2688" s="25"/>
+      <c r="U2688" s="25"/>
+      <c r="V2688" s="25"/>
+      <c r="W2688" s="25"/>
     </row>
     <row r="2689" spans="2:23" ht="15" customHeight="1">
-      <c r="B2689" s="10" t="s">
+      <c r="B2689" s="30" t="s">
         <v>1430</v>
       </c>
-      <c r="C2689" s="10"/>
-      <c r="D2689" s="10"/>
-      <c r="E2689" s="10"/>
-      <c r="F2689" s="11" t="s">
+      <c r="C2689" s="30"/>
+      <c r="D2689" s="30"/>
+      <c r="E2689" s="30"/>
+      <c r="F2689" s="25" t="s">
         <v>1431</v>
       </c>
-      <c r="G2689" s="11"/>
-      <c r="H2689" s="11"/>
-      <c r="I2689" s="11"/>
-      <c r="J2689" s="11"/>
-      <c r="K2689" s="11"/>
-      <c r="L2689" s="11"/>
-      <c r="M2689" s="11"/>
-      <c r="N2689" s="11"/>
-      <c r="O2689" s="11" t="s">
+      <c r="G2689" s="25"/>
+      <c r="H2689" s="25"/>
+      <c r="I2689" s="25"/>
+      <c r="J2689" s="25"/>
+      <c r="K2689" s="25"/>
+      <c r="L2689" s="25"/>
+      <c r="M2689" s="25"/>
+      <c r="N2689" s="25"/>
+      <c r="O2689" s="25" t="s">
         <v>1432</v>
       </c>
-      <c r="P2689" s="11"/>
-      <c r="Q2689" s="11"/>
-      <c r="R2689" s="11"/>
-      <c r="S2689" s="11"/>
-      <c r="T2689" s="11"/>
-      <c r="U2689" s="11"/>
-      <c r="V2689" s="11"/>
-      <c r="W2689" s="11"/>
+      <c r="P2689" s="25"/>
+      <c r="Q2689" s="25"/>
+      <c r="R2689" s="25"/>
+      <c r="S2689" s="25"/>
+      <c r="T2689" s="25"/>
+      <c r="U2689" s="25"/>
+      <c r="V2689" s="25"/>
+      <c r="W2689" s="25"/>
     </row>
     <row r="2690" spans="2:23" ht="15" customHeight="1">
-      <c r="B2690" s="10"/>
-      <c r="C2690" s="10"/>
-      <c r="D2690" s="10"/>
-      <c r="E2690" s="10"/>
-      <c r="F2690" s="11"/>
-      <c r="G2690" s="11"/>
-      <c r="H2690" s="11"/>
-      <c r="I2690" s="11"/>
-      <c r="J2690" s="11"/>
-      <c r="K2690" s="11"/>
-      <c r="L2690" s="11"/>
-      <c r="M2690" s="11"/>
-      <c r="N2690" s="11"/>
-      <c r="O2690" s="11"/>
-      <c r="P2690" s="11"/>
-      <c r="Q2690" s="11"/>
-      <c r="R2690" s="11"/>
-      <c r="S2690" s="11"/>
-      <c r="T2690" s="11"/>
-      <c r="U2690" s="11"/>
-      <c r="V2690" s="11"/>
-      <c r="W2690" s="11"/>
+      <c r="B2690" s="30"/>
+      <c r="C2690" s="30"/>
+      <c r="D2690" s="30"/>
+      <c r="E2690" s="30"/>
+      <c r="F2690" s="25"/>
+      <c r="G2690" s="25"/>
+      <c r="H2690" s="25"/>
+      <c r="I2690" s="25"/>
+      <c r="J2690" s="25"/>
+      <c r="K2690" s="25"/>
+      <c r="L2690" s="25"/>
+      <c r="M2690" s="25"/>
+      <c r="N2690" s="25"/>
+      <c r="O2690" s="25"/>
+      <c r="P2690" s="25"/>
+      <c r="Q2690" s="25"/>
+      <c r="R2690" s="25"/>
+      <c r="S2690" s="25"/>
+      <c r="T2690" s="25"/>
+      <c r="U2690" s="25"/>
+      <c r="V2690" s="25"/>
+      <c r="W2690" s="25"/>
     </row>
     <row r="2691" spans="2:23" ht="15" customHeight="1">
-      <c r="B2691" s="10"/>
-      <c r="C2691" s="10"/>
-      <c r="D2691" s="10"/>
-      <c r="E2691" s="10"/>
-      <c r="F2691" s="11"/>
-      <c r="G2691" s="11"/>
-      <c r="H2691" s="11"/>
-      <c r="I2691" s="11"/>
-      <c r="J2691" s="11"/>
-      <c r="K2691" s="11"/>
-      <c r="L2691" s="11"/>
-      <c r="M2691" s="11"/>
-      <c r="N2691" s="11"/>
-      <c r="O2691" s="11"/>
-      <c r="P2691" s="11"/>
-      <c r="Q2691" s="11"/>
-      <c r="R2691" s="11"/>
-      <c r="S2691" s="11"/>
-      <c r="T2691" s="11"/>
-      <c r="U2691" s="11"/>
-      <c r="V2691" s="11"/>
-      <c r="W2691" s="11"/>
+      <c r="B2691" s="30"/>
+      <c r="C2691" s="30"/>
+      <c r="D2691" s="30"/>
+      <c r="E2691" s="30"/>
+      <c r="F2691" s="25"/>
+      <c r="G2691" s="25"/>
+      <c r="H2691" s="25"/>
+      <c r="I2691" s="25"/>
+      <c r="J2691" s="25"/>
+      <c r="K2691" s="25"/>
+      <c r="L2691" s="25"/>
+      <c r="M2691" s="25"/>
+      <c r="N2691" s="25"/>
+      <c r="O2691" s="25"/>
+      <c r="P2691" s="25"/>
+      <c r="Q2691" s="25"/>
+      <c r="R2691" s="25"/>
+      <c r="S2691" s="25"/>
+      <c r="T2691" s="25"/>
+      <c r="U2691" s="25"/>
+      <c r="V2691" s="25"/>
+      <c r="W2691" s="25"/>
     </row>
     <row r="2692" spans="2:23" ht="15" customHeight="1">
-      <c r="B2692" s="10"/>
-      <c r="C2692" s="10"/>
-      <c r="D2692" s="10"/>
-      <c r="E2692" s="10"/>
-      <c r="F2692" s="11"/>
-      <c r="G2692" s="11"/>
-      <c r="H2692" s="11"/>
-      <c r="I2692" s="11"/>
-      <c r="J2692" s="11"/>
-      <c r="K2692" s="11"/>
-      <c r="L2692" s="11"/>
-      <c r="M2692" s="11"/>
-      <c r="N2692" s="11"/>
-      <c r="O2692" s="11"/>
-      <c r="P2692" s="11"/>
-      <c r="Q2692" s="11"/>
-      <c r="R2692" s="11"/>
-      <c r="S2692" s="11"/>
-      <c r="T2692" s="11"/>
-      <c r="U2692" s="11"/>
-      <c r="V2692" s="11"/>
-      <c r="W2692" s="11"/>
+      <c r="B2692" s="30"/>
+      <c r="C2692" s="30"/>
+      <c r="D2692" s="30"/>
+      <c r="E2692" s="30"/>
+      <c r="F2692" s="25"/>
+      <c r="G2692" s="25"/>
+      <c r="H2692" s="25"/>
+      <c r="I2692" s="25"/>
+      <c r="J2692" s="25"/>
+      <c r="K2692" s="25"/>
+      <c r="L2692" s="25"/>
+      <c r="M2692" s="25"/>
+      <c r="N2692" s="25"/>
+      <c r="O2692" s="25"/>
+      <c r="P2692" s="25"/>
+      <c r="Q2692" s="25"/>
+      <c r="R2692" s="25"/>
+      <c r="S2692" s="25"/>
+      <c r="T2692" s="25"/>
+      <c r="U2692" s="25"/>
+      <c r="V2692" s="25"/>
+      <c r="W2692" s="25"/>
     </row>
     <row r="2693" spans="2:23">
-      <c r="B2693" s="10"/>
-      <c r="C2693" s="10"/>
-      <c r="D2693" s="10"/>
-      <c r="E2693" s="10"/>
-      <c r="F2693" s="11"/>
-      <c r="G2693" s="11"/>
-      <c r="H2693" s="11"/>
-      <c r="I2693" s="11"/>
-      <c r="J2693" s="11"/>
-      <c r="K2693" s="11"/>
-      <c r="L2693" s="11"/>
-      <c r="M2693" s="11"/>
-      <c r="N2693" s="11"/>
-      <c r="O2693" s="11"/>
-      <c r="P2693" s="11"/>
-      <c r="Q2693" s="11"/>
-      <c r="R2693" s="11"/>
-      <c r="S2693" s="11"/>
-      <c r="T2693" s="11"/>
-      <c r="U2693" s="11"/>
-      <c r="V2693" s="11"/>
-      <c r="W2693" s="11"/>
+      <c r="B2693" s="30"/>
+      <c r="C2693" s="30"/>
+      <c r="D2693" s="30"/>
+      <c r="E2693" s="30"/>
+      <c r="F2693" s="25"/>
+      <c r="G2693" s="25"/>
+      <c r="H2693" s="25"/>
+      <c r="I2693" s="25"/>
+      <c r="J2693" s="25"/>
+      <c r="K2693" s="25"/>
+      <c r="L2693" s="25"/>
+      <c r="M2693" s="25"/>
+      <c r="N2693" s="25"/>
+      <c r="O2693" s="25"/>
+      <c r="P2693" s="25"/>
+      <c r="Q2693" s="25"/>
+      <c r="R2693" s="25"/>
+      <c r="S2693" s="25"/>
+      <c r="T2693" s="25"/>
+      <c r="U2693" s="25"/>
+      <c r="V2693" s="25"/>
+      <c r="W2693" s="25"/>
     </row>
     <row r="2694" spans="2:23" ht="15" customHeight="1">
-      <c r="B2694" s="10" t="s">
+      <c r="B2694" s="30" t="s">
         <v>1433</v>
       </c>
-      <c r="C2694" s="10"/>
-      <c r="D2694" s="10"/>
-      <c r="E2694" s="10"/>
-      <c r="F2694" s="11" t="s">
+      <c r="C2694" s="30"/>
+      <c r="D2694" s="30"/>
+      <c r="E2694" s="30"/>
+      <c r="F2694" s="25" t="s">
         <v>1434</v>
       </c>
-      <c r="G2694" s="11"/>
-      <c r="H2694" s="11"/>
-      <c r="I2694" s="11"/>
-      <c r="J2694" s="11"/>
-      <c r="K2694" s="11"/>
-      <c r="L2694" s="11"/>
-      <c r="M2694" s="11"/>
-      <c r="N2694" s="11"/>
-      <c r="O2694" s="11" t="s">
+      <c r="G2694" s="25"/>
+      <c r="H2694" s="25"/>
+      <c r="I2694" s="25"/>
+      <c r="J2694" s="25"/>
+      <c r="K2694" s="25"/>
+      <c r="L2694" s="25"/>
+      <c r="M2694" s="25"/>
+      <c r="N2694" s="25"/>
+      <c r="O2694" s="25" t="s">
         <v>1434</v>
       </c>
-      <c r="P2694" s="11"/>
-      <c r="Q2694" s="11"/>
-      <c r="R2694" s="11"/>
-      <c r="S2694" s="11"/>
-      <c r="T2694" s="11"/>
-      <c r="U2694" s="11"/>
-      <c r="V2694" s="11"/>
-      <c r="W2694" s="11"/>
+      <c r="P2694" s="25"/>
+      <c r="Q2694" s="25"/>
+      <c r="R2694" s="25"/>
+      <c r="S2694" s="25"/>
+      <c r="T2694" s="25"/>
+      <c r="U2694" s="25"/>
+      <c r="V2694" s="25"/>
+      <c r="W2694" s="25"/>
     </row>
     <row r="2695" spans="2:23" ht="15" customHeight="1">
-      <c r="B2695" s="10"/>
-      <c r="C2695" s="10"/>
-      <c r="D2695" s="10"/>
-      <c r="E2695" s="10"/>
-      <c r="F2695" s="11"/>
-      <c r="G2695" s="11"/>
-      <c r="H2695" s="11"/>
-      <c r="I2695" s="11"/>
-      <c r="J2695" s="11"/>
-      <c r="K2695" s="11"/>
-      <c r="L2695" s="11"/>
-      <c r="M2695" s="11"/>
-      <c r="N2695" s="11"/>
-      <c r="O2695" s="11"/>
-      <c r="P2695" s="11"/>
-      <c r="Q2695" s="11"/>
-      <c r="R2695" s="11"/>
-      <c r="S2695" s="11"/>
-      <c r="T2695" s="11"/>
-      <c r="U2695" s="11"/>
-      <c r="V2695" s="11"/>
-      <c r="W2695" s="11"/>
+      <c r="B2695" s="30"/>
+      <c r="C2695" s="30"/>
+      <c r="D2695" s="30"/>
+      <c r="E2695" s="30"/>
+      <c r="F2695" s="25"/>
+      <c r="G2695" s="25"/>
+      <c r="H2695" s="25"/>
+      <c r="I2695" s="25"/>
+      <c r="J2695" s="25"/>
+      <c r="K2695" s="25"/>
+      <c r="L2695" s="25"/>
+      <c r="M2695" s="25"/>
+      <c r="N2695" s="25"/>
+      <c r="O2695" s="25"/>
+      <c r="P2695" s="25"/>
+      <c r="Q2695" s="25"/>
+      <c r="R2695" s="25"/>
+      <c r="S2695" s="25"/>
+      <c r="T2695" s="25"/>
+      <c r="U2695" s="25"/>
+      <c r="V2695" s="25"/>
+      <c r="W2695" s="25"/>
     </row>
     <row r="2696" spans="2:23">
-      <c r="B2696" s="10"/>
-      <c r="C2696" s="10"/>
-      <c r="D2696" s="10"/>
-      <c r="E2696" s="10"/>
-      <c r="F2696" s="11"/>
-      <c r="G2696" s="11"/>
-      <c r="H2696" s="11"/>
-      <c r="I2696" s="11"/>
-      <c r="J2696" s="11"/>
-      <c r="K2696" s="11"/>
-      <c r="L2696" s="11"/>
-      <c r="M2696" s="11"/>
-      <c r="N2696" s="11"/>
-      <c r="O2696" s="11"/>
-      <c r="P2696" s="11"/>
-      <c r="Q2696" s="11"/>
-      <c r="R2696" s="11"/>
-      <c r="S2696" s="11"/>
-      <c r="T2696" s="11"/>
-      <c r="U2696" s="11"/>
-      <c r="V2696" s="11"/>
-      <c r="W2696" s="11"/>
+      <c r="B2696" s="30"/>
+      <c r="C2696" s="30"/>
+      <c r="D2696" s="30"/>
+      <c r="E2696" s="30"/>
+      <c r="F2696" s="25"/>
+      <c r="G2696" s="25"/>
+      <c r="H2696" s="25"/>
+      <c r="I2696" s="25"/>
+      <c r="J2696" s="25"/>
+      <c r="K2696" s="25"/>
+      <c r="L2696" s="25"/>
+      <c r="M2696" s="25"/>
+      <c r="N2696" s="25"/>
+      <c r="O2696" s="25"/>
+      <c r="P2696" s="25"/>
+      <c r="Q2696" s="25"/>
+      <c r="R2696" s="25"/>
+      <c r="S2696" s="25"/>
+      <c r="T2696" s="25"/>
+      <c r="U2696" s="25"/>
+      <c r="V2696" s="25"/>
+      <c r="W2696" s="25"/>
     </row>
     <row r="2697" spans="2:23" ht="15" customHeight="1">
-      <c r="B2697" s="13" t="s">
+      <c r="B2697" s="24" t="s">
         <v>1435</v>
       </c>
-      <c r="C2697" s="13"/>
-      <c r="D2697" s="13"/>
-      <c r="E2697" s="13"/>
-      <c r="F2697" s="15" t="s">
+      <c r="C2697" s="24"/>
+      <c r="D2697" s="24"/>
+      <c r="E2697" s="24"/>
+      <c r="F2697" s="32" t="s">
         <v>1436</v>
       </c>
-      <c r="G2697" s="15"/>
-      <c r="H2697" s="15"/>
-      <c r="I2697" s="15"/>
-      <c r="J2697" s="15"/>
-      <c r="K2697" s="15"/>
-      <c r="L2697" s="15"/>
-      <c r="M2697" s="15"/>
-      <c r="N2697" s="15"/>
-      <c r="O2697" s="11" t="s">
+      <c r="G2697" s="32"/>
+      <c r="H2697" s="32"/>
+      <c r="I2697" s="32"/>
+      <c r="J2697" s="32"/>
+      <c r="K2697" s="32"/>
+      <c r="L2697" s="32"/>
+      <c r="M2697" s="32"/>
+      <c r="N2697" s="32"/>
+      <c r="O2697" s="25" t="s">
         <v>1437</v>
       </c>
-      <c r="P2697" s="11"/>
-      <c r="Q2697" s="11"/>
-      <c r="R2697" s="11"/>
-      <c r="S2697" s="11"/>
-      <c r="T2697" s="11"/>
-      <c r="U2697" s="11"/>
-      <c r="V2697" s="11"/>
-      <c r="W2697" s="11"/>
+      <c r="P2697" s="25"/>
+      <c r="Q2697" s="25"/>
+      <c r="R2697" s="25"/>
+      <c r="S2697" s="25"/>
+      <c r="T2697" s="25"/>
+      <c r="U2697" s="25"/>
+      <c r="V2697" s="25"/>
+      <c r="W2697" s="25"/>
     </row>
     <row r="2698" spans="2:23">
-      <c r="B2698" s="13"/>
-      <c r="C2698" s="13"/>
-      <c r="D2698" s="13"/>
-      <c r="E2698" s="13"/>
-      <c r="F2698" s="15"/>
-      <c r="G2698" s="15"/>
-      <c r="H2698" s="15"/>
-      <c r="I2698" s="15"/>
-      <c r="J2698" s="15"/>
-      <c r="K2698" s="15"/>
-      <c r="L2698" s="15"/>
-      <c r="M2698" s="15"/>
-      <c r="N2698" s="15"/>
-      <c r="O2698" s="11"/>
-      <c r="P2698" s="11"/>
-      <c r="Q2698" s="11"/>
-      <c r="R2698" s="11"/>
-      <c r="S2698" s="11"/>
-      <c r="T2698" s="11"/>
-      <c r="U2698" s="11"/>
-      <c r="V2698" s="11"/>
-      <c r="W2698" s="11"/>
+      <c r="B2698" s="24"/>
+      <c r="C2698" s="24"/>
+      <c r="D2698" s="24"/>
+      <c r="E2698" s="24"/>
+      <c r="F2698" s="32"/>
+      <c r="G2698" s="32"/>
+      <c r="H2698" s="32"/>
+      <c r="I2698" s="32"/>
+      <c r="J2698" s="32"/>
+      <c r="K2698" s="32"/>
+      <c r="L2698" s="32"/>
+      <c r="M2698" s="32"/>
+      <c r="N2698" s="32"/>
+      <c r="O2698" s="25"/>
+      <c r="P2698" s="25"/>
+      <c r="Q2698" s="25"/>
+      <c r="R2698" s="25"/>
+      <c r="S2698" s="25"/>
+      <c r="T2698" s="25"/>
+      <c r="U2698" s="25"/>
+      <c r="V2698" s="25"/>
+      <c r="W2698" s="25"/>
     </row>
     <row r="2699" spans="2:23" ht="15" customHeight="1">
-      <c r="B2699" s="10" t="s">
+      <c r="B2699" s="30" t="s">
         <v>1438</v>
       </c>
-      <c r="C2699" s="10"/>
-      <c r="D2699" s="10"/>
-      <c r="E2699" s="10"/>
-      <c r="F2699" s="13" t="s">
+      <c r="C2699" s="30"/>
+      <c r="D2699" s="30"/>
+      <c r="E2699" s="30"/>
+      <c r="F2699" s="24" t="s">
         <v>1436</v>
       </c>
-      <c r="G2699" s="13"/>
-      <c r="H2699" s="13"/>
-      <c r="I2699" s="13"/>
-      <c r="J2699" s="13"/>
-      <c r="K2699" s="13"/>
-      <c r="L2699" s="13"/>
-      <c r="M2699" s="13"/>
-      <c r="N2699" s="13"/>
-      <c r="O2699" s="13" t="s">
+      <c r="G2699" s="24"/>
+      <c r="H2699" s="24"/>
+      <c r="I2699" s="24"/>
+      <c r="J2699" s="24"/>
+      <c r="K2699" s="24"/>
+      <c r="L2699" s="24"/>
+      <c r="M2699" s="24"/>
+      <c r="N2699" s="24"/>
+      <c r="O2699" s="24" t="s">
         <v>1439</v>
       </c>
-      <c r="P2699" s="13"/>
-      <c r="Q2699" s="13"/>
-      <c r="R2699" s="13"/>
-      <c r="S2699" s="13"/>
-      <c r="T2699" s="13"/>
-      <c r="U2699" s="13"/>
-      <c r="V2699" s="13"/>
-      <c r="W2699" s="13"/>
+      <c r="P2699" s="24"/>
+      <c r="Q2699" s="24"/>
+      <c r="R2699" s="24"/>
+      <c r="S2699" s="24"/>
+      <c r="T2699" s="24"/>
+      <c r="U2699" s="24"/>
+      <c r="V2699" s="24"/>
+      <c r="W2699" s="24"/>
     </row>
     <row r="2700" spans="2:23">
-      <c r="B2700" s="10"/>
-      <c r="C2700" s="10"/>
-      <c r="D2700" s="10"/>
-      <c r="E2700" s="10"/>
-      <c r="F2700" s="13"/>
-      <c r="G2700" s="13"/>
-      <c r="H2700" s="13"/>
-      <c r="I2700" s="13"/>
-      <c r="J2700" s="13"/>
-      <c r="K2700" s="13"/>
-      <c r="L2700" s="13"/>
-      <c r="M2700" s="13"/>
-      <c r="N2700" s="13"/>
-      <c r="O2700" s="13"/>
-      <c r="P2700" s="13"/>
-      <c r="Q2700" s="13"/>
-      <c r="R2700" s="13"/>
-      <c r="S2700" s="13"/>
-      <c r="T2700" s="13"/>
-      <c r="U2700" s="13"/>
-      <c r="V2700" s="13"/>
-      <c r="W2700" s="13"/>
+      <c r="B2700" s="30"/>
+      <c r="C2700" s="30"/>
+      <c r="D2700" s="30"/>
+      <c r="E2700" s="30"/>
+      <c r="F2700" s="24"/>
+      <c r="G2700" s="24"/>
+      <c r="H2700" s="24"/>
+      <c r="I2700" s="24"/>
+      <c r="J2700" s="24"/>
+      <c r="K2700" s="24"/>
+      <c r="L2700" s="24"/>
+      <c r="M2700" s="24"/>
+      <c r="N2700" s="24"/>
+      <c r="O2700" s="24"/>
+      <c r="P2700" s="24"/>
+      <c r="Q2700" s="24"/>
+      <c r="R2700" s="24"/>
+      <c r="S2700" s="24"/>
+      <c r="T2700" s="24"/>
+      <c r="U2700" s="24"/>
+      <c r="V2700" s="24"/>
+      <c r="W2700" s="24"/>
     </row>
     <row r="2701" spans="2:23" ht="15" customHeight="1">
-      <c r="B2701" s="10" t="s">
+      <c r="B2701" s="30" t="s">
         <v>1440</v>
       </c>
-      <c r="C2701" s="10"/>
-      <c r="D2701" s="10"/>
-      <c r="E2701" s="10"/>
-      <c r="F2701" s="14" t="s">
+      <c r="C2701" s="30"/>
+      <c r="D2701" s="30"/>
+      <c r="E2701" s="30"/>
+      <c r="F2701" s="34" t="s">
         <v>1441</v>
       </c>
-      <c r="G2701" s="14"/>
-      <c r="H2701" s="14"/>
-      <c r="I2701" s="14"/>
-      <c r="J2701" s="14"/>
-      <c r="K2701" s="14"/>
-      <c r="L2701" s="14"/>
-      <c r="M2701" s="14"/>
-      <c r="N2701" s="14"/>
-      <c r="O2701" s="11" t="s">
+      <c r="G2701" s="34"/>
+      <c r="H2701" s="34"/>
+      <c r="I2701" s="34"/>
+      <c r="J2701" s="34"/>
+      <c r="K2701" s="34"/>
+      <c r="L2701" s="34"/>
+      <c r="M2701" s="34"/>
+      <c r="N2701" s="34"/>
+      <c r="O2701" s="25" t="s">
         <v>1442</v>
       </c>
-      <c r="P2701" s="11"/>
-      <c r="Q2701" s="11"/>
-      <c r="R2701" s="11"/>
-      <c r="S2701" s="11"/>
-      <c r="T2701" s="11"/>
-      <c r="U2701" s="11"/>
-      <c r="V2701" s="11"/>
-      <c r="W2701" s="11"/>
+      <c r="P2701" s="25"/>
+      <c r="Q2701" s="25"/>
+      <c r="R2701" s="25"/>
+      <c r="S2701" s="25"/>
+      <c r="T2701" s="25"/>
+      <c r="U2701" s="25"/>
+      <c r="V2701" s="25"/>
+      <c r="W2701" s="25"/>
     </row>
     <row r="2702" spans="2:23">
-      <c r="B2702" s="10"/>
-      <c r="C2702" s="10"/>
-      <c r="D2702" s="10"/>
-      <c r="E2702" s="10"/>
-      <c r="F2702" s="14"/>
-      <c r="G2702" s="14"/>
-      <c r="H2702" s="14"/>
-      <c r="I2702" s="14"/>
-      <c r="J2702" s="14"/>
-      <c r="K2702" s="14"/>
-      <c r="L2702" s="14"/>
-      <c r="M2702" s="14"/>
-      <c r="N2702" s="14"/>
-      <c r="O2702" s="11"/>
-      <c r="P2702" s="11"/>
-      <c r="Q2702" s="11"/>
-      <c r="R2702" s="11"/>
-      <c r="S2702" s="11"/>
-      <c r="T2702" s="11"/>
-      <c r="U2702" s="11"/>
-      <c r="V2702" s="11"/>
-      <c r="W2702" s="11"/>
+      <c r="B2702" s="30"/>
+      <c r="C2702" s="30"/>
+      <c r="D2702" s="30"/>
+      <c r="E2702" s="30"/>
+      <c r="F2702" s="34"/>
+      <c r="G2702" s="34"/>
+      <c r="H2702" s="34"/>
+      <c r="I2702" s="34"/>
+      <c r="J2702" s="34"/>
+      <c r="K2702" s="34"/>
+      <c r="L2702" s="34"/>
+      <c r="M2702" s="34"/>
+      <c r="N2702" s="34"/>
+      <c r="O2702" s="25"/>
+      <c r="P2702" s="25"/>
+      <c r="Q2702" s="25"/>
+      <c r="R2702" s="25"/>
+      <c r="S2702" s="25"/>
+      <c r="T2702" s="25"/>
+      <c r="U2702" s="25"/>
+      <c r="V2702" s="25"/>
+      <c r="W2702" s="25"/>
     </row>
     <row r="2703" spans="2:23" ht="15" customHeight="1">
-      <c r="B2703" s="10" t="s">
+      <c r="B2703" s="30" t="s">
         <v>1443</v>
       </c>
-      <c r="C2703" s="10"/>
-      <c r="D2703" s="10"/>
-      <c r="E2703" s="10"/>
-      <c r="F2703" s="11" t="s">
+      <c r="C2703" s="30"/>
+      <c r="D2703" s="30"/>
+      <c r="E2703" s="30"/>
+      <c r="F2703" s="25" t="s">
         <v>1444</v>
       </c>
-      <c r="G2703" s="11"/>
-      <c r="H2703" s="11"/>
-      <c r="I2703" s="11"/>
-      <c r="J2703" s="11"/>
-      <c r="K2703" s="11"/>
-      <c r="L2703" s="11"/>
-      <c r="M2703" s="11"/>
-      <c r="N2703" s="11"/>
-      <c r="O2703" s="11" t="s">
+      <c r="G2703" s="25"/>
+      <c r="H2703" s="25"/>
+      <c r="I2703" s="25"/>
+      <c r="J2703" s="25"/>
+      <c r="K2703" s="25"/>
+      <c r="L2703" s="25"/>
+      <c r="M2703" s="25"/>
+      <c r="N2703" s="25"/>
+      <c r="O2703" s="25" t="s">
         <v>1445</v>
       </c>
-      <c r="P2703" s="11"/>
-      <c r="Q2703" s="11"/>
-      <c r="R2703" s="11"/>
-      <c r="S2703" s="11"/>
-      <c r="T2703" s="11"/>
-      <c r="U2703" s="11"/>
-      <c r="V2703" s="11"/>
-      <c r="W2703" s="11"/>
+      <c r="P2703" s="25"/>
+      <c r="Q2703" s="25"/>
+      <c r="R2703" s="25"/>
+      <c r="S2703" s="25"/>
+      <c r="T2703" s="25"/>
+      <c r="U2703" s="25"/>
+      <c r="V2703" s="25"/>
+      <c r="W2703" s="25"/>
     </row>
     <row r="2704" spans="2:23" ht="15" customHeight="1">
-      <c r="B2704" s="10"/>
-      <c r="C2704" s="10"/>
-      <c r="D2704" s="10"/>
-      <c r="E2704" s="10"/>
-      <c r="F2704" s="11"/>
-      <c r="G2704" s="11"/>
-      <c r="H2704" s="11"/>
-      <c r="I2704" s="11"/>
-      <c r="J2704" s="11"/>
-      <c r="K2704" s="11"/>
-      <c r="L2704" s="11"/>
-      <c r="M2704" s="11"/>
-      <c r="N2704" s="11"/>
-      <c r="O2704" s="11"/>
-      <c r="P2704" s="11"/>
-      <c r="Q2704" s="11"/>
-      <c r="R2704" s="11"/>
-      <c r="S2704" s="11"/>
-      <c r="T2704" s="11"/>
-      <c r="U2704" s="11"/>
-      <c r="V2704" s="11"/>
-      <c r="W2704" s="11"/>
+      <c r="B2704" s="30"/>
+      <c r="C2704" s="30"/>
+      <c r="D2704" s="30"/>
+      <c r="E2704" s="30"/>
+      <c r="F2704" s="25"/>
+      <c r="G2704" s="25"/>
+      <c r="H2704" s="25"/>
+      <c r="I2704" s="25"/>
+      <c r="J2704" s="25"/>
+      <c r="K2704" s="25"/>
+      <c r="L2704" s="25"/>
+      <c r="M2704" s="25"/>
+      <c r="N2704" s="25"/>
+      <c r="O2704" s="25"/>
+      <c r="P2704" s="25"/>
+      <c r="Q2704" s="25"/>
+      <c r="R2704" s="25"/>
+      <c r="S2704" s="25"/>
+      <c r="T2704" s="25"/>
+      <c r="U2704" s="25"/>
+      <c r="V2704" s="25"/>
+      <c r="W2704" s="25"/>
     </row>
     <row r="2705" spans="1:23" ht="15" customHeight="1">
-      <c r="B2705" s="10"/>
-      <c r="C2705" s="10"/>
-      <c r="D2705" s="10"/>
-      <c r="E2705" s="10"/>
-      <c r="F2705" s="11"/>
-      <c r="G2705" s="11"/>
-      <c r="H2705" s="11"/>
-      <c r="I2705" s="11"/>
-      <c r="J2705" s="11"/>
-      <c r="K2705" s="11"/>
-      <c r="L2705" s="11"/>
-      <c r="M2705" s="11"/>
-      <c r="N2705" s="11"/>
-      <c r="O2705" s="11"/>
-      <c r="P2705" s="11"/>
-      <c r="Q2705" s="11"/>
-      <c r="R2705" s="11"/>
-      <c r="S2705" s="11"/>
-      <c r="T2705" s="11"/>
-      <c r="U2705" s="11"/>
-      <c r="V2705" s="11"/>
-      <c r="W2705" s="11"/>
+      <c r="B2705" s="30"/>
+      <c r="C2705" s="30"/>
+      <c r="D2705" s="30"/>
+      <c r="E2705" s="30"/>
+      <c r="F2705" s="25"/>
+      <c r="G2705" s="25"/>
+      <c r="H2705" s="25"/>
+      <c r="I2705" s="25"/>
+      <c r="J2705" s="25"/>
+      <c r="K2705" s="25"/>
+      <c r="L2705" s="25"/>
+      <c r="M2705" s="25"/>
+      <c r="N2705" s="25"/>
+      <c r="O2705" s="25"/>
+      <c r="P2705" s="25"/>
+      <c r="Q2705" s="25"/>
+      <c r="R2705" s="25"/>
+      <c r="S2705" s="25"/>
+      <c r="T2705" s="25"/>
+      <c r="U2705" s="25"/>
+      <c r="V2705" s="25"/>
+      <c r="W2705" s="25"/>
     </row>
     <row r="2706" spans="1:23" ht="15" customHeight="1">
-      <c r="B2706" s="10"/>
-      <c r="C2706" s="10"/>
-      <c r="D2706" s="10"/>
-      <c r="E2706" s="10"/>
-      <c r="F2706" s="11"/>
-      <c r="G2706" s="11"/>
-      <c r="H2706" s="11"/>
-      <c r="I2706" s="11"/>
-      <c r="J2706" s="11"/>
-      <c r="K2706" s="11"/>
-      <c r="L2706" s="11"/>
-      <c r="M2706" s="11"/>
-      <c r="N2706" s="11"/>
-      <c r="O2706" s="11"/>
-      <c r="P2706" s="11"/>
-      <c r="Q2706" s="11"/>
-      <c r="R2706" s="11"/>
-      <c r="S2706" s="11"/>
-      <c r="T2706" s="11"/>
-      <c r="U2706" s="11"/>
-      <c r="V2706" s="11"/>
-      <c r="W2706" s="11"/>
+      <c r="B2706" s="30"/>
+      <c r="C2706" s="30"/>
+      <c r="D2706" s="30"/>
+      <c r="E2706" s="30"/>
+      <c r="F2706" s="25"/>
+      <c r="G2706" s="25"/>
+      <c r="H2706" s="25"/>
+      <c r="I2706" s="25"/>
+      <c r="J2706" s="25"/>
+      <c r="K2706" s="25"/>
+      <c r="L2706" s="25"/>
+      <c r="M2706" s="25"/>
+      <c r="N2706" s="25"/>
+      <c r="O2706" s="25"/>
+      <c r="P2706" s="25"/>
+      <c r="Q2706" s="25"/>
+      <c r="R2706" s="25"/>
+      <c r="S2706" s="25"/>
+      <c r="T2706" s="25"/>
+      <c r="U2706" s="25"/>
+      <c r="V2706" s="25"/>
+      <c r="W2706" s="25"/>
     </row>
     <row r="2707" spans="1:23" ht="15" customHeight="1">
-      <c r="B2707" s="10"/>
-      <c r="C2707" s="10"/>
-      <c r="D2707" s="10"/>
-      <c r="E2707" s="10"/>
-      <c r="F2707" s="11"/>
-      <c r="G2707" s="11"/>
-      <c r="H2707" s="11"/>
-      <c r="I2707" s="11"/>
-      <c r="J2707" s="11"/>
-      <c r="K2707" s="11"/>
-      <c r="L2707" s="11"/>
-      <c r="M2707" s="11"/>
-      <c r="N2707" s="11"/>
-      <c r="O2707" s="11"/>
-      <c r="P2707" s="11"/>
-      <c r="Q2707" s="11"/>
-      <c r="R2707" s="11"/>
-      <c r="S2707" s="11"/>
-      <c r="T2707" s="11"/>
-      <c r="U2707" s="11"/>
-      <c r="V2707" s="11"/>
-      <c r="W2707" s="11"/>
+      <c r="B2707" s="30"/>
+      <c r="C2707" s="30"/>
+      <c r="D2707" s="30"/>
+      <c r="E2707" s="30"/>
+      <c r="F2707" s="25"/>
+      <c r="G2707" s="25"/>
+      <c r="H2707" s="25"/>
+      <c r="I2707" s="25"/>
+      <c r="J2707" s="25"/>
+      <c r="K2707" s="25"/>
+      <c r="L2707" s="25"/>
+      <c r="M2707" s="25"/>
+      <c r="N2707" s="25"/>
+      <c r="O2707" s="25"/>
+      <c r="P2707" s="25"/>
+      <c r="Q2707" s="25"/>
+      <c r="R2707" s="25"/>
+      <c r="S2707" s="25"/>
+      <c r="T2707" s="25"/>
+      <c r="U2707" s="25"/>
+      <c r="V2707" s="25"/>
+      <c r="W2707" s="25"/>
     </row>
     <row r="2708" spans="1:23" ht="15" customHeight="1">
-      <c r="B2708" s="10"/>
-      <c r="C2708" s="10"/>
-      <c r="D2708" s="10"/>
-      <c r="E2708" s="10"/>
-      <c r="F2708" s="11"/>
-      <c r="G2708" s="11"/>
-      <c r="H2708" s="11"/>
-      <c r="I2708" s="11"/>
-      <c r="J2708" s="11"/>
-      <c r="K2708" s="11"/>
-      <c r="L2708" s="11"/>
-      <c r="M2708" s="11"/>
-      <c r="N2708" s="11"/>
-      <c r="O2708" s="11"/>
-      <c r="P2708" s="11"/>
-      <c r="Q2708" s="11"/>
-      <c r="R2708" s="11"/>
-      <c r="S2708" s="11"/>
-      <c r="T2708" s="11"/>
-      <c r="U2708" s="11"/>
-      <c r="V2708" s="11"/>
-      <c r="W2708" s="11"/>
+      <c r="B2708" s="30"/>
+      <c r="C2708" s="30"/>
+      <c r="D2708" s="30"/>
+      <c r="E2708" s="30"/>
+      <c r="F2708" s="25"/>
+      <c r="G2708" s="25"/>
+      <c r="H2708" s="25"/>
+      <c r="I2708" s="25"/>
+      <c r="J2708" s="25"/>
+      <c r="K2708" s="25"/>
+      <c r="L2708" s="25"/>
+      <c r="M2708" s="25"/>
+      <c r="N2708" s="25"/>
+      <c r="O2708" s="25"/>
+      <c r="P2708" s="25"/>
+      <c r="Q2708" s="25"/>
+      <c r="R2708" s="25"/>
+      <c r="S2708" s="25"/>
+      <c r="T2708" s="25"/>
+      <c r="U2708" s="25"/>
+      <c r="V2708" s="25"/>
+      <c r="W2708" s="25"/>
     </row>
     <row r="2709" spans="1:23" ht="14.25" customHeight="1">
-      <c r="B2709" s="10" t="s">
+      <c r="B2709" s="30" t="s">
         <v>1446</v>
       </c>
-      <c r="C2709" s="10"/>
-      <c r="D2709" s="10"/>
-      <c r="E2709" s="10"/>
-      <c r="F2709" s="12" t="s">
+      <c r="C2709" s="30"/>
+      <c r="D2709" s="30"/>
+      <c r="E2709" s="30"/>
+      <c r="F2709" s="33" t="s">
         <v>1447</v>
       </c>
-      <c r="G2709" s="12"/>
-      <c r="H2709" s="12"/>
-      <c r="I2709" s="12"/>
-      <c r="J2709" s="12"/>
-      <c r="K2709" s="12"/>
-      <c r="L2709" s="12"/>
-      <c r="M2709" s="12"/>
-      <c r="N2709" s="12"/>
-      <c r="O2709" s="11" t="s">
+      <c r="G2709" s="33"/>
+      <c r="H2709" s="33"/>
+      <c r="I2709" s="33"/>
+      <c r="J2709" s="33"/>
+      <c r="K2709" s="33"/>
+      <c r="L2709" s="33"/>
+      <c r="M2709" s="33"/>
+      <c r="N2709" s="33"/>
+      <c r="O2709" s="25" t="s">
         <v>1449</v>
       </c>
-      <c r="P2709" s="11"/>
-      <c r="Q2709" s="11"/>
-      <c r="R2709" s="11"/>
-      <c r="S2709" s="11"/>
-      <c r="T2709" s="11"/>
-      <c r="U2709" s="11"/>
-      <c r="V2709" s="11"/>
-      <c r="W2709" s="11"/>
+      <c r="P2709" s="25"/>
+      <c r="Q2709" s="25"/>
+      <c r="R2709" s="25"/>
+      <c r="S2709" s="25"/>
+      <c r="T2709" s="25"/>
+      <c r="U2709" s="25"/>
+      <c r="V2709" s="25"/>
+      <c r="W2709" s="25"/>
     </row>
     <row r="2710" spans="1:23" ht="14.25" customHeight="1">
-      <c r="B2710" s="10"/>
-      <c r="C2710" s="10"/>
-      <c r="D2710" s="10"/>
-      <c r="E2710" s="10"/>
-      <c r="F2710" s="12"/>
-      <c r="G2710" s="12"/>
-      <c r="H2710" s="12"/>
-      <c r="I2710" s="12"/>
-      <c r="J2710" s="12"/>
-      <c r="K2710" s="12"/>
-      <c r="L2710" s="12"/>
-      <c r="M2710" s="12"/>
-      <c r="N2710" s="12"/>
-      <c r="O2710" s="11"/>
-      <c r="P2710" s="11"/>
-      <c r="Q2710" s="11"/>
-      <c r="R2710" s="11"/>
-      <c r="S2710" s="11"/>
-      <c r="T2710" s="11"/>
-      <c r="U2710" s="11"/>
-      <c r="V2710" s="11"/>
-      <c r="W2710" s="11"/>
+      <c r="B2710" s="30"/>
+      <c r="C2710" s="30"/>
+      <c r="D2710" s="30"/>
+      <c r="E2710" s="30"/>
+      <c r="F2710" s="33"/>
+      <c r="G2710" s="33"/>
+      <c r="H2710" s="33"/>
+      <c r="I2710" s="33"/>
+      <c r="J2710" s="33"/>
+      <c r="K2710" s="33"/>
+      <c r="L2710" s="33"/>
+      <c r="M2710" s="33"/>
+      <c r="N2710" s="33"/>
+      <c r="O2710" s="25"/>
+      <c r="P2710" s="25"/>
+      <c r="Q2710" s="25"/>
+      <c r="R2710" s="25"/>
+      <c r="S2710" s="25"/>
+      <c r="T2710" s="25"/>
+      <c r="U2710" s="25"/>
+      <c r="V2710" s="25"/>
+      <c r="W2710" s="25"/>
     </row>
     <row r="2711" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2711" s="10"/>
-      <c r="C2711" s="10"/>
-      <c r="D2711" s="10"/>
-      <c r="E2711" s="10"/>
-      <c r="F2711" s="12"/>
-      <c r="G2711" s="12"/>
-      <c r="H2711" s="12"/>
-      <c r="I2711" s="12"/>
-      <c r="J2711" s="12"/>
-      <c r="K2711" s="12"/>
-      <c r="L2711" s="12"/>
-      <c r="M2711" s="12"/>
-      <c r="N2711" s="12"/>
-      <c r="O2711" s="11"/>
-      <c r="P2711" s="11"/>
-      <c r="Q2711" s="11"/>
-      <c r="R2711" s="11"/>
-      <c r="S2711" s="11"/>
-      <c r="T2711" s="11"/>
-      <c r="U2711" s="11"/>
-      <c r="V2711" s="11"/>
-      <c r="W2711" s="11"/>
+      <c r="B2711" s="30"/>
+      <c r="C2711" s="30"/>
+      <c r="D2711" s="30"/>
+      <c r="E2711" s="30"/>
+      <c r="F2711" s="33"/>
+      <c r="G2711" s="33"/>
+      <c r="H2711" s="33"/>
+      <c r="I2711" s="33"/>
+      <c r="J2711" s="33"/>
+      <c r="K2711" s="33"/>
+      <c r="L2711" s="33"/>
+      <c r="M2711" s="33"/>
+      <c r="N2711" s="33"/>
+      <c r="O2711" s="25"/>
+      <c r="P2711" s="25"/>
+      <c r="Q2711" s="25"/>
+      <c r="R2711" s="25"/>
+      <c r="S2711" s="25"/>
+      <c r="T2711" s="25"/>
+      <c r="U2711" s="25"/>
+      <c r="V2711" s="25"/>
+      <c r="W2711" s="25"/>
     </row>
     <row r="2712" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2712" s="10"/>
-      <c r="C2712" s="10"/>
-      <c r="D2712" s="10"/>
-      <c r="E2712" s="10"/>
-      <c r="F2712" s="12" t="s">
+      <c r="B2712" s="30"/>
+      <c r="C2712" s="30"/>
+      <c r="D2712" s="30"/>
+      <c r="E2712" s="30"/>
+      <c r="F2712" s="33" t="s">
         <v>1448</v>
       </c>
-      <c r="G2712" s="12"/>
-      <c r="H2712" s="12"/>
-      <c r="I2712" s="12"/>
-      <c r="J2712" s="12"/>
-      <c r="K2712" s="12"/>
-      <c r="L2712" s="12"/>
-      <c r="M2712" s="12"/>
-      <c r="N2712" s="12"/>
-      <c r="O2712" s="11"/>
-      <c r="P2712" s="11"/>
-      <c r="Q2712" s="11"/>
-      <c r="R2712" s="11"/>
-      <c r="S2712" s="11"/>
-      <c r="T2712" s="11"/>
-      <c r="U2712" s="11"/>
-      <c r="V2712" s="11"/>
-      <c r="W2712" s="11"/>
+      <c r="G2712" s="33"/>
+      <c r="H2712" s="33"/>
+      <c r="I2712" s="33"/>
+      <c r="J2712" s="33"/>
+      <c r="K2712" s="33"/>
+      <c r="L2712" s="33"/>
+      <c r="M2712" s="33"/>
+      <c r="N2712" s="33"/>
+      <c r="O2712" s="25"/>
+      <c r="P2712" s="25"/>
+      <c r="Q2712" s="25"/>
+      <c r="R2712" s="25"/>
+      <c r="S2712" s="25"/>
+      <c r="T2712" s="25"/>
+      <c r="U2712" s="25"/>
+      <c r="V2712" s="25"/>
+      <c r="W2712" s="25"/>
     </row>
     <row r="2713" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2713" s="10"/>
-      <c r="C2713" s="10"/>
-      <c r="D2713" s="10"/>
-      <c r="E2713" s="10"/>
-      <c r="F2713" s="12"/>
-      <c r="G2713" s="12"/>
-      <c r="H2713" s="12"/>
-      <c r="I2713" s="12"/>
-      <c r="J2713" s="12"/>
-      <c r="K2713" s="12"/>
-      <c r="L2713" s="12"/>
-      <c r="M2713" s="12"/>
-      <c r="N2713" s="12"/>
-      <c r="O2713" s="11"/>
-      <c r="P2713" s="11"/>
-      <c r="Q2713" s="11"/>
-      <c r="R2713" s="11"/>
-      <c r="S2713" s="11"/>
-      <c r="T2713" s="11"/>
-      <c r="U2713" s="11"/>
-      <c r="V2713" s="11"/>
-      <c r="W2713" s="11"/>
+      <c r="B2713" s="30"/>
+      <c r="C2713" s="30"/>
+      <c r="D2713" s="30"/>
+      <c r="E2713" s="30"/>
+      <c r="F2713" s="33"/>
+      <c r="G2713" s="33"/>
+      <c r="H2713" s="33"/>
+      <c r="I2713" s="33"/>
+      <c r="J2713" s="33"/>
+      <c r="K2713" s="33"/>
+      <c r="L2713" s="33"/>
+      <c r="M2713" s="33"/>
+      <c r="N2713" s="33"/>
+      <c r="O2713" s="25"/>
+      <c r="P2713" s="25"/>
+      <c r="Q2713" s="25"/>
+      <c r="R2713" s="25"/>
+      <c r="S2713" s="25"/>
+      <c r="T2713" s="25"/>
+      <c r="U2713" s="25"/>
+      <c r="V2713" s="25"/>
+      <c r="W2713" s="25"/>
     </row>
     <row r="2714" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2714" s="10"/>
-      <c r="C2714" s="10"/>
-      <c r="D2714" s="10"/>
-      <c r="E2714" s="10"/>
-      <c r="F2714" s="12"/>
-      <c r="G2714" s="12"/>
-      <c r="H2714" s="12"/>
-      <c r="I2714" s="12"/>
-      <c r="J2714" s="12"/>
-      <c r="K2714" s="12"/>
-      <c r="L2714" s="12"/>
-      <c r="M2714" s="12"/>
-      <c r="N2714" s="12"/>
-      <c r="O2714" s="11"/>
-      <c r="P2714" s="11"/>
-      <c r="Q2714" s="11"/>
-      <c r="R2714" s="11"/>
-      <c r="S2714" s="11"/>
-      <c r="T2714" s="11"/>
-      <c r="U2714" s="11"/>
-      <c r="V2714" s="11"/>
-      <c r="W2714" s="11"/>
+      <c r="B2714" s="30"/>
+      <c r="C2714" s="30"/>
+      <c r="D2714" s="30"/>
+      <c r="E2714" s="30"/>
+      <c r="F2714" s="33"/>
+      <c r="G2714" s="33"/>
+      <c r="H2714" s="33"/>
+      <c r="I2714" s="33"/>
+      <c r="J2714" s="33"/>
+      <c r="K2714" s="33"/>
+      <c r="L2714" s="33"/>
+      <c r="M2714" s="33"/>
+      <c r="N2714" s="33"/>
+      <c r="O2714" s="25"/>
+      <c r="P2714" s="25"/>
+      <c r="Q2714" s="25"/>
+      <c r="R2714" s="25"/>
+      <c r="S2714" s="25"/>
+      <c r="T2714" s="25"/>
+      <c r="U2714" s="25"/>
+      <c r="V2714" s="25"/>
+      <c r="W2714" s="25"/>
     </row>
     <row r="2715" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2715" s="10"/>
-      <c r="C2715" s="10"/>
-      <c r="D2715" s="10"/>
-      <c r="E2715" s="10"/>
-      <c r="F2715" s="12"/>
-      <c r="G2715" s="12"/>
-      <c r="H2715" s="12"/>
-      <c r="I2715" s="12"/>
-      <c r="J2715" s="12"/>
-      <c r="K2715" s="12"/>
-      <c r="L2715" s="12"/>
-      <c r="M2715" s="12"/>
-      <c r="N2715" s="12"/>
-      <c r="O2715" s="11"/>
-      <c r="P2715" s="11"/>
-      <c r="Q2715" s="11"/>
-      <c r="R2715" s="11"/>
-      <c r="S2715" s="11"/>
-      <c r="T2715" s="11"/>
-      <c r="U2715" s="11"/>
-      <c r="V2715" s="11"/>
-      <c r="W2715" s="11"/>
+      <c r="B2715" s="30"/>
+      <c r="C2715" s="30"/>
+      <c r="D2715" s="30"/>
+      <c r="E2715" s="30"/>
+      <c r="F2715" s="33"/>
+      <c r="G2715" s="33"/>
+      <c r="H2715" s="33"/>
+      <c r="I2715" s="33"/>
+      <c r="J2715" s="33"/>
+      <c r="K2715" s="33"/>
+      <c r="L2715" s="33"/>
+      <c r="M2715" s="33"/>
+      <c r="N2715" s="33"/>
+      <c r="O2715" s="25"/>
+      <c r="P2715" s="25"/>
+      <c r="Q2715" s="25"/>
+      <c r="R2715" s="25"/>
+      <c r="S2715" s="25"/>
+      <c r="T2715" s="25"/>
+      <c r="U2715" s="25"/>
+      <c r="V2715" s="25"/>
+      <c r="W2715" s="25"/>
     </row>
     <row r="2716" spans="1:23" ht="13.5" customHeight="1">
-      <c r="B2716" s="10"/>
-      <c r="C2716" s="10"/>
-      <c r="D2716" s="10"/>
-      <c r="E2716" s="10"/>
-      <c r="F2716" s="12"/>
-      <c r="G2716" s="12"/>
-      <c r="H2716" s="12"/>
-      <c r="I2716" s="12"/>
-      <c r="J2716" s="12"/>
-      <c r="K2716" s="12"/>
-      <c r="L2716" s="12"/>
-      <c r="M2716" s="12"/>
-      <c r="N2716" s="12"/>
-      <c r="O2716" s="11"/>
-      <c r="P2716" s="11"/>
-      <c r="Q2716" s="11"/>
-      <c r="R2716" s="11"/>
-      <c r="S2716" s="11"/>
-      <c r="T2716" s="11"/>
-      <c r="U2716" s="11"/>
-      <c r="V2716" s="11"/>
-      <c r="W2716" s="11"/>
+      <c r="B2716" s="30"/>
+      <c r="C2716" s="30"/>
+      <c r="D2716" s="30"/>
+      <c r="E2716" s="30"/>
+      <c r="F2716" s="33"/>
+      <c r="G2716" s="33"/>
+      <c r="H2716" s="33"/>
+      <c r="I2716" s="33"/>
+      <c r="J2716" s="33"/>
+      <c r="K2716" s="33"/>
+      <c r="L2716" s="33"/>
+      <c r="M2716" s="33"/>
+      <c r="N2716" s="33"/>
+      <c r="O2716" s="25"/>
+      <c r="P2716" s="25"/>
+      <c r="Q2716" s="25"/>
+      <c r="R2716" s="25"/>
+      <c r="S2716" s="25"/>
+      <c r="T2716" s="25"/>
+      <c r="U2716" s="25"/>
+      <c r="V2716" s="25"/>
+      <c r="W2716" s="25"/>
     </row>
     <row r="2717" spans="1:23" ht="14.25" customHeight="1">
-      <c r="B2717" s="10"/>
-      <c r="C2717" s="10"/>
-      <c r="D2717" s="10"/>
-      <c r="E2717" s="10"/>
-      <c r="F2717" s="12"/>
-      <c r="G2717" s="12"/>
-      <c r="H2717" s="12"/>
-      <c r="I2717" s="12"/>
-      <c r="J2717" s="12"/>
-      <c r="K2717" s="12"/>
-      <c r="L2717" s="12"/>
-      <c r="M2717" s="12"/>
-      <c r="N2717" s="12"/>
-      <c r="O2717" s="11"/>
-      <c r="P2717" s="11"/>
-      <c r="Q2717" s="11"/>
-      <c r="R2717" s="11"/>
-      <c r="S2717" s="11"/>
-      <c r="T2717" s="11"/>
-      <c r="U2717" s="11"/>
-      <c r="V2717" s="11"/>
-      <c r="W2717" s="11"/>
+      <c r="B2717" s="30"/>
+      <c r="C2717" s="30"/>
+      <c r="D2717" s="30"/>
+      <c r="E2717" s="30"/>
+      <c r="F2717" s="33"/>
+      <c r="G2717" s="33"/>
+      <c r="H2717" s="33"/>
+      <c r="I2717" s="33"/>
+      <c r="J2717" s="33"/>
+      <c r="K2717" s="33"/>
+      <c r="L2717" s="33"/>
+      <c r="M2717" s="33"/>
+      <c r="N2717" s="33"/>
+      <c r="O2717" s="25"/>
+      <c r="P2717" s="25"/>
+      <c r="Q2717" s="25"/>
+      <c r="R2717" s="25"/>
+      <c r="S2717" s="25"/>
+      <c r="T2717" s="25"/>
+      <c r="U2717" s="25"/>
+      <c r="V2717" s="25"/>
+      <c r="W2717" s="25"/>
     </row>
     <row r="2719" spans="1:23">
       <c r="A2719" s="1">
@@ -28392,8 +28407,184 @@
         <v>1831</v>
       </c>
     </row>
+    <row r="3010" spans="1:2">
+      <c r="A3010">
+        <v>86</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:2">
+      <c r="B3012" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:2">
+      <c r="B3013" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:2">
+      <c r="B3014" t="s">
+        <v>1859</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="B2703:E2708"/>
+    <mergeCell ref="F2703:N2708"/>
+    <mergeCell ref="O2703:W2708"/>
+    <mergeCell ref="B2709:E2717"/>
+    <mergeCell ref="F2709:N2711"/>
+    <mergeCell ref="F2712:N2717"/>
+    <mergeCell ref="O2709:W2717"/>
+    <mergeCell ref="B2699:E2700"/>
+    <mergeCell ref="F2699:N2700"/>
+    <mergeCell ref="O2699:W2700"/>
+    <mergeCell ref="B2701:E2702"/>
+    <mergeCell ref="F2701:N2702"/>
+    <mergeCell ref="O2701:W2702"/>
+    <mergeCell ref="B2672:E2678"/>
+    <mergeCell ref="F2672:N2678"/>
+    <mergeCell ref="O2672:W2678"/>
+    <mergeCell ref="B2679:E2681"/>
+    <mergeCell ref="F2679:N2681"/>
+    <mergeCell ref="O2679:W2681"/>
+    <mergeCell ref="O2694:W2696"/>
+    <mergeCell ref="B2697:E2698"/>
+    <mergeCell ref="F2697:N2698"/>
+    <mergeCell ref="O2697:W2698"/>
+    <mergeCell ref="B2682:E2688"/>
+    <mergeCell ref="F2682:N2688"/>
+    <mergeCell ref="O2682:W2688"/>
+    <mergeCell ref="B2689:E2693"/>
+    <mergeCell ref="F2689:N2693"/>
+    <mergeCell ref="O2689:W2693"/>
+    <mergeCell ref="B2694:E2696"/>
+    <mergeCell ref="F2694:N2696"/>
+    <mergeCell ref="B2661:E2662"/>
+    <mergeCell ref="F2661:N2662"/>
+    <mergeCell ref="O2661:W2662"/>
+    <mergeCell ref="B2663:E2667"/>
+    <mergeCell ref="F2663:N2667"/>
+    <mergeCell ref="O2663:W2667"/>
+    <mergeCell ref="B2668:E2671"/>
+    <mergeCell ref="F2668:N2671"/>
+    <mergeCell ref="O2668:W2671"/>
+    <mergeCell ref="B2655:E2656"/>
+    <mergeCell ref="F2655:N2656"/>
+    <mergeCell ref="O2655:W2656"/>
+    <mergeCell ref="B2657:E2660"/>
+    <mergeCell ref="P1197:X1197"/>
+    <mergeCell ref="P1198:X1198"/>
+    <mergeCell ref="P1199:X1199"/>
+    <mergeCell ref="P1200:X1200"/>
+    <mergeCell ref="P1201:X1202"/>
+    <mergeCell ref="G1197:O1197"/>
+    <mergeCell ref="G1198:O1198"/>
+    <mergeCell ref="G1199:O1199"/>
+    <mergeCell ref="G1200:O1200"/>
+    <mergeCell ref="G1201:O1202"/>
+    <mergeCell ref="D1197:F1197"/>
+    <mergeCell ref="D1198:F1198"/>
+    <mergeCell ref="B2650:E2654"/>
+    <mergeCell ref="F2649:N2649"/>
+    <mergeCell ref="F2650:N2654"/>
+    <mergeCell ref="O2649:W2649"/>
+    <mergeCell ref="O2650:W2654"/>
+    <mergeCell ref="B2649:E2649"/>
+    <mergeCell ref="F2657:N2660"/>
+    <mergeCell ref="O2657:W2660"/>
+    <mergeCell ref="D1199:F1199"/>
+    <mergeCell ref="D1200:F1200"/>
+    <mergeCell ref="D1201:F1202"/>
+    <mergeCell ref="D109:M109"/>
+    <mergeCell ref="N109:W109"/>
+    <mergeCell ref="C689:F689"/>
+    <mergeCell ref="C690:F690"/>
+    <mergeCell ref="C691:F691"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C693:F693"/>
+    <mergeCell ref="C694:F694"/>
+    <mergeCell ref="C695:F695"/>
+    <mergeCell ref="C696:F696"/>
+    <mergeCell ref="G689:J689"/>
+    <mergeCell ref="G690:J690"/>
+    <mergeCell ref="G691:J691"/>
+    <mergeCell ref="G692:J692"/>
+    <mergeCell ref="G693:J693"/>
+    <mergeCell ref="G694:J694"/>
+    <mergeCell ref="G695:J695"/>
+    <mergeCell ref="G696:J696"/>
+    <mergeCell ref="C709:F709"/>
+    <mergeCell ref="C710:F710"/>
+    <mergeCell ref="C711:F711"/>
+    <mergeCell ref="D103:M103"/>
+    <mergeCell ref="N103:W103"/>
+    <mergeCell ref="D106:M106"/>
+    <mergeCell ref="N106:W106"/>
+    <mergeCell ref="D105:M105"/>
+    <mergeCell ref="N105:W105"/>
+    <mergeCell ref="D107:M107"/>
+    <mergeCell ref="N107:W107"/>
+    <mergeCell ref="D108:M108"/>
+    <mergeCell ref="N108:W108"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="N104:W104"/>
+    <mergeCell ref="K694:M694"/>
+    <mergeCell ref="K695:M695"/>
+    <mergeCell ref="K696:M696"/>
+    <mergeCell ref="N689:P689"/>
+    <mergeCell ref="N690:P690"/>
+    <mergeCell ref="N691:P691"/>
+    <mergeCell ref="N692:P692"/>
+    <mergeCell ref="N693:P693"/>
+    <mergeCell ref="N694:P694"/>
+    <mergeCell ref="N695:P695"/>
+    <mergeCell ref="N696:P696"/>
+    <mergeCell ref="K689:M689"/>
+    <mergeCell ref="K690:M690"/>
+    <mergeCell ref="K691:M691"/>
+    <mergeCell ref="K692:M692"/>
+    <mergeCell ref="K693:M693"/>
+    <mergeCell ref="G704:I704"/>
+    <mergeCell ref="G705:I705"/>
+    <mergeCell ref="G706:I706"/>
+    <mergeCell ref="G707:I707"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="C704:F704"/>
+    <mergeCell ref="C705:F705"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="N704:P704"/>
+    <mergeCell ref="N705:P705"/>
+    <mergeCell ref="N706:P706"/>
+    <mergeCell ref="N707:P707"/>
+    <mergeCell ref="N708:P708"/>
+    <mergeCell ref="N709:P709"/>
+    <mergeCell ref="N710:P710"/>
+    <mergeCell ref="N711:P711"/>
+    <mergeCell ref="J704:M704"/>
+    <mergeCell ref="J705:M705"/>
+    <mergeCell ref="J706:M706"/>
+    <mergeCell ref="J707:M707"/>
+    <mergeCell ref="J708:M708"/>
+    <mergeCell ref="C731:E731"/>
+    <mergeCell ref="C732:E732"/>
+    <mergeCell ref="C733:E733"/>
+    <mergeCell ref="C734:E734"/>
+    <mergeCell ref="C735:E735"/>
+    <mergeCell ref="J737:M737"/>
+    <mergeCell ref="F738:I738"/>
+    <mergeCell ref="J738:M738"/>
+    <mergeCell ref="J709:M709"/>
+    <mergeCell ref="J710:M710"/>
+    <mergeCell ref="J711:M711"/>
     <mergeCell ref="N731:P731"/>
     <mergeCell ref="N732:P732"/>
     <mergeCell ref="N733:P733"/>
@@ -28418,159 +28609,6 @@
     <mergeCell ref="F736:I736"/>
     <mergeCell ref="J736:M736"/>
     <mergeCell ref="F737:I737"/>
-    <mergeCell ref="C731:E731"/>
-    <mergeCell ref="C732:E732"/>
-    <mergeCell ref="C733:E733"/>
-    <mergeCell ref="C734:E734"/>
-    <mergeCell ref="C735:E735"/>
-    <mergeCell ref="J737:M737"/>
-    <mergeCell ref="F738:I738"/>
-    <mergeCell ref="J738:M738"/>
-    <mergeCell ref="J709:M709"/>
-    <mergeCell ref="J710:M710"/>
-    <mergeCell ref="J711:M711"/>
-    <mergeCell ref="N704:P704"/>
-    <mergeCell ref="N705:P705"/>
-    <mergeCell ref="N706:P706"/>
-    <mergeCell ref="N707:P707"/>
-    <mergeCell ref="N708:P708"/>
-    <mergeCell ref="N709:P709"/>
-    <mergeCell ref="N710:P710"/>
-    <mergeCell ref="N711:P711"/>
-    <mergeCell ref="J704:M704"/>
-    <mergeCell ref="J705:M705"/>
-    <mergeCell ref="J706:M706"/>
-    <mergeCell ref="J707:M707"/>
-    <mergeCell ref="J708:M708"/>
-    <mergeCell ref="G704:I704"/>
-    <mergeCell ref="G705:I705"/>
-    <mergeCell ref="G706:I706"/>
-    <mergeCell ref="G707:I707"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="C704:F704"/>
-    <mergeCell ref="C705:F705"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="K694:M694"/>
-    <mergeCell ref="K695:M695"/>
-    <mergeCell ref="K696:M696"/>
-    <mergeCell ref="N689:P689"/>
-    <mergeCell ref="N690:P690"/>
-    <mergeCell ref="N691:P691"/>
-    <mergeCell ref="N692:P692"/>
-    <mergeCell ref="N693:P693"/>
-    <mergeCell ref="N694:P694"/>
-    <mergeCell ref="N695:P695"/>
-    <mergeCell ref="N696:P696"/>
-    <mergeCell ref="K689:M689"/>
-    <mergeCell ref="K690:M690"/>
-    <mergeCell ref="K691:M691"/>
-    <mergeCell ref="K692:M692"/>
-    <mergeCell ref="K693:M693"/>
-    <mergeCell ref="D103:M103"/>
-    <mergeCell ref="N103:W103"/>
-    <mergeCell ref="D106:M106"/>
-    <mergeCell ref="N106:W106"/>
-    <mergeCell ref="D105:M105"/>
-    <mergeCell ref="N105:W105"/>
-    <mergeCell ref="D107:M107"/>
-    <mergeCell ref="N107:W107"/>
-    <mergeCell ref="D108:M108"/>
-    <mergeCell ref="N108:W108"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="N104:W104"/>
-    <mergeCell ref="D1199:F1199"/>
-    <mergeCell ref="D1200:F1200"/>
-    <mergeCell ref="D1201:F1202"/>
-    <mergeCell ref="D109:M109"/>
-    <mergeCell ref="N109:W109"/>
-    <mergeCell ref="C689:F689"/>
-    <mergeCell ref="C690:F690"/>
-    <mergeCell ref="C691:F691"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C693:F693"/>
-    <mergeCell ref="C694:F694"/>
-    <mergeCell ref="C695:F695"/>
-    <mergeCell ref="C696:F696"/>
-    <mergeCell ref="G689:J689"/>
-    <mergeCell ref="G690:J690"/>
-    <mergeCell ref="G691:J691"/>
-    <mergeCell ref="G692:J692"/>
-    <mergeCell ref="G693:J693"/>
-    <mergeCell ref="G694:J694"/>
-    <mergeCell ref="G695:J695"/>
-    <mergeCell ref="G696:J696"/>
-    <mergeCell ref="C709:F709"/>
-    <mergeCell ref="C710:F710"/>
-    <mergeCell ref="C711:F711"/>
-    <mergeCell ref="B2655:E2656"/>
-    <mergeCell ref="F2655:N2656"/>
-    <mergeCell ref="O2655:W2656"/>
-    <mergeCell ref="B2657:E2660"/>
-    <mergeCell ref="P1197:X1197"/>
-    <mergeCell ref="P1198:X1198"/>
-    <mergeCell ref="P1199:X1199"/>
-    <mergeCell ref="P1200:X1200"/>
-    <mergeCell ref="P1201:X1202"/>
-    <mergeCell ref="G1197:O1197"/>
-    <mergeCell ref="G1198:O1198"/>
-    <mergeCell ref="G1199:O1199"/>
-    <mergeCell ref="G1200:O1200"/>
-    <mergeCell ref="G1201:O1202"/>
-    <mergeCell ref="D1197:F1197"/>
-    <mergeCell ref="D1198:F1198"/>
-    <mergeCell ref="B2650:E2654"/>
-    <mergeCell ref="F2649:N2649"/>
-    <mergeCell ref="F2650:N2654"/>
-    <mergeCell ref="O2649:W2649"/>
-    <mergeCell ref="O2650:W2654"/>
-    <mergeCell ref="B2649:E2649"/>
-    <mergeCell ref="F2657:N2660"/>
-    <mergeCell ref="O2657:W2660"/>
-    <mergeCell ref="B2661:E2662"/>
-    <mergeCell ref="F2661:N2662"/>
-    <mergeCell ref="O2661:W2662"/>
-    <mergeCell ref="B2663:E2667"/>
-    <mergeCell ref="F2663:N2667"/>
-    <mergeCell ref="O2663:W2667"/>
-    <mergeCell ref="B2668:E2671"/>
-    <mergeCell ref="F2668:N2671"/>
-    <mergeCell ref="O2668:W2671"/>
-    <mergeCell ref="B2672:E2678"/>
-    <mergeCell ref="F2672:N2678"/>
-    <mergeCell ref="O2672:W2678"/>
-    <mergeCell ref="B2679:E2681"/>
-    <mergeCell ref="F2679:N2681"/>
-    <mergeCell ref="O2679:W2681"/>
-    <mergeCell ref="O2694:W2696"/>
-    <mergeCell ref="B2697:E2698"/>
-    <mergeCell ref="F2697:N2698"/>
-    <mergeCell ref="O2697:W2698"/>
-    <mergeCell ref="B2682:E2688"/>
-    <mergeCell ref="F2682:N2688"/>
-    <mergeCell ref="O2682:W2688"/>
-    <mergeCell ref="B2689:E2693"/>
-    <mergeCell ref="F2689:N2693"/>
-    <mergeCell ref="O2689:W2693"/>
-    <mergeCell ref="B2694:E2696"/>
-    <mergeCell ref="F2694:N2696"/>
-    <mergeCell ref="B2703:E2708"/>
-    <mergeCell ref="F2703:N2708"/>
-    <mergeCell ref="O2703:W2708"/>
-    <mergeCell ref="B2709:E2717"/>
-    <mergeCell ref="F2709:N2711"/>
-    <mergeCell ref="F2712:N2717"/>
-    <mergeCell ref="O2709:W2717"/>
-    <mergeCell ref="B2699:E2700"/>
-    <mergeCell ref="F2699:N2700"/>
-    <mergeCell ref="O2699:W2700"/>
-    <mergeCell ref="B2701:E2702"/>
-    <mergeCell ref="F2701:N2702"/>
-    <mergeCell ref="O2701:W2702"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
